--- a/Tables/разводы по кварталам.xlsx
+++ b/Tables/разводы по кварталам.xlsx
@@ -567,34 +567,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.3</v>
+        <v>392</v>
       </c>
       <c r="C2" t="n">
-        <v>4.033333333333333</v>
+        <v>193.2333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>4.066666666666666</v>
+        <v>343.6666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>4.1</v>
+        <v>501.1</v>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>89.7</v>
       </c>
       <c r="G2" t="n">
-        <v>4.066666666666666</v>
+        <v>196.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>348.9333333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>502.8666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>349.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.066666666666666</v>
+        <v>196.6333333333334</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -646,76 +646,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.45</v>
+        <v>4314</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1</v>
+        <v>2070</v>
       </c>
       <c r="D3" t="n">
-        <v>4.166666666666667</v>
+        <v>3755</v>
       </c>
       <c r="E3" t="n">
-        <v>4.3</v>
+        <v>5508.333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>960</v>
       </c>
       <c r="G3" t="n">
-        <v>4.133333333333334</v>
+        <v>2129.333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>4.266666666666667</v>
+        <v>3856.666666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>4.366666666666666</v>
+        <v>5607.666666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>4.35</v>
+        <v>3932.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.333333333333333</v>
+        <v>2218.333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>4.3</v>
+        <v>3890</v>
       </c>
       <c r="M3" t="n">
-        <v>4.4</v>
+        <v>5657.666666666667</v>
       </c>
       <c r="N3" t="n">
-        <v>4.300000000000001</v>
+        <v>3912.5</v>
       </c>
       <c r="O3" t="n">
-        <v>4.233333333333333</v>
+        <v>2174.333333333333</v>
       </c>
       <c r="P3" t="n">
-        <v>4.366666666666666</v>
+        <v>3917.333333333333</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.4</v>
+        <v>5688</v>
       </c>
       <c r="R3" t="n">
-        <v>4.199999999999999</v>
+        <v>1361.5</v>
       </c>
       <c r="S3" t="n">
-        <v>4.266666666666667</v>
+        <v>2691</v>
       </c>
       <c r="T3" t="n">
-        <v>4.166666666666667</v>
+        <v>4353.666666666667</v>
       </c>
       <c r="U3" t="n">
-        <v>4.3</v>
+        <v>6031</v>
       </c>
       <c r="V3" t="n">
-        <v>4.300000000000001</v>
+        <v>1383.5</v>
       </c>
       <c r="W3" t="n">
-        <v>3.8</v>
+        <v>2328.333333333333</v>
       </c>
       <c r="X3" t="n">
-        <v>3.9</v>
+        <v>3939</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.133333333333334</v>
+        <v>5309</v>
       </c>
     </row>
     <row r="4">
@@ -725,76 +725,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.2</v>
+        <v>4029.5</v>
       </c>
       <c r="C4" t="n">
-        <v>4.666666666666667</v>
+        <v>1877.333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>4.566666666666666</v>
+        <v>3267.333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>4.7</v>
+        <v>4789.666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>849</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>1813</v>
       </c>
       <c r="H4" t="n">
-        <v>4.533333333333333</v>
+        <v>3251.666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>4.666666666666667</v>
+        <v>4766.333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>4.550000000000001</v>
+        <v>3331</v>
       </c>
       <c r="K4" t="n">
-        <v>4.366666666666666</v>
+        <v>1749.333333333333</v>
       </c>
       <c r="L4" t="n">
-        <v>4.333333333333333</v>
+        <v>3094.333333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>4.5</v>
+        <v>4566.666666666667</v>
       </c>
       <c r="N4" t="n">
-        <v>4.45</v>
+        <v>3192.5</v>
       </c>
       <c r="O4" t="n">
-        <v>4.266666666666667</v>
+        <v>1700.666666666667</v>
       </c>
       <c r="P4" t="n">
-        <v>4.4</v>
+        <v>3095.666666666667</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.5</v>
+        <v>4830</v>
       </c>
       <c r="R4" t="n">
-        <v>3.05</v>
+        <v>372</v>
       </c>
       <c r="S4" t="n">
-        <v>2.666666666666667</v>
+        <v>1560.666666666667</v>
       </c>
       <c r="T4" t="n">
-        <v>3.233333333333333</v>
+        <v>2617</v>
       </c>
       <c r="U4" t="n">
-        <v>3.466666666666667</v>
+        <v>3941.333333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>4.050000000000001</v>
+        <v>1064</v>
       </c>
       <c r="W4" t="n">
-        <v>3.566666666666666</v>
+        <v>1592</v>
       </c>
       <c r="X4" t="n">
-        <v>3.666666666666667</v>
+        <v>2974</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.266666666666667</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="5">
@@ -804,76 +804,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.4</v>
+        <v>3852</v>
       </c>
       <c r="C5" t="n">
-        <v>4.033333333333333</v>
+        <v>1863</v>
       </c>
       <c r="D5" t="n">
-        <v>4.033333333333333</v>
+        <v>3291.666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>4.1</v>
+        <v>4783.666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>3.7</v>
+        <v>851</v>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>1805</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3159.666666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>3.966666666666667</v>
+        <v>4610</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>3231.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.166666666666667</v>
+        <v>1897.333333333333</v>
       </c>
       <c r="L5" t="n">
-        <v>4.166666666666667</v>
+        <v>3355.333333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>4.166666666666667</v>
+        <v>4795.666666666667</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>3346</v>
       </c>
       <c r="O5" t="n">
-        <v>3.966666666666667</v>
+        <v>1800.333333333333</v>
       </c>
       <c r="P5" t="n">
-        <v>3.966666666666667</v>
+        <v>3181.666666666667</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.85</v>
+        <v>4314</v>
       </c>
       <c r="R5" t="n">
-        <v>2.4</v>
+        <v>510</v>
       </c>
       <c r="S5" t="n">
-        <v>2.833333333333333</v>
+        <v>1819.666666666667</v>
       </c>
       <c r="T5" t="n">
-        <v>3.200000000000001</v>
+        <v>2915.333333333333</v>
       </c>
       <c r="U5" t="n">
-        <v>3.333333333333333</v>
+        <v>4263.666666666667</v>
       </c>
       <c r="V5" t="n">
-        <v>3.7</v>
+        <v>1052</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>1482.666666666667</v>
       </c>
       <c r="X5" t="n">
-        <v>2.933333333333334</v>
+        <v>2666.666666666667</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.333333333333333</v>
+        <v>3782.666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -883,76 +883,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.3</v>
+        <v>6310</v>
       </c>
       <c r="C6" t="n">
-        <v>3.9</v>
+        <v>3002.666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>3.966666666666667</v>
+        <v>5356.666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>4.1</v>
+        <v>7911.333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>1339</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>3013.666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>4.033333333333333</v>
+        <v>5460.333333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>4.066666666666666</v>
+        <v>7901.666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>5517</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3025.666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>3.933333333333334</v>
+        <v>5321</v>
       </c>
       <c r="M6" t="n">
-        <v>4.033333333333333</v>
+        <v>7816.333333333333</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>5503</v>
       </c>
       <c r="O6" t="n">
-        <v>3.833333333333333</v>
+        <v>2965.333333333333</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>5419</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.15</v>
+        <v>8468.666666666666</v>
       </c>
       <c r="R6" t="n">
-        <v>2.85</v>
+        <v>773</v>
       </c>
       <c r="S6" t="n">
-        <v>2.666666666666667</v>
+        <v>2987.333333333333</v>
       </c>
       <c r="T6" t="n">
-        <v>3.233333333333333</v>
+        <v>5093.333333333333</v>
       </c>
       <c r="U6" t="n">
-        <v>3.466666666666667</v>
+        <v>7624.333333333333</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>2022.5</v>
       </c>
       <c r="W6" t="n">
-        <v>3.6</v>
+        <v>3210</v>
       </c>
       <c r="X6" t="n">
-        <v>3.666666666666667</v>
+        <v>5617.666666666667</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.033333333333333</v>
+        <v>7830.333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -962,76 +962,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.25</v>
+        <v>2792</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1358.666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>3.966666666666667</v>
+        <v>2396.333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>4.066666666666666</v>
+        <v>3499.333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>598</v>
       </c>
       <c r="G7" t="n">
-        <v>3.866666666666667</v>
+        <v>1324.333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>4.066666666666666</v>
+        <v>2427.666666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3486</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>2384.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.766666666666667</v>
+        <v>1268</v>
       </c>
       <c r="L7" t="n">
-        <v>3.933333333333334</v>
+        <v>2313</v>
       </c>
       <c r="M7" t="n">
-        <v>3.933333333333334</v>
+        <v>3350.666666666667</v>
       </c>
       <c r="N7" t="n">
-        <v>3.8</v>
+        <v>2335</v>
       </c>
       <c r="O7" t="n">
-        <v>3.9</v>
+        <v>1304</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>2368</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>3489</v>
       </c>
       <c r="R7" t="n">
-        <v>2.6</v>
+        <v>247.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.133333333333333</v>
+        <v>1103</v>
       </c>
       <c r="T7" t="n">
-        <v>2.866666666666667</v>
+        <v>1946.333333333333</v>
       </c>
       <c r="U7" t="n">
-        <v>3.1</v>
+        <v>2959.333333333333</v>
       </c>
       <c r="V7" t="n">
-        <v>3.85</v>
+        <v>866.5</v>
       </c>
       <c r="W7" t="n">
-        <v>3.566666666666666</v>
+        <v>1373.333333333333</v>
       </c>
       <c r="X7" t="n">
-        <v>3.5</v>
+        <v>2287.333333333333</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.866666666666667</v>
+        <v>3193.666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -1041,76 +1041,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.699999999999999</v>
+        <v>2888.5</v>
       </c>
       <c r="C8" t="n">
-        <v>4.399999999999999</v>
+        <v>1459.333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>4.366666666666666</v>
+        <v>2562</v>
       </c>
       <c r="E8" t="n">
-        <v>4.4</v>
+        <v>3677</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>666</v>
       </c>
       <c r="G8" t="n">
-        <v>4.333333333333333</v>
+        <v>1458</v>
       </c>
       <c r="H8" t="n">
-        <v>4.399999999999999</v>
+        <v>2589.333333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>3764.333333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>4.35</v>
+        <v>2607.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.399999999999999</v>
+        <v>1471</v>
       </c>
       <c r="L8" t="n">
-        <v>4.6</v>
+        <v>2701</v>
       </c>
       <c r="M8" t="n">
-        <v>4.5</v>
+        <v>3824.333333333333</v>
       </c>
       <c r="N8" t="n">
-        <v>4.35</v>
+        <v>2652</v>
       </c>
       <c r="O8" t="n">
-        <v>4.333333333333333</v>
+        <v>1440.333333333333</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>2620</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.5</v>
+        <v>3772.333333333333</v>
       </c>
       <c r="R8" t="n">
-        <v>2.9</v>
+        <v>403.5</v>
       </c>
       <c r="S8" t="n">
-        <v>3.066666666666666</v>
+        <v>1488.666666666667</v>
       </c>
       <c r="T8" t="n">
-        <v>3.733333333333333</v>
+        <v>2565.333333333333</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3789.333333333333</v>
       </c>
       <c r="V8" t="n">
-        <v>4.5</v>
+        <v>955.5</v>
       </c>
       <c r="W8" t="n">
-        <v>3.866666666666667</v>
+        <v>1420</v>
       </c>
       <c r="X8" t="n">
-        <v>3.5</v>
+        <v>2336</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.166666666666667</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="9">
@@ -1120,76 +1120,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.65</v>
+        <v>1908.5</v>
       </c>
       <c r="C9" t="n">
-        <v>4.2</v>
+        <v>902</v>
       </c>
       <c r="D9" t="n">
-        <v>4.166666666666667</v>
+        <v>1583.333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>4.3</v>
+        <v>2320.666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>447</v>
       </c>
       <c r="G9" t="n">
-        <v>4.133333333333333</v>
+        <v>888</v>
       </c>
       <c r="H9" t="n">
-        <v>4.166666666666667</v>
+        <v>1573</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>2274.666666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>1564.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.166666666666667</v>
+        <v>891.3333333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>4.2</v>
+        <v>1588</v>
       </c>
       <c r="M9" t="n">
-        <v>4.266666666666667</v>
+        <v>2287</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>1584</v>
       </c>
       <c r="O9" t="n">
-        <v>4.133333333333334</v>
+        <v>874.3333333333334</v>
       </c>
       <c r="P9" t="n">
-        <v>4.066666666666666</v>
+        <v>1516.666666666667</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.1</v>
+        <v>2237</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>196</v>
       </c>
       <c r="S9" t="n">
-        <v>2.7</v>
+        <v>820.6666666666666</v>
       </c>
       <c r="T9" t="n">
-        <v>3.200000000000001</v>
+        <v>1393.333333333333</v>
       </c>
       <c r="U9" t="n">
-        <v>3.466666666666667</v>
+        <v>2111.666666666667</v>
       </c>
       <c r="V9" t="n">
-        <v>3.9</v>
+        <v>513</v>
       </c>
       <c r="W9" t="n">
-        <v>3.166666666666667</v>
+        <v>754.3333333333334</v>
       </c>
       <c r="X9" t="n">
-        <v>3.333333333333333</v>
+        <v>1414.666666666667</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.9</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="10">
@@ -1199,76 +1199,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>3250.5</v>
       </c>
       <c r="C10" t="n">
-        <v>4.266666666666667</v>
+        <v>1567.333333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>4.3</v>
+        <v>2796.666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>4.4</v>
+        <v>4113.666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>707</v>
       </c>
       <c r="G10" t="n">
-        <v>4.3</v>
+        <v>1600.666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>4.333333333333333</v>
+        <v>2830.333333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>4.333333333333333</v>
+        <v>4056.666666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>4.15</v>
+        <v>2807.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>1579.666666666667</v>
       </c>
       <c r="L10" t="n">
-        <v>4.333333333333333</v>
+        <v>2834</v>
       </c>
       <c r="M10" t="n">
-        <v>4.466666666666667</v>
+        <v>4143.333333333333</v>
       </c>
       <c r="N10" t="n">
-        <v>4.300000000000001</v>
+        <v>2861</v>
       </c>
       <c r="O10" t="n">
-        <v>4.2</v>
+        <v>1543.333333333333</v>
       </c>
       <c r="P10" t="n">
-        <v>4.3</v>
+        <v>2782.333333333333</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.4</v>
+        <v>4099</v>
       </c>
       <c r="R10" t="n">
-        <v>2.7</v>
+        <v>345</v>
       </c>
       <c r="S10" t="n">
-        <v>2.466666666666667</v>
+        <v>1306.666666666667</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2241.666666666667</v>
       </c>
       <c r="U10" t="n">
-        <v>3.266666666666667</v>
+        <v>3420.666666666667</v>
       </c>
       <c r="V10" t="n">
-        <v>3.85</v>
+        <v>944.5</v>
       </c>
       <c r="W10" t="n">
-        <v>3.5</v>
+        <v>1480</v>
       </c>
       <c r="X10" t="n">
-        <v>3.6</v>
+        <v>2658</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.066666666666666</v>
+        <v>3714.333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -1278,76 +1278,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.45</v>
+        <v>3228.5</v>
       </c>
       <c r="C11" t="n">
-        <v>4.133333333333334</v>
+        <v>1573</v>
       </c>
       <c r="D11" t="n">
-        <v>4.1</v>
+        <v>2749</v>
       </c>
       <c r="E11" t="n">
-        <v>4.2</v>
+        <v>4032</v>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>683</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>1524.666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>4.133333333333333</v>
+        <v>2765.333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4025.333333333333</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2799.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.066666666666666</v>
+        <v>1557</v>
       </c>
       <c r="L11" t="n">
-        <v>4.2</v>
+        <v>2821</v>
       </c>
       <c r="M11" t="n">
-        <v>4.3</v>
+        <v>4155</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>2832.5</v>
       </c>
       <c r="O11" t="n">
-        <v>3.933333333333334</v>
+        <v>1482.333333333333</v>
       </c>
       <c r="P11" t="n">
-        <v>4.100000000000001</v>
+        <v>2743</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.2</v>
+        <v>3981.333333333333</v>
       </c>
       <c r="R11" t="n">
-        <v>2.45</v>
+        <v>349</v>
       </c>
       <c r="S11" t="n">
-        <v>2.533333333333333</v>
+        <v>1410.666666666667</v>
       </c>
       <c r="T11" t="n">
-        <v>3.1</v>
+        <v>2392.333333333333</v>
       </c>
       <c r="U11" t="n">
-        <v>3.3</v>
+        <v>3587</v>
       </c>
       <c r="V11" t="n">
-        <v>3.95</v>
+        <v>981</v>
       </c>
       <c r="W11" t="n">
-        <v>3.566666666666666</v>
+        <v>1642</v>
       </c>
       <c r="X11" t="n">
-        <v>3.866666666666667</v>
+        <v>2905.666666666667</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.2</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="12">
@@ -1357,76 +1357,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.65</v>
+        <v>20290</v>
       </c>
       <c r="C12" t="n">
-        <v>4.5</v>
+        <v>10721</v>
       </c>
       <c r="D12" t="n">
-        <v>4.5</v>
+        <v>18817.33333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>4.566666666666666</v>
+        <v>27365</v>
       </c>
       <c r="F12" t="n">
-        <v>4.1</v>
+        <v>4869</v>
       </c>
       <c r="G12" t="n">
-        <v>4.466666666666667</v>
+        <v>10828</v>
       </c>
       <c r="H12" t="n">
-        <v>4.533333333333333</v>
+        <v>19314</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>27842</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>19368.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.466666666666667</v>
+        <v>10968</v>
       </c>
       <c r="L12" t="n">
-        <v>4.6</v>
+        <v>19826.33333333333</v>
       </c>
       <c r="M12" t="n">
-        <v>4.6</v>
+        <v>28572.33333333333</v>
       </c>
       <c r="N12" t="n">
-        <v>4.550000000000001</v>
+        <v>20044.5</v>
       </c>
       <c r="O12" t="n">
-        <v>4.433333333333334</v>
+        <v>10941</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>19530</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.35</v>
+        <v>28813.66666666667</v>
       </c>
       <c r="R12" t="n">
-        <v>3.15</v>
+        <v>3319</v>
       </c>
       <c r="S12" t="n">
-        <v>3.299999999999999</v>
+        <v>11930.66666666667</v>
       </c>
       <c r="T12" t="n">
-        <v>3.866666666666667</v>
+        <v>19851</v>
       </c>
       <c r="U12" t="n">
-        <v>4.066666666666666</v>
+        <v>29197</v>
       </c>
       <c r="V12" t="n">
-        <v>4.55</v>
+        <v>7283</v>
       </c>
       <c r="W12" t="n">
-        <v>3.733333333333333</v>
+        <v>10124</v>
       </c>
       <c r="X12" t="n">
-        <v>3.333333333333333</v>
+        <v>17481.33333333333</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.966666666666667</v>
+        <v>25548.66666666667</v>
       </c>
     </row>
     <row r="13">
@@ -1436,76 +1436,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.7</v>
+        <v>2253</v>
       </c>
       <c r="C13" t="n">
-        <v>4.266666666666667</v>
+        <v>1072</v>
       </c>
       <c r="D13" t="n">
-        <v>4.366666666666666</v>
+        <v>1935</v>
       </c>
       <c r="E13" t="n">
-        <v>4.433333333333334</v>
+        <v>2820.666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>451</v>
       </c>
       <c r="G13" t="n">
-        <v>4.066666666666666</v>
+        <v>1025.666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>4.133333333333333</v>
+        <v>1831.333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>4.233333333333333</v>
+        <v>2674</v>
       </c>
       <c r="J13" t="n">
-        <v>4.3</v>
+        <v>1880</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>1092</v>
       </c>
       <c r="L13" t="n">
-        <v>4.433333333333334</v>
+        <v>1930</v>
       </c>
       <c r="M13" t="n">
-        <v>4.433333333333334</v>
+        <v>2779.666666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>1904.5</v>
       </c>
       <c r="O13" t="n">
-        <v>3.833333333333333</v>
+        <v>947.3333333333334</v>
       </c>
       <c r="P13" t="n">
-        <v>4.100000000000001</v>
+        <v>1778.333333333333</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.2</v>
+        <v>2704.666666666667</v>
       </c>
       <c r="R13" t="n">
-        <v>2.8</v>
+        <v>235.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.6</v>
+        <v>944.3333333333334</v>
       </c>
       <c r="T13" t="n">
-        <v>3.233333333333333</v>
+        <v>1634.333333333333</v>
       </c>
       <c r="U13" t="n">
-        <v>3.5</v>
+        <v>2437</v>
       </c>
       <c r="V13" t="n">
-        <v>3.7</v>
+        <v>564.5</v>
       </c>
       <c r="W13" t="n">
-        <v>3.133333333333333</v>
+        <v>834</v>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>1491.666666666667</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.633333333333333</v>
+        <v>2219.666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -1515,76 +1515,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.35</v>
+        <v>3097</v>
       </c>
       <c r="C14" t="n">
-        <v>4.1</v>
+        <v>1528.666666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>4.166666666666667</v>
+        <v>2746.333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>4.3</v>
+        <v>4057.666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>3.7</v>
+        <v>680</v>
       </c>
       <c r="G14" t="n">
-        <v>4.066666666666666</v>
+        <v>1526.333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>4.133333333333333</v>
+        <v>2723.666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>4.233333333333333</v>
+        <v>3949</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>2773</v>
       </c>
       <c r="K14" t="n">
-        <v>4.233333333333333</v>
+        <v>1564</v>
       </c>
       <c r="L14" t="n">
-        <v>4.333333333333333</v>
+        <v>2824</v>
       </c>
       <c r="M14" t="n">
-        <v>4.4</v>
+        <v>4115.666666666667</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>2891.5</v>
       </c>
       <c r="O14" t="n">
-        <v>4.166666666666667</v>
+        <v>1540</v>
       </c>
       <c r="P14" t="n">
-        <v>4.233333333333333</v>
+        <v>2761.666666666667</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.15</v>
+        <v>4141.666666666667</v>
       </c>
       <c r="R14" t="n">
-        <v>2.9</v>
+        <v>375.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.666666666666667</v>
+        <v>1409.333333333333</v>
       </c>
       <c r="T14" t="n">
-        <v>3.166666666666667</v>
+        <v>2388.333333333333</v>
       </c>
       <c r="U14" t="n">
-        <v>3.466666666666667</v>
+        <v>3638</v>
       </c>
       <c r="V14" t="n">
-        <v>4.1</v>
+        <v>988</v>
       </c>
       <c r="W14" t="n">
-        <v>3.533333333333333</v>
+        <v>1396</v>
       </c>
       <c r="X14" t="n">
-        <v>3.1</v>
+        <v>2363.666666666667</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.833333333333333</v>
+        <v>3531.666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -1594,76 +1594,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.9</v>
+        <v>2934</v>
       </c>
       <c r="C15" t="n">
-        <v>4.466666666666667</v>
+        <v>1424.333333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>4.566666666666666</v>
+        <v>2578.666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>4.633333333333333</v>
+        <v>3706.666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>679</v>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>1424</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>2500.333333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>3572.333333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>2477</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>1377.666666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>4.5</v>
+        <v>2474.666666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>4.5</v>
+        <v>3566.666666666667</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3</v>
+        <v>2471.5</v>
       </c>
       <c r="O15" t="n">
-        <v>4.2</v>
+        <v>1324</v>
       </c>
       <c r="P15" t="n">
-        <v>4.366666666666666</v>
+        <v>2404.666666666667</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.4</v>
+        <v>3479.666666666667</v>
       </c>
       <c r="R15" t="n">
-        <v>2.7</v>
+        <v>326</v>
       </c>
       <c r="S15" t="n">
-        <v>2.933333333333334</v>
+        <v>1332.333333333333</v>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>2203.666666666667</v>
       </c>
       <c r="U15" t="n">
-        <v>3.633333333333333</v>
+        <v>3233</v>
       </c>
       <c r="V15" t="n">
-        <v>4.1</v>
+        <v>806</v>
       </c>
       <c r="W15" t="n">
-        <v>3.566666666666666</v>
+        <v>1293.333333333333</v>
       </c>
       <c r="X15" t="n">
-        <v>3.633333333333333</v>
+        <v>2272</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.2</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="16">
@@ -1673,76 +1673,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.15</v>
+        <v>2773.5</v>
       </c>
       <c r="C16" t="n">
-        <v>3.866666666666667</v>
+        <v>1349</v>
       </c>
       <c r="D16" t="n">
-        <v>3.866666666666667</v>
+        <v>2385.666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>3.966666666666667</v>
+        <v>3495.666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>589</v>
       </c>
       <c r="G16" t="n">
-        <v>3.700000000000001</v>
+        <v>1294.666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>3.799999999999999</v>
+        <v>2333.333333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3387.666666666667</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>2349.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.733333333333333</v>
+        <v>1282.333333333333</v>
       </c>
       <c r="L16" t="n">
-        <v>3.933333333333334</v>
+        <v>2366</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3455</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>2375</v>
       </c>
       <c r="O16" t="n">
-        <v>3.9</v>
+        <v>1336</v>
       </c>
       <c r="P16" t="n">
-        <v>3.933333333333334</v>
+        <v>2351.333333333333</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.9</v>
+        <v>3357</v>
       </c>
       <c r="R16" t="n">
-        <v>2.3</v>
+        <v>275</v>
       </c>
       <c r="S16" t="n">
-        <v>2.366666666666667</v>
+        <v>1159.666666666667</v>
       </c>
       <c r="T16" t="n">
-        <v>2.866666666666667</v>
+        <v>1966.666666666667</v>
       </c>
       <c r="U16" t="n">
-        <v>3.066666666666666</v>
+        <v>2922.666666666667</v>
       </c>
       <c r="V16" t="n">
-        <v>3.55</v>
+        <v>771.5</v>
       </c>
       <c r="W16" t="n">
-        <v>3.1</v>
+        <v>1182.333333333333</v>
       </c>
       <c r="X16" t="n">
-        <v>2.966666666666667</v>
+        <v>1994.333333333333</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.466666666666667</v>
+        <v>2899.666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -1752,76 +1752,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.55</v>
+        <v>3732.5</v>
       </c>
       <c r="C17" t="n">
-        <v>4.233333333333333</v>
+        <v>1847</v>
       </c>
       <c r="D17" t="n">
-        <v>4.233333333333333</v>
+        <v>3222</v>
       </c>
       <c r="E17" t="n">
-        <v>4.3</v>
+        <v>4704</v>
       </c>
       <c r="F17" t="n">
-        <v>3.8</v>
+        <v>810</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>1735.666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>4.166666666666667</v>
+        <v>3157</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>4552</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>3163</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>1864.666666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>4.4</v>
+        <v>3299.333333333333</v>
       </c>
       <c r="M17" t="n">
-        <v>4.4</v>
+        <v>4722</v>
       </c>
       <c r="N17" t="n">
-        <v>4.300000000000001</v>
+        <v>3297</v>
       </c>
       <c r="O17" t="n">
-        <v>4.2</v>
+        <v>1782.333333333333</v>
       </c>
       <c r="P17" t="n">
-        <v>4.366666666666666</v>
+        <v>3246.666666666667</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.25</v>
+        <v>4679.333333333333</v>
       </c>
       <c r="R17" t="n">
-        <v>2.8</v>
+        <v>452.5</v>
       </c>
       <c r="S17" t="n">
-        <v>2.666666666666667</v>
+        <v>1632.333333333333</v>
       </c>
       <c r="T17" t="n">
-        <v>3.266666666666667</v>
+        <v>2796</v>
       </c>
       <c r="U17" t="n">
-        <v>3.5</v>
+        <v>4177.333333333333</v>
       </c>
       <c r="V17" t="n">
-        <v>3.9</v>
+        <v>1033.5</v>
       </c>
       <c r="W17" t="n">
-        <v>3.299999999999999</v>
+        <v>1566.333333333333</v>
       </c>
       <c r="X17" t="n">
-        <v>3.266666666666667</v>
+        <v>2775.666666666667</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.9</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="18">
@@ -1831,76 +1831,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.55</v>
+        <v>4257.5</v>
       </c>
       <c r="C18" t="n">
-        <v>4.1</v>
+        <v>2041.333333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3517.666666666667</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5045.666666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>920</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>2007.333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>3599</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>5160.666666666667</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>3602.5</v>
       </c>
       <c r="K18" t="n">
-        <v>4.166666666666667</v>
+        <v>2045.666666666667</v>
       </c>
       <c r="L18" t="n">
-        <v>4.066666666666666</v>
+        <v>3546.666666666667</v>
       </c>
       <c r="M18" t="n">
-        <v>4.166666666666667</v>
+        <v>5210.666666666667</v>
       </c>
       <c r="N18" t="n">
-        <v>3.95</v>
+        <v>3608.5</v>
       </c>
       <c r="O18" t="n">
-        <v>3.833333333333333</v>
+        <v>1887.666666666667</v>
       </c>
       <c r="P18" t="n">
-        <v>3.966666666666667</v>
+        <v>3444</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.1</v>
+        <v>5252.666666666667</v>
       </c>
       <c r="R18" t="n">
-        <v>2.7</v>
+        <v>484</v>
       </c>
       <c r="S18" t="n">
-        <v>2.633333333333333</v>
+        <v>1876.666666666667</v>
       </c>
       <c r="T18" t="n">
-        <v>3.166666666666667</v>
+        <v>3121.666666666667</v>
       </c>
       <c r="U18" t="n">
-        <v>3.3</v>
+        <v>4566.666666666667</v>
       </c>
       <c r="V18" t="n">
-        <v>3.75</v>
+        <v>1203</v>
       </c>
       <c r="W18" t="n">
-        <v>3.233333333333333</v>
+        <v>1767.666666666667</v>
       </c>
       <c r="X18" t="n">
-        <v>3.166666666666667</v>
+        <v>3032</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.566666666666666</v>
+        <v>4351.666666666667</v>
       </c>
     </row>
     <row r="19">
@@ -1910,76 +1910,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.45</v>
+        <v>3591</v>
       </c>
       <c r="C19" t="n">
-        <v>4.100000000000001</v>
+        <v>1727.333333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>4.133333333333333</v>
+        <v>3059.333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>4.2</v>
+        <v>4477.333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>3.9</v>
+        <v>820</v>
       </c>
       <c r="G19" t="n">
-        <v>4.233333333333333</v>
+        <v>1775.333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>3039.333333333333</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>4313</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>2973.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4.066666666666666</v>
+        <v>1688.666666666667</v>
       </c>
       <c r="L19" t="n">
-        <v>4.033333333333333</v>
+        <v>2967</v>
       </c>
       <c r="M19" t="n">
-        <v>4.1</v>
+        <v>4311.666666666667</v>
       </c>
       <c r="N19" t="n">
-        <v>4.05</v>
+        <v>3002</v>
       </c>
       <c r="O19" t="n">
-        <v>4.2</v>
+        <v>1748.666666666667</v>
       </c>
       <c r="P19" t="n">
-        <v>4.166666666666667</v>
+        <v>3071</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.2</v>
+        <v>4495</v>
       </c>
       <c r="R19" t="n">
-        <v>2.6</v>
+        <v>415</v>
       </c>
       <c r="S19" t="n">
-        <v>2.7</v>
+        <v>1594.666666666667</v>
       </c>
       <c r="T19" t="n">
-        <v>3.133333333333333</v>
+        <v>2646.666666666667</v>
       </c>
       <c r="U19" t="n">
-        <v>3.333333333333333</v>
+        <v>3947.666666666667</v>
       </c>
       <c r="V19" t="n">
-        <v>3.75</v>
+        <v>1027</v>
       </c>
       <c r="W19" t="n">
-        <v>3.3</v>
+        <v>1457.666666666667</v>
       </c>
       <c r="X19" t="n">
-        <v>2.833333333333333</v>
+        <v>2413.666666666667</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.5</v>
+        <v>3652.666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -1989,55 +1989,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.4</v>
+        <v>25791</v>
       </c>
       <c r="C20" t="n">
-        <v>3.433333333333334</v>
+        <v>13811.66666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>3.433333333333334</v>
+        <v>24488.66666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>3.5</v>
+        <v>35591</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>6100</v>
       </c>
       <c r="G20" t="n">
-        <v>3.366666666666667</v>
+        <v>13909.33333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>3.433333333333334</v>
+        <v>24690.66666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>3.466666666666667</v>
+        <v>35523.66666666666</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>24813.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.566666666666666</v>
+        <v>14499.66666666667</v>
       </c>
       <c r="L20" t="n">
-        <v>3.566666666666666</v>
+        <v>25617.33333333333</v>
       </c>
       <c r="M20" t="n">
-        <v>3.6</v>
+        <v>36890.33333333334</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>25796</v>
       </c>
       <c r="O20" t="n">
-        <v>3.533333333333333</v>
+        <v>14589.33333333333</v>
       </c>
       <c r="P20" t="n">
-        <v>3.6</v>
+        <v>26163.33333333333</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.65</v>
+        <v>37938.66666666666</v>
       </c>
       <c r="R20" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2068,76 +2068,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.4</v>
+        <v>1820.5</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>837.3333333333334</v>
       </c>
       <c r="D21" t="n">
-        <v>4.066666666666666</v>
+        <v>1500.666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>4.233333333333333</v>
+        <v>2218.666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>4.2</v>
+        <v>436</v>
       </c>
       <c r="G21" t="n">
-        <v>4.366666666666666</v>
+        <v>909.3333333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>4.333333333333333</v>
+        <v>1592</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>2306.666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>1606</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>891.3333333333334</v>
       </c>
       <c r="L21" t="n">
-        <v>4.3</v>
+        <v>1568.333333333333</v>
       </c>
       <c r="M21" t="n">
-        <v>4.366666666666666</v>
+        <v>2274.666666666667</v>
       </c>
       <c r="N21" t="n">
-        <v>4.25</v>
+        <v>1581</v>
       </c>
       <c r="O21" t="n">
-        <v>4.166666666666667</v>
+        <v>858.6666666666666</v>
       </c>
       <c r="P21" t="n">
-        <v>4.2</v>
+        <v>1513</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.25</v>
+        <v>2300</v>
       </c>
       <c r="R21" t="n">
-        <v>4.45</v>
+        <v>560.5</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>1157.333333333333</v>
       </c>
       <c r="T21" t="n">
-        <v>4.5</v>
+        <v>1865.333333333333</v>
       </c>
       <c r="U21" t="n">
-        <v>4.533333333333333</v>
+        <v>2577.666666666667</v>
       </c>
       <c r="V21" t="n">
-        <v>4.5</v>
+        <v>544</v>
       </c>
       <c r="W21" t="n">
-        <v>3.5</v>
+        <v>811.3333333333334</v>
       </c>
       <c r="X21" t="n">
-        <v>3.5</v>
+        <v>1416.666666666667</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.866666666666667</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="22">
@@ -2147,76 +2147,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.85</v>
+        <v>2715.5</v>
       </c>
       <c r="C22" t="n">
-        <v>4.533333333333333</v>
+        <v>1292</v>
       </c>
       <c r="D22" t="n">
-        <v>4.566666666666666</v>
+        <v>2293.333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>4.633333333333333</v>
+        <v>3340.333333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>4.7</v>
+        <v>657</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>1420.666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>4.866666666666667</v>
+        <v>2431.333333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>3439</v>
       </c>
       <c r="J22" t="n">
-        <v>5.15</v>
+        <v>2441.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>1531</v>
       </c>
       <c r="L22" t="n">
-        <v>5.133333333333333</v>
+        <v>2533.666666666667</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3520.666666666667</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>2454.5</v>
       </c>
       <c r="O22" t="n">
-        <v>4.866666666666666</v>
+        <v>1341</v>
       </c>
       <c r="P22" t="n">
-        <v>4.7</v>
+        <v>2299</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.6</v>
+        <v>3394.666666666667</v>
       </c>
       <c r="R22" t="n">
-        <v>3.2</v>
+        <v>307.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.866666666666667</v>
+        <v>1140.333333333333</v>
       </c>
       <c r="T22" t="n">
-        <v>3.4</v>
+        <v>1884.333333333333</v>
       </c>
       <c r="U22" t="n">
-        <v>3.566666666666666</v>
+        <v>2814</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>697</v>
       </c>
       <c r="W22" t="n">
-        <v>3.566666666666666</v>
+        <v>1133</v>
       </c>
       <c r="X22" t="n">
-        <v>3.566666666666666</v>
+        <v>1932.666666666667</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>2707.666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -2226,76 +2226,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.5</v>
+        <v>3483</v>
       </c>
       <c r="C23" t="n">
-        <v>4.233333333333333</v>
+        <v>1654.333333333333</v>
       </c>
       <c r="D23" t="n">
-        <v>4.2</v>
+        <v>2887.666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>4.3</v>
+        <v>4205.333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>4.1</v>
+        <v>789</v>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>1635.666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>2854.666666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4086.666666666667</v>
       </c>
       <c r="J23" t="n">
-        <v>4.3</v>
+        <v>2908.5</v>
       </c>
       <c r="K23" t="n">
-        <v>4.399999999999999</v>
+        <v>1688</v>
       </c>
       <c r="L23" t="n">
-        <v>4.333333333333333</v>
+        <v>2908</v>
       </c>
       <c r="M23" t="n">
-        <v>4.3</v>
+        <v>4131</v>
       </c>
       <c r="N23" t="n">
-        <v>4.199999999999999</v>
+        <v>2875</v>
       </c>
       <c r="O23" t="n">
-        <v>4.366666666666667</v>
+        <v>1661.666666666667</v>
       </c>
       <c r="P23" t="n">
-        <v>4.4</v>
+        <v>2929</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.4</v>
+        <v>4385.333333333333</v>
       </c>
       <c r="R23" t="n">
-        <v>2.95</v>
+        <v>402</v>
       </c>
       <c r="S23" t="n">
-        <v>2.7</v>
+        <v>1478.666666666667</v>
       </c>
       <c r="T23" t="n">
-        <v>3.133333333333333</v>
+        <v>2425</v>
       </c>
       <c r="U23" t="n">
-        <v>3.3</v>
+        <v>3576.333333333333</v>
       </c>
       <c r="V23" t="n">
-        <v>3.95</v>
+        <v>994</v>
       </c>
       <c r="W23" t="n">
-        <v>3.6</v>
+        <v>1522</v>
       </c>
       <c r="X23" t="n">
-        <v>3.466666666666667</v>
+        <v>2648</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.933333333333334</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="24">
@@ -2305,55 +2305,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.5</v>
+        <v>3356.5</v>
       </c>
       <c r="C24" t="n">
-        <v>4.233333333333333</v>
+        <v>1596</v>
       </c>
       <c r="D24" t="n">
-        <v>4.2</v>
+        <v>2787</v>
       </c>
       <c r="E24" t="n">
-        <v>4.3</v>
+        <v>4063</v>
       </c>
       <c r="F24" t="n">
-        <v>4.1</v>
+        <v>757</v>
       </c>
       <c r="G24" t="n">
-        <v>4.2</v>
+        <v>1568.333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>2746.333333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>3940</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>2800</v>
       </c>
       <c r="K24" t="n">
-        <v>4.433333333333334</v>
+        <v>1634.333333333333</v>
       </c>
       <c r="L24" t="n">
-        <v>4.333333333333333</v>
+        <v>2819.666666666667</v>
       </c>
       <c r="M24" t="n">
-        <v>4.3</v>
+        <v>4018</v>
       </c>
       <c r="N24" t="n">
-        <v>4.25</v>
+        <v>2794.5</v>
       </c>
       <c r="O24" t="n">
-        <v>4.4</v>
+        <v>1606.666666666667</v>
       </c>
       <c r="P24" t="n">
-        <v>4.4</v>
+        <v>2832.333333333333</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.4</v>
+        <v>4245</v>
       </c>
       <c r="R24" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2384,76 +2384,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.95</v>
+        <v>3114</v>
       </c>
       <c r="C25" t="n">
-        <v>3.5</v>
+        <v>1377.666666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>3.6</v>
+        <v>2491.666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>3.6</v>
+        <v>3601</v>
       </c>
       <c r="F25" t="n">
-        <v>3.6</v>
+        <v>705</v>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>1535.333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>2693.333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>3843.333333333333</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>2643</v>
       </c>
       <c r="K25" t="n">
-        <v>3.733333333333333</v>
+        <v>1455.666666666667</v>
       </c>
       <c r="L25" t="n">
-        <v>3.866666666666667</v>
+        <v>2672</v>
       </c>
       <c r="M25" t="n">
-        <v>3.966666666666667</v>
+        <v>3893.333333333333</v>
       </c>
       <c r="N25" t="n">
-        <v>3.85</v>
+        <v>2700.5</v>
       </c>
       <c r="O25" t="n">
-        <v>3.966666666666667</v>
+        <v>1531.333333333333</v>
       </c>
       <c r="P25" t="n">
-        <v>3.933333333333334</v>
+        <v>2680.666666666667</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>3830.666666666667</v>
       </c>
       <c r="R25" t="n">
-        <v>2.4</v>
+        <v>370.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.566666666666667</v>
+        <v>1428.666666666667</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>2366.333333333333</v>
       </c>
       <c r="U25" t="n">
-        <v>3.200000000000001</v>
+        <v>3525.666666666667</v>
       </c>
       <c r="V25" t="n">
-        <v>3.85</v>
+        <v>1010</v>
       </c>
       <c r="W25" t="n">
-        <v>3.633333333333333</v>
+        <v>1574.666666666667</v>
       </c>
       <c r="X25" t="n">
-        <v>3.333333333333333</v>
+        <v>2534.666666666667</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.6</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="26">
@@ -2463,76 +2463,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.35</v>
+        <v>3160.5</v>
       </c>
       <c r="C26" t="n">
-        <v>5.2</v>
+        <v>1663.333333333333</v>
       </c>
       <c r="D26" t="n">
-        <v>5.233333333333333</v>
+        <v>2954.666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>5.400000000000001</v>
+        <v>4344</v>
       </c>
       <c r="F26" t="n">
-        <v>5.3</v>
+        <v>851</v>
       </c>
       <c r="G26" t="n">
-        <v>5.266666666666667</v>
+        <v>1703.666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>5.233333333333333</v>
+        <v>2979</v>
       </c>
       <c r="I26" t="n">
-        <v>5.3</v>
+        <v>4310.666666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>5.1</v>
+        <v>2978</v>
       </c>
       <c r="K26" t="n">
-        <v>5.033333333333333</v>
+        <v>1620</v>
       </c>
       <c r="L26" t="n">
-        <v>5.033333333333333</v>
+        <v>2874.666666666667</v>
       </c>
       <c r="M26" t="n">
-        <v>5.066666666666666</v>
+        <v>4168.333333333333</v>
       </c>
       <c r="N26" t="n">
-        <v>5.3</v>
+        <v>2961.5</v>
       </c>
       <c r="O26" t="n">
-        <v>5.366666666666667</v>
+        <v>1764.666666666667</v>
       </c>
       <c r="P26" t="n">
-        <v>5.2</v>
+        <v>3006</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.25</v>
+        <v>4475.333333333333</v>
       </c>
       <c r="R26" t="n">
-        <v>3.85</v>
+        <v>577.5</v>
       </c>
       <c r="S26" t="n">
-        <v>3.666666666666667</v>
+        <v>1651.666666666667</v>
       </c>
       <c r="T26" t="n">
-        <v>4.066666666666666</v>
+        <v>2737.333333333333</v>
       </c>
       <c r="U26" t="n">
-        <v>4.333333333333334</v>
+        <v>4114.333333333333</v>
       </c>
       <c r="V26" t="n">
-        <v>4.8</v>
+        <v>1020.5</v>
       </c>
       <c r="W26" t="n">
-        <v>4.3</v>
+        <v>1721.333333333333</v>
       </c>
       <c r="X26" t="n">
-        <v>4.433333333333333</v>
+        <v>2940.333333333333</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.9</v>
+        <v>4132.666666666667</v>
       </c>
     </row>
     <row r="27">
@@ -2542,76 +2542,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.15</v>
+        <v>4618.5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.933333333333334</v>
+        <v>2313</v>
       </c>
       <c r="D27" t="n">
-        <v>4.033333333333333</v>
+        <v>4155</v>
       </c>
       <c r="E27" t="n">
-        <v>4.066666666666666</v>
+        <v>5989.333333333333</v>
       </c>
       <c r="F27" t="n">
-        <v>3.7</v>
+        <v>1065</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>2350.333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4152.666666666667</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>6051.666666666667</v>
       </c>
       <c r="J27" t="n">
-        <v>4.1</v>
+        <v>4250.5</v>
       </c>
       <c r="K27" t="n">
-        <v>4.133333333333334</v>
+        <v>2432</v>
       </c>
       <c r="L27" t="n">
-        <v>4.1</v>
+        <v>4281.666666666667</v>
       </c>
       <c r="M27" t="n">
-        <v>4.133333333333333</v>
+        <v>6138.666666666667</v>
       </c>
       <c r="N27" t="n">
-        <v>4.1</v>
+        <v>4319</v>
       </c>
       <c r="O27" t="n">
-        <v>4.166666666666667</v>
+        <v>2494</v>
       </c>
       <c r="P27" t="n">
-        <v>4.2</v>
+        <v>4439</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.1</v>
+        <v>6021.333333333333</v>
       </c>
       <c r="R27" t="n">
-        <v>2.45</v>
+        <v>608.5</v>
       </c>
       <c r="S27" t="n">
-        <v>2.6</v>
+        <v>2282</v>
       </c>
       <c r="T27" t="n">
-        <v>3.066666666666666</v>
+        <v>3840</v>
       </c>
       <c r="U27" t="n">
-        <v>3.3</v>
+        <v>5724</v>
       </c>
       <c r="V27" t="n">
-        <v>3.75</v>
+        <v>1493.5</v>
       </c>
       <c r="W27" t="n">
-        <v>3.266666666666667</v>
+        <v>2274</v>
       </c>
       <c r="X27" t="n">
-        <v>3</v>
+        <v>3701.333333333333</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.333333333333333</v>
+        <v>5203.333333333333</v>
       </c>
     </row>
     <row r="28">
@@ -2621,76 +2621,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.65</v>
+        <v>2717</v>
       </c>
       <c r="C28" t="n">
-        <v>5.333333333333333</v>
+        <v>1349.333333333333</v>
       </c>
       <c r="D28" t="n">
-        <v>5.2</v>
+        <v>2320.666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>5.166666666666667</v>
+        <v>3307.666666666667</v>
       </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>591</v>
       </c>
       <c r="G28" t="n">
-        <v>5.533333333333334</v>
+        <v>1401.666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>5.433333333333334</v>
+        <v>2411</v>
       </c>
       <c r="I28" t="n">
-        <v>5.400000000000001</v>
+        <v>3427.333333333333</v>
       </c>
       <c r="J28" t="n">
-        <v>5.2</v>
+        <v>2383</v>
       </c>
       <c r="K28" t="n">
-        <v>5.566666666666666</v>
+        <v>1387.666666666667</v>
       </c>
       <c r="L28" t="n">
-        <v>5.3</v>
+        <v>2336</v>
       </c>
       <c r="M28" t="n">
-        <v>5.266666666666667</v>
+        <v>3320</v>
       </c>
       <c r="N28" t="n">
-        <v>5.15</v>
+        <v>2317</v>
       </c>
       <c r="O28" t="n">
-        <v>5.266666666666667</v>
+        <v>1309</v>
       </c>
       <c r="P28" t="n">
-        <v>5.199999999999999</v>
+        <v>2264.666666666667</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>3129.333333333333</v>
       </c>
       <c r="R28" t="n">
-        <v>3.35</v>
+        <v>380.5</v>
       </c>
       <c r="S28" t="n">
-        <v>3.8</v>
+        <v>1340.333333333333</v>
       </c>
       <c r="T28" t="n">
-        <v>4.3</v>
+        <v>2119</v>
       </c>
       <c r="U28" t="n">
-        <v>4.399999999999999</v>
+        <v>3100.333333333333</v>
       </c>
       <c r="V28" t="n">
-        <v>5</v>
+        <v>790.5</v>
       </c>
       <c r="W28" t="n">
-        <v>4.466666666666667</v>
+        <v>1282</v>
       </c>
       <c r="X28" t="n">
-        <v>4.166666666666667</v>
+        <v>1972.333333333333</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.366666666666666</v>
+        <v>2689.333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -2700,76 +2700,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.7</v>
+        <v>1774</v>
       </c>
       <c r="C29" t="n">
-        <v>4.466666666666667</v>
+        <v>904</v>
       </c>
       <c r="D29" t="n">
-        <v>4.466666666666667</v>
+        <v>1599</v>
       </c>
       <c r="E29" t="n">
-        <v>4.5</v>
+        <v>2316</v>
       </c>
       <c r="F29" t="n">
-        <v>3.9</v>
+        <v>390</v>
       </c>
       <c r="G29" t="n">
-        <v>4.366666666666666</v>
+        <v>892</v>
       </c>
       <c r="H29" t="n">
-        <v>4.433333333333334</v>
+        <v>1584</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>2306.666666666667</v>
       </c>
       <c r="J29" t="n">
-        <v>4.35</v>
+        <v>1600.5</v>
       </c>
       <c r="K29" t="n">
-        <v>4.399999999999999</v>
+        <v>883</v>
       </c>
       <c r="L29" t="n">
-        <v>4.433333333333334</v>
+        <v>1575.666666666667</v>
       </c>
       <c r="M29" t="n">
-        <v>4.533333333333333</v>
+        <v>2301.666666666667</v>
       </c>
       <c r="N29" t="n">
-        <v>4.55</v>
+        <v>1625</v>
       </c>
       <c r="O29" t="n">
-        <v>4.5</v>
+        <v>892</v>
       </c>
       <c r="P29" t="n">
-        <v>4.466666666666667</v>
+        <v>1574</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.5</v>
+        <v>2284</v>
       </c>
       <c r="R29" t="n">
-        <v>2.85</v>
+        <v>229.5</v>
       </c>
       <c r="S29" t="n">
-        <v>2.966666666666667</v>
+        <v>846.3333333333334</v>
       </c>
       <c r="T29" t="n">
-        <v>3.533333333333333</v>
+        <v>1414.333333333333</v>
       </c>
       <c r="U29" t="n">
-        <v>3.700000000000001</v>
+        <v>2083</v>
       </c>
       <c r="V29" t="n">
-        <v>4.4</v>
+        <v>581.5</v>
       </c>
       <c r="W29" t="n">
-        <v>3.9</v>
+        <v>870</v>
       </c>
       <c r="X29" t="n">
-        <v>3.799999999999999</v>
+        <v>1511.666666666667</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.399999999999999</v>
+        <v>2176.666666666667</v>
       </c>
     </row>
     <row r="30">
@@ -2779,76 +2779,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.3</v>
+        <v>1762</v>
       </c>
       <c r="C30" t="n">
-        <v>3.966666666666667</v>
+        <v>854</v>
       </c>
       <c r="D30" t="n">
-        <v>4.066666666666666</v>
+        <v>1548</v>
       </c>
       <c r="E30" t="n">
-        <v>4.166666666666667</v>
+        <v>2249.333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="G30" t="n">
-        <v>4.066666666666666</v>
+        <v>871</v>
       </c>
       <c r="H30" t="n">
-        <v>4.166666666666667</v>
+        <v>1573.666666666667</v>
       </c>
       <c r="I30" t="n">
-        <v>4.3</v>
+        <v>2313</v>
       </c>
       <c r="J30" t="n">
-        <v>4.15</v>
+        <v>1606.5</v>
       </c>
       <c r="K30" t="n">
-        <v>4.266666666666667</v>
+        <v>904.3333333333334</v>
       </c>
       <c r="L30" t="n">
-        <v>4.433333333333334</v>
+        <v>1646.666666666667</v>
       </c>
       <c r="M30" t="n">
-        <v>4.4</v>
+        <v>2357</v>
       </c>
       <c r="N30" t="n">
-        <v>4.2</v>
+        <v>1617.5</v>
       </c>
       <c r="O30" t="n">
-        <v>4.066666666666666</v>
+        <v>852.3333333333334</v>
       </c>
       <c r="P30" t="n">
-        <v>4.233333333333333</v>
+        <v>1562.666666666667</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.35</v>
+        <v>2307.666666666667</v>
       </c>
       <c r="R30" t="n">
-        <v>2.55</v>
+        <v>169.5</v>
       </c>
       <c r="S30" t="n">
-        <v>2.4</v>
+        <v>735</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>1278.333333333333</v>
       </c>
       <c r="U30" t="n">
-        <v>3.233333333333334</v>
+        <v>1911.666666666667</v>
       </c>
       <c r="V30" t="n">
-        <v>3.85</v>
+        <v>523</v>
       </c>
       <c r="W30" t="n">
-        <v>3.433333333333334</v>
+        <v>853.6666666666666</v>
       </c>
       <c r="X30" t="n">
-        <v>3.6</v>
+        <v>1490.666666666667</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.066666666666666</v>
+        <v>2096.333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -2858,55 +2858,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.85</v>
+        <v>15217.5</v>
       </c>
       <c r="C31" t="n">
-        <v>4.633333333333334</v>
+        <v>7937</v>
       </c>
       <c r="D31" t="n">
-        <v>4.566666666666666</v>
+        <v>13848.66666666667</v>
       </c>
       <c r="E31" t="n">
-        <v>4.666666666666667</v>
+        <v>20114.33333333333</v>
       </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>3655</v>
       </c>
       <c r="G31" t="n">
-        <v>4.733333333333333</v>
+        <v>8186.333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>4.7</v>
+        <v>14361</v>
       </c>
       <c r="I31" t="n">
-        <v>4.7</v>
+        <v>20578</v>
       </c>
       <c r="J31" t="n">
-        <v>4.6</v>
+        <v>14395.5</v>
       </c>
       <c r="K31" t="n">
-        <v>4.7</v>
+        <v>8157.666666666667</v>
       </c>
       <c r="L31" t="n">
-        <v>4.633333333333333</v>
+        <v>14268.66666666667</v>
       </c>
       <c r="M31" t="n">
-        <v>4.633333333333333</v>
+        <v>20352.33333333333</v>
       </c>
       <c r="N31" t="n">
-        <v>4.7</v>
+        <v>14453</v>
       </c>
       <c r="O31" t="n">
-        <v>4.833333333333333</v>
+        <v>8554.666666666666</v>
       </c>
       <c r="P31" t="n">
-        <v>4.9</v>
+        <v>15136</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.85</v>
+        <v>21683.66666666667</v>
       </c>
       <c r="R31" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -2937,76 +2937,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.55</v>
+        <v>1030.5</v>
       </c>
       <c r="C32" t="n">
-        <v>3.233333333333333</v>
+        <v>476.3333333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>3.4</v>
+        <v>884.6666666666666</v>
       </c>
       <c r="E32" t="n">
-        <v>3.5</v>
+        <v>1301.666666666667</v>
       </c>
       <c r="F32" t="n">
-        <v>3.1</v>
+        <v>227</v>
       </c>
       <c r="G32" t="n">
-        <v>3.533333333333333</v>
+        <v>525</v>
       </c>
       <c r="H32" t="n">
-        <v>3.633333333333333</v>
+        <v>959</v>
       </c>
       <c r="I32" t="n">
-        <v>3.700000000000001</v>
+        <v>1384.333333333333</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>945</v>
       </c>
       <c r="K32" t="n">
-        <v>3.466666666666667</v>
+        <v>521.6666666666666</v>
       </c>
       <c r="L32" t="n">
-        <v>3.6</v>
+        <v>952.6666666666666</v>
       </c>
       <c r="M32" t="n">
-        <v>3.700000000000001</v>
+        <v>1387.333333333333</v>
       </c>
       <c r="N32" t="n">
-        <v>3.7</v>
+        <v>966.5</v>
       </c>
       <c r="O32" t="n">
-        <v>3.666666666666667</v>
+        <v>546.6666666666666</v>
       </c>
       <c r="P32" t="n">
-        <v>3.633333333333333</v>
+        <v>950.3333333333334</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.6</v>
+        <v>1375.333333333333</v>
       </c>
       <c r="R32" t="n">
-        <v>2.2</v>
+        <v>109</v>
       </c>
       <c r="S32" t="n">
-        <v>2.166666666666667</v>
+        <v>481.6666666666667</v>
       </c>
       <c r="T32" t="n">
-        <v>2.700000000000001</v>
+        <v>835.3333333333334</v>
       </c>
       <c r="U32" t="n">
-        <v>2.966666666666667</v>
+        <v>1268.666666666667</v>
       </c>
       <c r="V32" t="n">
-        <v>3.2</v>
+        <v>302.5</v>
       </c>
       <c r="W32" t="n">
-        <v>2.7</v>
+        <v>493</v>
       </c>
       <c r="X32" t="n">
-        <v>2.9</v>
+        <v>907.3333333333334</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.466666666666667</v>
+        <v>1345.333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -3016,76 +3016,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.85</v>
+        <v>713</v>
       </c>
       <c r="C33" t="n">
-        <v>3.666666666666667</v>
+        <v>337.6666666666667</v>
       </c>
       <c r="D33" t="n">
-        <v>3.633333333333333</v>
+        <v>595.6666666666666</v>
       </c>
       <c r="E33" t="n">
-        <v>3.666666666666667</v>
+        <v>853</v>
       </c>
       <c r="F33" t="n">
-        <v>3.3</v>
+        <v>153</v>
       </c>
       <c r="G33" t="n">
-        <v>3.433333333333334</v>
+        <v>319.6666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>3.700000000000001</v>
+        <v>604.3333333333334</v>
       </c>
       <c r="I33" t="n">
-        <v>3.866666666666667</v>
+        <v>896</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>602</v>
       </c>
       <c r="K33" t="n">
-        <v>3.4</v>
+        <v>315.6666666666667</v>
       </c>
       <c r="L33" t="n">
-        <v>3.433333333333334</v>
+        <v>554</v>
       </c>
       <c r="M33" t="n">
-        <v>3.566666666666666</v>
+        <v>830.3333333333334</v>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>560</v>
       </c>
       <c r="O33" t="n">
-        <v>3.3</v>
+        <v>301.6666666666667</v>
       </c>
       <c r="P33" t="n">
-        <v>3.566666666666666</v>
+        <v>570.6666666666666</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.75</v>
+        <v>873</v>
       </c>
       <c r="R33" t="n">
-        <v>2.1</v>
+        <v>49</v>
       </c>
       <c r="S33" t="n">
-        <v>1.933333333333333</v>
+        <v>274.6666666666667</v>
       </c>
       <c r="T33" t="n">
-        <v>2.6</v>
+        <v>474</v>
       </c>
       <c r="U33" t="n">
-        <v>2.8</v>
+        <v>718.6666666666666</v>
       </c>
       <c r="V33" t="n">
-        <v>3.2</v>
+        <v>185</v>
       </c>
       <c r="W33" t="n">
-        <v>2.700000000000001</v>
+        <v>277</v>
       </c>
       <c r="X33" t="n">
-        <v>2.833333333333333</v>
+        <v>516.3333333333334</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.233333333333333</v>
+        <v>736.3333333333334</v>
       </c>
     </row>
     <row r="34">
@@ -3095,76 +3095,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.6</v>
+        <v>15350</v>
       </c>
       <c r="C34" t="n">
-        <v>4.433333333333334</v>
+        <v>7936.666666666667</v>
       </c>
       <c r="D34" t="n">
-        <v>4.466666666666667</v>
+        <v>14140.33333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>4.566666666666666</v>
+        <v>20786.33333333333</v>
       </c>
       <c r="F34" t="n">
-        <v>4.2</v>
+        <v>3766</v>
       </c>
       <c r="G34" t="n">
-        <v>4.5</v>
+        <v>8215.333333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>14479.66666666667</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6</v>
+        <v>20954.33333333333</v>
       </c>
       <c r="J34" t="n">
-        <v>4.449999999999999</v>
+        <v>14587</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>8072</v>
       </c>
       <c r="L34" t="n">
-        <v>4.466666666666667</v>
+        <v>14365</v>
       </c>
       <c r="M34" t="n">
-        <v>4.5</v>
+        <v>20871.66666666667</v>
       </c>
       <c r="N34" t="n">
-        <v>4.5</v>
+        <v>14696.5</v>
       </c>
       <c r="O34" t="n">
-        <v>4.4</v>
+        <v>8187</v>
       </c>
       <c r="P34" t="n">
-        <v>4.533333333333333</v>
+        <v>14679.66666666667</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.449999999999999</v>
+        <v>21856.33333333333</v>
       </c>
       <c r="R34" t="n">
-        <v>3.05</v>
+        <v>1626.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.433333333333333</v>
+        <v>7356</v>
       </c>
       <c r="T34" t="n">
-        <v>3.5</v>
+        <v>13262.66666666667</v>
       </c>
       <c r="U34" t="n">
-        <v>3.766666666666667</v>
+        <v>20115.33333333333</v>
       </c>
       <c r="V34" t="n">
-        <v>4.3</v>
+        <v>5200.5</v>
       </c>
       <c r="W34" t="n">
-        <v>3.6</v>
+        <v>7611.333333333333</v>
       </c>
       <c r="X34" t="n">
-        <v>3.566666666666667</v>
+        <v>13734.33333333333</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.333333333333334</v>
+        <v>20502</v>
       </c>
     </row>
     <row r="35">
@@ -3174,76 +3174,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.65</v>
+        <v>2935</v>
       </c>
       <c r="C35" t="n">
-        <v>4.266666666666667</v>
+        <v>1426</v>
       </c>
       <c r="D35" t="n">
-        <v>4.2</v>
+        <v>2490.666666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>4.266666666666667</v>
+        <v>3618.333333333333</v>
       </c>
       <c r="F35" t="n">
-        <v>3.7</v>
+        <v>620</v>
       </c>
       <c r="G35" t="n">
-        <v>3.933333333333334</v>
+        <v>1317.666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>4.033333333333333</v>
+        <v>2391</v>
       </c>
       <c r="I35" t="n">
-        <v>4.133333333333333</v>
+        <v>3506.333333333333</v>
       </c>
       <c r="J35" t="n">
-        <v>3.95</v>
+        <v>2431.5</v>
       </c>
       <c r="K35" t="n">
-        <v>3.933333333333334</v>
+        <v>1322</v>
       </c>
       <c r="L35" t="n">
-        <v>4.1</v>
+        <v>2421.333333333333</v>
       </c>
       <c r="M35" t="n">
-        <v>4.1</v>
+        <v>3487</v>
       </c>
       <c r="N35" t="n">
-        <v>3.95</v>
+        <v>2399</v>
       </c>
       <c r="O35" t="n">
-        <v>3.733333333333333</v>
+        <v>1257.333333333333</v>
       </c>
       <c r="P35" t="n">
-        <v>3.9</v>
+        <v>2325.333333333333</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>3532</v>
       </c>
       <c r="R35" t="n">
-        <v>2.45</v>
+        <v>252</v>
       </c>
       <c r="S35" t="n">
-        <v>2.233333333333333</v>
+        <v>1123.666666666667</v>
       </c>
       <c r="T35" t="n">
-        <v>2.833333333333333</v>
+        <v>1987.333333333333</v>
       </c>
       <c r="U35" t="n">
-        <v>3.166666666666667</v>
+        <v>3018.666666666667</v>
       </c>
       <c r="V35" t="n">
-        <v>3.8</v>
+        <v>861</v>
       </c>
       <c r="W35" t="n">
-        <v>3.3</v>
+        <v>1262.333333333333</v>
       </c>
       <c r="X35" t="n">
-        <v>3.466666666666667</v>
+        <v>2326</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.866666666666667</v>
+        <v>3262.666666666667</v>
       </c>
     </row>
     <row r="36">
@@ -3253,76 +3253,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.15</v>
+        <v>6764.5</v>
       </c>
       <c r="C36" t="n">
-        <v>3.866666666666667</v>
+        <v>3264</v>
       </c>
       <c r="D36" t="n">
-        <v>3.9</v>
+        <v>5831</v>
       </c>
       <c r="E36" t="n">
-        <v>4.066666666666666</v>
+        <v>8597.666666666666</v>
       </c>
       <c r="F36" t="n">
-        <v>3.6</v>
+        <v>1499</v>
       </c>
       <c r="G36" t="n">
-        <v>3.966666666666667</v>
+        <v>3344.333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>4.033333333333333</v>
+        <v>5957.666666666667</v>
       </c>
       <c r="I36" t="n">
-        <v>4.066666666666666</v>
+        <v>8618.666666666666</v>
       </c>
       <c r="J36" t="n">
-        <v>3.95</v>
+        <v>6005</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>3335</v>
       </c>
       <c r="L36" t="n">
-        <v>4.1</v>
+        <v>6005.666666666667</v>
       </c>
       <c r="M36" t="n">
-        <v>4.1</v>
+        <v>8675.333333333334</v>
       </c>
       <c r="N36" t="n">
-        <v>4.05</v>
+        <v>6062.5</v>
       </c>
       <c r="O36" t="n">
-        <v>3.9</v>
+        <v>3233</v>
       </c>
       <c r="P36" t="n">
-        <v>3.933333333333334</v>
+        <v>5725.333333333333</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.8</v>
+        <v>7773.333333333333</v>
       </c>
       <c r="R36" t="n">
-        <v>2.15</v>
+        <v>702</v>
       </c>
       <c r="S36" t="n">
-        <v>2.3</v>
+        <v>2844.666666666667</v>
       </c>
       <c r="T36" t="n">
-        <v>2.9</v>
+        <v>4880.333333333333</v>
       </c>
       <c r="U36" t="n">
-        <v>3.1</v>
+        <v>7442</v>
       </c>
       <c r="V36" t="n">
-        <v>3.65</v>
+        <v>2009</v>
       </c>
       <c r="W36" t="n">
-        <v>3.333333333333333</v>
+        <v>3117</v>
       </c>
       <c r="X36" t="n">
-        <v>3.233333333333333</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.566666666666666</v>
+        <v>7386.333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -3332,76 +3332,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.35</v>
+        <v>11592</v>
       </c>
       <c r="C37" t="n">
-        <v>3.966666666666667</v>
+        <v>5591.333333333333</v>
       </c>
       <c r="D37" t="n">
-        <v>4.1</v>
+        <v>10140</v>
       </c>
       <c r="E37" t="n">
-        <v>4.266666666666667</v>
+        <v>15050</v>
       </c>
       <c r="F37" t="n">
-        <v>3.8</v>
+        <v>2657</v>
       </c>
       <c r="G37" t="n">
-        <v>4.133333333333334</v>
+        <v>5808.666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>4.2</v>
+        <v>10361.33333333333</v>
       </c>
       <c r="I37" t="n">
-        <v>4.233333333333333</v>
+        <v>14993.33333333333</v>
       </c>
       <c r="J37" t="n">
-        <v>4.15</v>
+        <v>10423.5</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>5822</v>
       </c>
       <c r="L37" t="n">
-        <v>4.2</v>
+        <v>10319</v>
       </c>
       <c r="M37" t="n">
-        <v>4.3</v>
+        <v>15107.33333333333</v>
       </c>
       <c r="N37" t="n">
-        <v>4.1</v>
+        <v>10460</v>
       </c>
       <c r="O37" t="n">
-        <v>3.866666666666667</v>
+        <v>5374.666666666667</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>9826.333333333334</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.15</v>
+        <v>15412.33333333333</v>
       </c>
       <c r="R37" t="n">
-        <v>2.75</v>
+        <v>1297</v>
       </c>
       <c r="S37" t="n">
-        <v>2.633333333333333</v>
+        <v>5306.666666666667</v>
       </c>
       <c r="T37" t="n">
-        <v>3.200000000000001</v>
+        <v>9161.333333333334</v>
       </c>
       <c r="U37" t="n">
-        <v>3.466666666666667</v>
+        <v>13864.66666666667</v>
       </c>
       <c r="V37" t="n">
-        <v>3.9</v>
+        <v>3434.5</v>
       </c>
       <c r="W37" t="n">
-        <v>3.366666666666667</v>
+        <v>5419</v>
       </c>
       <c r="X37" t="n">
-        <v>3.466666666666667</v>
+        <v>9659.333333333334</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.933333333333334</v>
+        <v>13717.33333333333</v>
       </c>
     </row>
     <row r="38">
@@ -3411,76 +3411,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.6</v>
+        <v>2894</v>
       </c>
       <c r="C38" t="n">
-        <v>1.5</v>
+        <v>1508</v>
       </c>
       <c r="D38" t="n">
-        <v>1.5</v>
+        <v>2668.666666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>1.6</v>
+        <v>3910.666666666667</v>
       </c>
       <c r="F38" t="n">
-        <v>1.5</v>
+        <v>747</v>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>1629</v>
       </c>
       <c r="H38" t="n">
-        <v>1.6</v>
+        <v>2868.666666666667</v>
       </c>
       <c r="I38" t="n">
-        <v>1.6</v>
+        <v>4090</v>
       </c>
       <c r="J38" t="n">
-        <v>1.55</v>
+        <v>2846.5</v>
       </c>
       <c r="K38" t="n">
-        <v>1.5</v>
+        <v>1513.333333333333</v>
       </c>
       <c r="L38" t="n">
-        <v>1.5</v>
+        <v>2658.333333333333</v>
       </c>
       <c r="M38" t="n">
-        <v>1.5</v>
+        <v>3862</v>
       </c>
       <c r="N38" t="n">
-        <v>1.45</v>
+        <v>2697.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.5</v>
+        <v>1485.666666666667</v>
       </c>
       <c r="P38" t="n">
-        <v>1.5</v>
+        <v>2644.333333333333</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.5</v>
+        <v>3877.666666666667</v>
       </c>
       <c r="R38" t="n">
-        <v>0.8999999999999999</v>
+        <v>294.5</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9</v>
+        <v>1368.666666666667</v>
       </c>
       <c r="T38" t="n">
-        <v>1.1</v>
+        <v>2323</v>
       </c>
       <c r="U38" t="n">
-        <v>1.166666666666667</v>
+        <v>3492</v>
       </c>
       <c r="V38" t="n">
-        <v>1.35</v>
+        <v>942</v>
       </c>
       <c r="W38" t="n">
-        <v>1.166666666666667</v>
+        <v>1375.333333333333</v>
       </c>
       <c r="X38" t="n">
-        <v>1.266666666666667</v>
+        <v>2654.333333333333</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.566666666666667</v>
+        <v>4001.333333333333</v>
       </c>
     </row>
     <row r="39">
@@ -3490,76 +3490,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8500000000000001</v>
+        <v>232</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8666666666666667</v>
+        <v>130.3333333333333</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8333333333333334</v>
+        <v>228.3333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8000000000000002</v>
+        <v>314.3333333333333</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>161.3333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9666666666666667</v>
+        <v>264</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9</v>
+        <v>359</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8</v>
+        <v>238.5</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6999999999999998</v>
+        <v>115.6666666666667</v>
       </c>
       <c r="L39" t="n">
-        <v>0.6999999999999998</v>
+        <v>204.3333333333333</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8000000000000002</v>
+        <v>307.6666666666667</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8</v>
+        <v>225.5</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8333333333333334</v>
+        <v>134.3333333333333</v>
       </c>
       <c r="P39" t="n">
-        <v>0.8666666666666667</v>
+        <v>242.6666666666667</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.8500000000000001</v>
+        <v>350</v>
       </c>
       <c r="R39" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="S39" t="n">
-        <v>0.7666666666666666</v>
+        <v>164</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8000000000000002</v>
+        <v>248.6666666666667</v>
       </c>
       <c r="U39" t="n">
-        <v>0.7666666666666666</v>
+        <v>354</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="W39" t="n">
-        <v>0.6333333333333333</v>
+        <v>121.3333333333333</v>
       </c>
       <c r="X39" t="n">
-        <v>0.6999999999999998</v>
+        <v>243.6666666666667</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.9</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40">
@@ -3569,76 +3569,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.35</v>
+        <v>1243</v>
       </c>
       <c r="C40" t="n">
-        <v>2.366666666666667</v>
+        <v>673</v>
       </c>
       <c r="D40" t="n">
-        <v>2.3</v>
+        <v>1156</v>
       </c>
       <c r="E40" t="n">
-        <v>2.4</v>
+        <v>1732</v>
       </c>
       <c r="F40" t="n">
-        <v>2.6</v>
+        <v>369</v>
       </c>
       <c r="G40" t="n">
-        <v>2.766666666666667</v>
+        <v>792.3333333333334</v>
       </c>
       <c r="H40" t="n">
-        <v>2.799999999999999</v>
+        <v>1411.333333333333</v>
       </c>
       <c r="I40" t="n">
-        <v>2.799999999999999</v>
+        <v>2002.333333333333</v>
       </c>
       <c r="J40" t="n">
-        <v>2.7</v>
+        <v>1384.5</v>
       </c>
       <c r="K40" t="n">
-        <v>2.700000000000001</v>
+        <v>763.3333333333334</v>
       </c>
       <c r="L40" t="n">
-        <v>2.799999999999999</v>
+        <v>1404</v>
       </c>
       <c r="M40" t="n">
-        <v>2.799999999999999</v>
+        <v>2025.666666666667</v>
       </c>
       <c r="N40" t="n">
-        <v>2.7</v>
+        <v>1396.5</v>
       </c>
       <c r="O40" t="n">
-        <v>2.5</v>
+        <v>717.3333333333334</v>
       </c>
       <c r="P40" t="n">
-        <v>2.566666666666666</v>
+        <v>1299.666666666667</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.6</v>
+        <v>1900.333333333333</v>
       </c>
       <c r="R40" t="n">
-        <v>1.55</v>
+        <v>139.5</v>
       </c>
       <c r="S40" t="n">
-        <v>1.533333333333333</v>
+        <v>677</v>
       </c>
       <c r="T40" t="n">
-        <v>1.933333333333333</v>
+        <v>1130</v>
       </c>
       <c r="U40" t="n">
-        <v>2.033333333333333</v>
+        <v>1645</v>
       </c>
       <c r="V40" t="n">
-        <v>2.3</v>
+        <v>439</v>
       </c>
       <c r="W40" t="n">
-        <v>1.966666666666667</v>
+        <v>652</v>
       </c>
       <c r="X40" t="n">
-        <v>2.2</v>
+        <v>1303</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.533333333333333</v>
+        <v>1836.333333333333</v>
       </c>
     </row>
     <row r="41">
@@ -3648,76 +3648,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.35</v>
+        <v>940</v>
       </c>
       <c r="C41" t="n">
-        <v>3.166666666666667</v>
+        <v>492.6666666666667</v>
       </c>
       <c r="D41" t="n">
-        <v>3.299999999999999</v>
+        <v>907.6666666666666</v>
       </c>
       <c r="E41" t="n">
-        <v>3.4</v>
+        <v>1332.333333333333</v>
       </c>
       <c r="F41" t="n">
-        <v>3.1</v>
+        <v>238</v>
       </c>
       <c r="G41" t="n">
-        <v>3.200000000000001</v>
+        <v>497.6666666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>3.133333333333333</v>
+        <v>860</v>
       </c>
       <c r="I41" t="n">
-        <v>3.133333333333333</v>
+        <v>1222.666666666667</v>
       </c>
       <c r="J41" t="n">
-        <v>3.15</v>
+        <v>850</v>
       </c>
       <c r="K41" t="n">
-        <v>3.133333333333333</v>
+        <v>478.3333333333333</v>
       </c>
       <c r="L41" t="n">
-        <v>3.1</v>
+        <v>838.6666666666666</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>1171.333333333333</v>
       </c>
       <c r="N41" t="n">
-        <v>2.8</v>
+        <v>794</v>
       </c>
       <c r="O41" t="n">
-        <v>2.933333333333334</v>
+        <v>451.6666666666667</v>
       </c>
       <c r="P41" t="n">
-        <v>3.266666666666667</v>
+        <v>885.3333333333334</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.3</v>
+        <v>1359.666666666667</v>
       </c>
       <c r="R41" t="n">
-        <v>2.2</v>
+        <v>102</v>
       </c>
       <c r="S41" t="n">
-        <v>1.866666666666667</v>
+        <v>429.3333333333333</v>
       </c>
       <c r="T41" t="n">
-        <v>2.3</v>
+        <v>716.6666666666666</v>
       </c>
       <c r="U41" t="n">
-        <v>2.466666666666667</v>
+        <v>1082</v>
       </c>
       <c r="V41" t="n">
-        <v>2.95</v>
+        <v>295.5</v>
       </c>
       <c r="W41" t="n">
-        <v>2.366666666666667</v>
+        <v>401.6666666666667</v>
       </c>
       <c r="X41" t="n">
-        <v>2.266666666666667</v>
+        <v>717.6666666666666</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.766666666666667</v>
+        <v>1080.333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -3727,76 +3727,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.7</v>
+        <v>1132.5</v>
       </c>
       <c r="C42" t="n">
-        <v>2.466666666666667</v>
+        <v>580</v>
       </c>
       <c r="D42" t="n">
-        <v>2.566666666666666</v>
+        <v>1047.666666666667</v>
       </c>
       <c r="E42" t="n">
-        <v>2.6</v>
+        <v>1514</v>
       </c>
       <c r="F42" t="n">
-        <v>2.7</v>
+        <v>308</v>
       </c>
       <c r="G42" t="n">
-        <v>2.666666666666667</v>
+        <v>622</v>
       </c>
       <c r="H42" t="n">
-        <v>2.6</v>
+        <v>1073</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>1513.666666666667</v>
       </c>
       <c r="J42" t="n">
-        <v>2.35</v>
+        <v>1034.5</v>
       </c>
       <c r="K42" t="n">
-        <v>2.533333333333333</v>
+        <v>588.3333333333334</v>
       </c>
       <c r="L42" t="n">
-        <v>2.533333333333333</v>
+        <v>1043.666666666667</v>
       </c>
       <c r="M42" t="n">
-        <v>2.6</v>
+        <v>1507.333333333333</v>
       </c>
       <c r="N42" t="n">
-        <v>2.55</v>
+        <v>1053.5</v>
       </c>
       <c r="O42" t="n">
-        <v>2.533333333333333</v>
+        <v>586.6666666666666</v>
       </c>
       <c r="P42" t="n">
-        <v>2.566666666666666</v>
+        <v>1040.666666666667</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.6</v>
+        <v>1512.333333333333</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>137</v>
       </c>
       <c r="S42" t="n">
-        <v>1.566666666666667</v>
+        <v>535.6666666666666</v>
       </c>
       <c r="T42" t="n">
-        <v>1.933333333333333</v>
+        <v>915.3333333333334</v>
       </c>
       <c r="U42" t="n">
-        <v>2.066666666666666</v>
+        <v>1350.333333333333</v>
       </c>
       <c r="V42" t="n">
-        <v>2.3</v>
+        <v>351</v>
       </c>
       <c r="W42" t="n">
-        <v>2.033333333333334</v>
+        <v>522.6666666666666</v>
       </c>
       <c r="X42" t="n">
-        <v>1.9</v>
+        <v>901</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.4</v>
+        <v>1378.333333333333</v>
       </c>
     </row>
     <row r="43">
@@ -3806,76 +3806,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8</v>
+        <v>672.5</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7666666666666666</v>
+        <v>344</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8000000000000002</v>
+        <v>614.3333333333334</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7666666666666666</v>
+        <v>866</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7</v>
+        <v>168</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8000000000000002</v>
+        <v>371</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8333333333333334</v>
+        <v>688</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8333333333333334</v>
+        <v>994.3333333333334</v>
       </c>
       <c r="J43" t="n">
-        <v>0.8</v>
+        <v>701</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7666666666666666</v>
+        <v>359.6666666666667</v>
       </c>
       <c r="L43" t="n">
-        <v>0.8000000000000002</v>
+        <v>638</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7666666666666666</v>
+        <v>889</v>
       </c>
       <c r="N43" t="n">
-        <v>0.75</v>
+        <v>617.5</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6333333333333333</v>
+        <v>305.6666666666667</v>
       </c>
       <c r="P43" t="n">
-        <v>0.6999999999999998</v>
+        <v>554</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7</v>
+        <v>792</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4</v>
+        <v>69</v>
       </c>
       <c r="S43" t="n">
-        <v>0.5333333333333333</v>
+        <v>391.6666666666667</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6666666666666666</v>
+        <v>630</v>
       </c>
       <c r="U43" t="n">
-        <v>0.6666666666666666</v>
+        <v>934</v>
       </c>
       <c r="V43" t="n">
-        <v>0.75</v>
+        <v>242</v>
       </c>
       <c r="W43" t="n">
-        <v>0.6333333333333333</v>
+        <v>354.6666666666667</v>
       </c>
       <c r="X43" t="n">
-        <v>0.6999999999999998</v>
+        <v>700.3333333333334</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.8333333333333334</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="44">
@@ -3885,76 +3885,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.95</v>
+        <v>6793.5</v>
       </c>
       <c r="C44" t="n">
-        <v>3.700000000000001</v>
+        <v>3415.333333333333</v>
       </c>
       <c r="D44" t="n">
-        <v>3.799999999999999</v>
+        <v>6129.666666666667</v>
       </c>
       <c r="E44" t="n">
-        <v>3.799999999999999</v>
+        <v>8903</v>
       </c>
       <c r="F44" t="n">
-        <v>3.6</v>
+        <v>1652</v>
       </c>
       <c r="G44" t="n">
-        <v>3.766666666666667</v>
+        <v>3506.666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>3.799999999999999</v>
+        <v>6200.666666666667</v>
       </c>
       <c r="I44" t="n">
-        <v>3.799999999999999</v>
+        <v>8901.333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>3.55</v>
+        <v>6035</v>
       </c>
       <c r="K44" t="n">
-        <v>3.433333333333334</v>
+        <v>3194.333333333333</v>
       </c>
       <c r="L44" t="n">
-        <v>3.533333333333333</v>
+        <v>5736</v>
       </c>
       <c r="M44" t="n">
-        <v>3.6</v>
+        <v>8425.333333333334</v>
       </c>
       <c r="N44" t="n">
-        <v>3.7</v>
+        <v>6025</v>
       </c>
       <c r="O44" t="n">
-        <v>3.633333333333333</v>
+        <v>3336.333333333333</v>
       </c>
       <c r="P44" t="n">
-        <v>3.666666666666667</v>
+        <v>5977.333333333333</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.55</v>
+        <v>8651.666666666666</v>
       </c>
       <c r="R44" t="n">
-        <v>2.45</v>
+        <v>791.5</v>
       </c>
       <c r="S44" t="n">
-        <v>2.333333333333333</v>
+        <v>3174.333333333333</v>
       </c>
       <c r="T44" t="n">
-        <v>2.833333333333333</v>
+        <v>5366.666666666667</v>
       </c>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>7988</v>
       </c>
       <c r="V44" t="n">
-        <v>3.4</v>
+        <v>1992.5</v>
       </c>
       <c r="W44" t="n">
-        <v>2.966666666666666</v>
+        <v>3218</v>
       </c>
       <c r="X44" t="n">
-        <v>3.1</v>
+        <v>5805.333333333333</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.5</v>
+        <v>8217.666666666666</v>
       </c>
     </row>
     <row r="45">
@@ -3964,76 +3964,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.1</v>
+        <v>10300.5</v>
       </c>
       <c r="C45" t="n">
-        <v>3.833333333333333</v>
+        <v>5118.333333333333</v>
       </c>
       <c r="D45" t="n">
-        <v>3.799999999999999</v>
+        <v>9010.666666666666</v>
       </c>
       <c r="E45" t="n">
-        <v>3.9</v>
+        <v>13173</v>
       </c>
       <c r="F45" t="n">
-        <v>3.5</v>
+        <v>2307</v>
       </c>
       <c r="G45" t="n">
-        <v>3.733333333333333</v>
+        <v>5034.666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>3.733333333333333</v>
+        <v>8942</v>
       </c>
       <c r="I45" t="n">
-        <v>3.799999999999999</v>
+        <v>12973.66666666667</v>
       </c>
       <c r="J45" t="n">
-        <v>3.65</v>
+        <v>8973.5</v>
       </c>
       <c r="K45" t="n">
-        <v>3.733333333333333</v>
+        <v>5018</v>
       </c>
       <c r="L45" t="n">
-        <v>3.766666666666667</v>
+        <v>8903</v>
       </c>
       <c r="M45" t="n">
-        <v>3.799999999999999</v>
+        <v>12867.66666666667</v>
       </c>
       <c r="N45" t="n">
-        <v>3.85</v>
+        <v>9051</v>
       </c>
       <c r="O45" t="n">
-        <v>3.799999999999999</v>
+        <v>5074.666666666667</v>
       </c>
       <c r="P45" t="n">
-        <v>3.766666666666667</v>
+        <v>8857.666666666666</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.8</v>
+        <v>13207</v>
       </c>
       <c r="R45" t="n">
-        <v>3.7</v>
+        <v>3033.5</v>
       </c>
       <c r="S45" t="n">
-        <v>3.700000000000001</v>
+        <v>6199</v>
       </c>
       <c r="T45" t="n">
-        <v>3.700000000000001</v>
+        <v>10080.66666666667</v>
       </c>
       <c r="U45" t="n">
-        <v>3.766666666666667</v>
+        <v>14096</v>
       </c>
       <c r="V45" t="n">
-        <v>3.8</v>
+        <v>3079.5</v>
       </c>
       <c r="W45" t="n">
-        <v>3.133333333333333</v>
+        <v>4873.666666666667</v>
       </c>
       <c r="X45" t="n">
-        <v>3.133333333333333</v>
+        <v>8313.333333333334</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.466666666666667</v>
+        <v>11670</v>
       </c>
     </row>
     <row r="46">
@@ -4043,76 +4043,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.9</v>
+        <v>1722</v>
       </c>
       <c r="C46" t="n">
-        <v>3.433333333333334</v>
+        <v>782</v>
       </c>
       <c r="D46" t="n">
-        <v>3.5</v>
+        <v>1404.666666666667</v>
       </c>
       <c r="E46" t="n">
-        <v>3.6</v>
+        <v>2064.333333333333</v>
       </c>
       <c r="F46" t="n">
-        <v>3.3</v>
+        <v>370</v>
       </c>
       <c r="G46" t="n">
-        <v>3.366666666666667</v>
+        <v>770.3333333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>1405.666666666667</v>
       </c>
       <c r="I46" t="n">
-        <v>3.666666666666667</v>
+        <v>2095.666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>1470</v>
       </c>
       <c r="K46" t="n">
-        <v>3.666666666666667</v>
+        <v>829.6666666666666</v>
       </c>
       <c r="L46" t="n">
-        <v>3.6</v>
+        <v>1441</v>
       </c>
       <c r="M46" t="n">
-        <v>3.666666666666667</v>
+        <v>2077</v>
       </c>
       <c r="N46" t="n">
-        <v>3.7</v>
+        <v>1452.5</v>
       </c>
       <c r="O46" t="n">
-        <v>3.633333333333333</v>
+        <v>815.3333333333334</v>
       </c>
       <c r="P46" t="n">
-        <v>3.700000000000001</v>
+        <v>1479.666666666667</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.8</v>
+        <v>2226</v>
       </c>
       <c r="R46" t="n">
-        <v>2.35</v>
+        <v>172</v>
       </c>
       <c r="S46" t="n">
-        <v>2.133333333333333</v>
+        <v>704.3333333333334</v>
       </c>
       <c r="T46" t="n">
-        <v>2.566666666666666</v>
+        <v>1188.333333333333</v>
       </c>
       <c r="U46" t="n">
-        <v>2.8</v>
+        <v>1813</v>
       </c>
       <c r="V46" t="n">
-        <v>3.15</v>
+        <v>450</v>
       </c>
       <c r="W46" t="n">
-        <v>2.700000000000001</v>
+        <v>703</v>
       </c>
       <c r="X46" t="n">
-        <v>2.8</v>
+        <v>1260</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.200000000000001</v>
+        <v>1804.666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -4122,76 +4122,76 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.55</v>
+        <v>1791.5</v>
       </c>
       <c r="C47" t="n">
-        <v>3.1</v>
+        <v>824</v>
       </c>
       <c r="D47" t="n">
-        <v>3.133333333333333</v>
+        <v>1469.333333333333</v>
       </c>
       <c r="E47" t="n">
-        <v>3.266666666666667</v>
+        <v>2193</v>
       </c>
       <c r="F47" t="n">
-        <v>2.9</v>
+        <v>385</v>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>832.3333333333334</v>
       </c>
       <c r="H47" t="n">
-        <v>3.200000000000001</v>
+        <v>1494.333333333333</v>
       </c>
       <c r="I47" t="n">
-        <v>3.266666666666667</v>
+        <v>2189.666666666667</v>
       </c>
       <c r="J47" t="n">
-        <v>3.05</v>
+        <v>1514</v>
       </c>
       <c r="K47" t="n">
-        <v>3.033333333333333</v>
+        <v>815</v>
       </c>
       <c r="L47" t="n">
-        <v>3.200000000000001</v>
+        <v>1499.666666666667</v>
       </c>
       <c r="M47" t="n">
-        <v>3.266666666666667</v>
+        <v>2193</v>
       </c>
       <c r="N47" t="n">
-        <v>3.15</v>
+        <v>1520.5</v>
       </c>
       <c r="O47" t="n">
-        <v>3.200000000000001</v>
+        <v>847.3333333333334</v>
       </c>
       <c r="P47" t="n">
-        <v>3.200000000000001</v>
+        <v>1502</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.15</v>
+        <v>2205.333333333333</v>
       </c>
       <c r="R47" t="n">
-        <v>2.05</v>
+        <v>175.5</v>
       </c>
       <c r="S47" t="n">
-        <v>1.9</v>
+        <v>745</v>
       </c>
       <c r="T47" t="n">
-        <v>2.4</v>
+        <v>1291.666666666667</v>
       </c>
       <c r="U47" t="n">
-        <v>2.566666666666666</v>
+        <v>1894</v>
       </c>
       <c r="V47" t="n">
-        <v>2.95</v>
+        <v>513</v>
       </c>
       <c r="W47" t="n">
-        <v>2.433333333333334</v>
+        <v>718.3333333333334</v>
       </c>
       <c r="X47" t="n">
-        <v>2.533333333333334</v>
+        <v>1343.666666666667</v>
       </c>
       <c r="Y47" t="n">
-        <v>2.866666666666667</v>
+        <v>1874.333333333333</v>
       </c>
     </row>
     <row r="48">
@@ -4201,76 +4201,76 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3.55</v>
+        <v>8563</v>
       </c>
       <c r="C48" t="n">
-        <v>3.366666666666667</v>
+        <v>4237.666666666667</v>
       </c>
       <c r="D48" t="n">
-        <v>3.333333333333333</v>
+        <v>7444.666666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>3.4</v>
+        <v>11031</v>
       </c>
       <c r="F48" t="n">
-        <v>3.3</v>
+        <v>2113</v>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>4505</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>7819.666666666667</v>
       </c>
       <c r="I48" t="n">
-        <v>3.5</v>
+        <v>11213</v>
       </c>
       <c r="J48" t="n">
-        <v>3.45</v>
+        <v>7782.5</v>
       </c>
       <c r="K48" t="n">
-        <v>3.5</v>
+        <v>4470.333333333333</v>
       </c>
       <c r="L48" t="n">
-        <v>3.5</v>
+        <v>7891.666666666667</v>
       </c>
       <c r="M48" t="n">
-        <v>3.5</v>
+        <v>11331.33333333333</v>
       </c>
       <c r="N48" t="n">
-        <v>3.45</v>
+        <v>7857.5</v>
       </c>
       <c r="O48" t="n">
-        <v>3.433333333333334</v>
+        <v>4416.666666666667</v>
       </c>
       <c r="P48" t="n">
-        <v>3.4</v>
+        <v>7783</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.5</v>
+        <v>11611.66666666667</v>
       </c>
       <c r="R48" t="n">
-        <v>3.45</v>
+        <v>2698</v>
       </c>
       <c r="S48" t="n">
-        <v>3.433333333333334</v>
+        <v>5529.666666666667</v>
       </c>
       <c r="T48" t="n">
-        <v>3.4</v>
+        <v>8895</v>
       </c>
       <c r="U48" t="n">
-        <v>3.433333333333334</v>
+        <v>12253</v>
       </c>
       <c r="V48" t="n">
-        <v>3.25</v>
+        <v>2504</v>
       </c>
       <c r="W48" t="n">
-        <v>2.566666666666667</v>
+        <v>3793</v>
       </c>
       <c r="X48" t="n">
-        <v>2.5</v>
+        <v>6300</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.766666666666667</v>
+        <v>8956.666666666666</v>
       </c>
     </row>
     <row r="49">
@@ -4280,76 +4280,76 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.65</v>
+        <v>3624</v>
       </c>
       <c r="C49" t="n">
-        <v>3.333333333333333</v>
+        <v>1675.666666666667</v>
       </c>
       <c r="D49" t="n">
-        <v>3.433333333333334</v>
+        <v>3020.666666666667</v>
       </c>
       <c r="E49" t="n">
-        <v>3.433333333333334</v>
+        <v>4344.333333333333</v>
       </c>
       <c r="F49" t="n">
-        <v>3.1</v>
+        <v>769</v>
       </c>
       <c r="G49" t="n">
-        <v>3.333333333333333</v>
+        <v>1672</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3003.666666666667</v>
       </c>
       <c r="I49" t="n">
-        <v>3.5</v>
+        <v>4395.666666666667</v>
       </c>
       <c r="J49" t="n">
-        <v>3.4</v>
+        <v>3079</v>
       </c>
       <c r="K49" t="n">
-        <v>3.366666666666667</v>
+        <v>1684.666666666667</v>
       </c>
       <c r="L49" t="n">
-        <v>3.4</v>
+        <v>2994.666666666667</v>
       </c>
       <c r="M49" t="n">
-        <v>3.4</v>
+        <v>4330</v>
       </c>
       <c r="N49" t="n">
-        <v>3.45</v>
+        <v>3042.5</v>
       </c>
       <c r="O49" t="n">
-        <v>3.466666666666667</v>
+        <v>1723.333333333333</v>
       </c>
       <c r="P49" t="n">
-        <v>3.433333333333334</v>
+        <v>3024.333333333333</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.45</v>
+        <v>4539.666666666667</v>
       </c>
       <c r="R49" t="n">
-        <v>3.6</v>
+        <v>1089</v>
       </c>
       <c r="S49" t="n">
-        <v>3.5</v>
+        <v>2180.666666666667</v>
       </c>
       <c r="T49" t="n">
-        <v>3.266666666666667</v>
+        <v>2990.333333333333</v>
       </c>
       <c r="U49" t="n">
-        <v>2.866666666666667</v>
+        <v>4045</v>
       </c>
       <c r="V49" t="n">
-        <v>3.25</v>
+        <v>1044</v>
       </c>
       <c r="W49" t="n">
-        <v>2.9</v>
+        <v>1667.333333333333</v>
       </c>
       <c r="X49" t="n">
-        <v>2.933333333333334</v>
+        <v>2967.333333333333</v>
       </c>
       <c r="Y49" t="n">
-        <v>3.333333333333333</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="50">
@@ -4359,76 +4359,76 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.55</v>
+        <v>2744</v>
       </c>
       <c r="C50" t="n">
-        <v>3.266666666666667</v>
+        <v>1336.333333333333</v>
       </c>
       <c r="D50" t="n">
-        <v>3.266666666666667</v>
+        <v>2334</v>
       </c>
       <c r="E50" t="n">
-        <v>3.200000000000001</v>
+        <v>3318.666666666667</v>
       </c>
       <c r="F50" t="n">
-        <v>3.1</v>
+        <v>632</v>
       </c>
       <c r="G50" t="n">
-        <v>3.266666666666667</v>
+        <v>1334</v>
       </c>
       <c r="H50" t="n">
-        <v>3.299999999999999</v>
+        <v>2378.333333333333</v>
       </c>
       <c r="I50" t="n">
-        <v>3.299999999999999</v>
+        <v>3381.333333333333</v>
       </c>
       <c r="J50" t="n">
-        <v>3.2</v>
+        <v>2352.5</v>
       </c>
       <c r="K50" t="n">
-        <v>3.299999999999999</v>
+        <v>1341.666666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>3.166666666666667</v>
+        <v>2259.666666666667</v>
       </c>
       <c r="M50" t="n">
-        <v>3.133333333333333</v>
+        <v>3226.666666666667</v>
       </c>
       <c r="N50" t="n">
-        <v>3.15</v>
+        <v>2258.5</v>
       </c>
       <c r="O50" t="n">
-        <v>3.033333333333333</v>
+        <v>1239.333333333333</v>
       </c>
       <c r="P50" t="n">
-        <v>3.066666666666666</v>
+        <v>2198.666666666667</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.2</v>
+        <v>3222.333333333333</v>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>280.5</v>
       </c>
       <c r="S50" t="n">
-        <v>1.933333333333333</v>
+        <v>1131</v>
       </c>
       <c r="T50" t="n">
-        <v>2.266666666666667</v>
+        <v>1914.666666666667</v>
       </c>
       <c r="U50" t="n">
-        <v>2.5</v>
+        <v>2867</v>
       </c>
       <c r="V50" t="n">
-        <v>2.9</v>
+        <v>776.5</v>
       </c>
       <c r="W50" t="n">
-        <v>2.433333333333334</v>
+        <v>1111</v>
       </c>
       <c r="X50" t="n">
-        <v>2.533333333333334</v>
+        <v>2091</v>
       </c>
       <c r="Y50" t="n">
-        <v>2.933333333333334</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="51">
@@ -4438,76 +4438,76 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.2</v>
+        <v>7050.5</v>
       </c>
       <c r="C51" t="n">
-        <v>3.799999999999999</v>
+        <v>3298.333333333333</v>
       </c>
       <c r="D51" t="n">
-        <v>3.866666666666667</v>
+        <v>5919.666666666667</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>8714.666666666666</v>
       </c>
       <c r="F51" t="n">
-        <v>3.9</v>
+        <v>1673</v>
       </c>
       <c r="G51" t="n">
-        <v>4.033333333333333</v>
+        <v>3530.333333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>4.1</v>
+        <v>6282</v>
       </c>
       <c r="I51" t="n">
-        <v>4.133333333333333</v>
+        <v>9061.666666666666</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>6327</v>
       </c>
       <c r="K51" t="n">
-        <v>4.1</v>
+        <v>3555</v>
       </c>
       <c r="L51" t="n">
-        <v>4.133333333333333</v>
+        <v>6329</v>
       </c>
       <c r="M51" t="n">
-        <v>4.2</v>
+        <v>9230.333333333334</v>
       </c>
       <c r="N51" t="n">
-        <v>4.25</v>
+        <v>6485.5</v>
       </c>
       <c r="O51" t="n">
-        <v>4.266666666666667</v>
+        <v>3707</v>
       </c>
       <c r="P51" t="n">
-        <v>4.2</v>
+        <v>6445</v>
       </c>
       <c r="Q51" t="n">
-        <v>4.1</v>
+        <v>8809</v>
       </c>
       <c r="R51" t="n">
-        <v>2.45</v>
+        <v>881</v>
       </c>
       <c r="S51" t="n">
-        <v>2.633333333333333</v>
+        <v>3197</v>
       </c>
       <c r="T51" t="n">
-        <v>3.066666666666666</v>
+        <v>5399</v>
       </c>
       <c r="U51" t="n">
-        <v>3.3</v>
+        <v>8139.666666666667</v>
       </c>
       <c r="V51" t="n">
-        <v>3.7</v>
+        <v>2055</v>
       </c>
       <c r="W51" t="n">
-        <v>3.3</v>
+        <v>3303.666666666667</v>
       </c>
       <c r="X51" t="n">
-        <v>3.366666666666667</v>
+        <v>5916.666666666667</v>
       </c>
       <c r="Y51" t="n">
-        <v>3.866666666666667</v>
+        <v>8350.333333333334</v>
       </c>
     </row>
     <row r="52">
@@ -4517,76 +4517,76 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4.55</v>
+        <v>3712.5</v>
       </c>
       <c r="C52" t="n">
-        <v>4.133333333333334</v>
+        <v>1761.333333333333</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>3054.666666666667</v>
       </c>
       <c r="E52" t="n">
-        <v>4.033333333333333</v>
+        <v>4368.666666666667</v>
       </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>911</v>
       </c>
       <c r="G52" t="n">
-        <v>4.233333333333333</v>
+        <v>1824</v>
       </c>
       <c r="H52" t="n">
-        <v>4.1</v>
+        <v>3107.333333333333</v>
       </c>
       <c r="I52" t="n">
-        <v>4.1</v>
+        <v>4410</v>
       </c>
       <c r="J52" t="n">
-        <v>4.05</v>
+        <v>3064.5</v>
       </c>
       <c r="K52" t="n">
-        <v>4.1</v>
+        <v>1739.333333333333</v>
       </c>
       <c r="L52" t="n">
-        <v>4.1</v>
+        <v>3061</v>
       </c>
       <c r="M52" t="n">
-        <v>4.1</v>
+        <v>4383.333333333333</v>
       </c>
       <c r="N52" t="n">
-        <v>4</v>
+        <v>3049</v>
       </c>
       <c r="O52" t="n">
-        <v>3.933333333333334</v>
+        <v>1667.333333333333</v>
       </c>
       <c r="P52" t="n">
-        <v>3.9</v>
+        <v>2902.333333333333</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>4285.666666666667</v>
       </c>
       <c r="R52" t="n">
-        <v>2.4</v>
+        <v>350</v>
       </c>
       <c r="S52" t="n">
-        <v>2.266666666666667</v>
+        <v>1385.666666666667</v>
       </c>
       <c r="T52" t="n">
-        <v>2.766666666666667</v>
+        <v>2369.666666666667</v>
       </c>
       <c r="U52" t="n">
-        <v>2.966666666666667</v>
+        <v>3621.333333333333</v>
       </c>
       <c r="V52" t="n">
-        <v>3.5</v>
+        <v>962</v>
       </c>
       <c r="W52" t="n">
-        <v>3.2</v>
+        <v>1614.666666666667</v>
       </c>
       <c r="X52" t="n">
-        <v>3.366666666666667</v>
+        <v>2772.333333333333</v>
       </c>
       <c r="Y52" t="n">
-        <v>3.666666666666667</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="53">
@@ -4596,76 +4596,76 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.35</v>
+        <v>8967</v>
       </c>
       <c r="C53" t="n">
-        <v>4.033333333333333</v>
+        <v>4318.333333333333</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>7570</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>10934</v>
       </c>
       <c r="F53" t="n">
-        <v>3.6</v>
+        <v>1903</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>4327.666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>7555</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>10851.33333333333</v>
       </c>
       <c r="J53" t="n">
-        <v>3.9</v>
+        <v>7579.5</v>
       </c>
       <c r="K53" t="n">
-        <v>4.1</v>
+        <v>4409.666666666667</v>
       </c>
       <c r="L53" t="n">
-        <v>4.133333333333333</v>
+        <v>7838.333333333333</v>
       </c>
       <c r="M53" t="n">
-        <v>4.2</v>
+        <v>11299</v>
       </c>
       <c r="N53" t="n">
-        <v>4.1</v>
+        <v>7846.5</v>
       </c>
       <c r="O53" t="n">
-        <v>4.1</v>
+        <v>4379.333333333333</v>
       </c>
       <c r="P53" t="n">
-        <v>4.166666666666667</v>
+        <v>7787.333333333333</v>
       </c>
       <c r="Q53" t="n">
-        <v>4.15</v>
+        <v>11423.66666666667</v>
       </c>
       <c r="R53" t="n">
-        <v>3.05</v>
+        <v>1535</v>
       </c>
       <c r="S53" t="n">
-        <v>2.966666666666667</v>
+        <v>4229.333333333333</v>
       </c>
       <c r="T53" t="n">
-        <v>3.233333333333333</v>
+        <v>6977.333333333333</v>
       </c>
       <c r="U53" t="n">
-        <v>3.4</v>
+        <v>10299.33333333333</v>
       </c>
       <c r="V53" t="n">
-        <v>3.85</v>
+        <v>2670</v>
       </c>
       <c r="W53" t="n">
-        <v>3.4</v>
+        <v>4048.666666666667</v>
       </c>
       <c r="X53" t="n">
-        <v>3.333333333333333</v>
+        <v>7100</v>
       </c>
       <c r="Y53" t="n">
-        <v>3.733333333333333</v>
+        <v>9885</v>
       </c>
     </row>
     <row r="54">
@@ -4675,76 +4675,76 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.7</v>
+        <v>5852.5</v>
       </c>
       <c r="C54" t="n">
-        <v>4.166666666666667</v>
+        <v>2741</v>
       </c>
       <c r="D54" t="n">
-        <v>4.166666666666667</v>
+        <v>4865</v>
       </c>
       <c r="E54" t="n">
-        <v>4.3</v>
+        <v>7176</v>
       </c>
       <c r="F54" t="n">
-        <v>3.9</v>
+        <v>1284</v>
       </c>
       <c r="G54" t="n">
-        <v>4.166666666666667</v>
+        <v>2765.333333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>4.333333333333333</v>
+        <v>5034.333333333333</v>
       </c>
       <c r="I54" t="n">
-        <v>4.4</v>
+        <v>7287</v>
       </c>
       <c r="J54" t="n">
-        <v>4.1</v>
+        <v>5002</v>
       </c>
       <c r="K54" t="n">
-        <v>4.1</v>
+        <v>2683.666666666667</v>
       </c>
       <c r="L54" t="n">
-        <v>4.133333333333333</v>
+        <v>4800.666666666667</v>
       </c>
       <c r="M54" t="n">
-        <v>4.266666666666667</v>
+        <v>7048</v>
       </c>
       <c r="N54" t="n">
-        <v>4.15</v>
+        <v>4925</v>
       </c>
       <c r="O54" t="n">
-        <v>4.1</v>
+        <v>2676.333333333333</v>
       </c>
       <c r="P54" t="n">
-        <v>4.233333333333333</v>
+        <v>4870.333333333333</v>
       </c>
       <c r="Q54" t="n">
-        <v>4.25</v>
+        <v>7249.666666666667</v>
       </c>
       <c r="R54" t="n">
-        <v>2.65</v>
+        <v>541</v>
       </c>
       <c r="S54" t="n">
-        <v>2.433333333333334</v>
+        <v>2380.666666666667</v>
       </c>
       <c r="T54" t="n">
-        <v>3.1</v>
+        <v>4117.666666666667</v>
       </c>
       <c r="U54" t="n">
-        <v>3.366666666666667</v>
+        <v>6242.666666666667</v>
       </c>
       <c r="V54" t="n">
-        <v>3.8</v>
+        <v>1581.5</v>
       </c>
       <c r="W54" t="n">
-        <v>3.433333333333334</v>
+        <v>2721.333333333333</v>
       </c>
       <c r="X54" t="n">
-        <v>3.7</v>
+        <v>4779.333333333333</v>
       </c>
       <c r="Y54" t="n">
-        <v>4.1</v>
+        <v>6669.333333333333</v>
       </c>
     </row>
     <row r="55">
@@ -4754,76 +4754,76 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.2</v>
+        <v>3640</v>
       </c>
       <c r="C55" t="n">
-        <v>3.799999999999999</v>
+        <v>1692</v>
       </c>
       <c r="D55" t="n">
-        <v>3.866666666666667</v>
+        <v>3040.333333333333</v>
       </c>
       <c r="E55" t="n">
-        <v>3.966666666666667</v>
+        <v>4446.666666666667</v>
       </c>
       <c r="F55" t="n">
-        <v>3.1</v>
+        <v>690</v>
       </c>
       <c r="G55" t="n">
-        <v>3.466666666666667</v>
+        <v>1561</v>
       </c>
       <c r="H55" t="n">
-        <v>3.633333333333333</v>
+        <v>2859</v>
       </c>
       <c r="I55" t="n">
-        <v>3.766666666666667</v>
+        <v>4226.333333333333</v>
       </c>
       <c r="J55" t="n">
-        <v>3.7</v>
+        <v>2966.5</v>
       </c>
       <c r="K55" t="n">
-        <v>3.666666666666667</v>
+        <v>1631.666666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>3.833333333333333</v>
+        <v>2963.333333333333</v>
       </c>
       <c r="M55" t="n">
-        <v>3.9</v>
+        <v>4352.333333333333</v>
       </c>
       <c r="N55" t="n">
-        <v>3.75</v>
+        <v>3032</v>
       </c>
       <c r="O55" t="n">
-        <v>3.633333333333333</v>
+        <v>1602</v>
       </c>
       <c r="P55" t="n">
-        <v>3.766666666666667</v>
+        <v>2914.333333333333</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.9</v>
+        <v>4511</v>
       </c>
       <c r="R55" t="n">
-        <v>2.6</v>
+        <v>384</v>
       </c>
       <c r="S55" t="n">
-        <v>2.366666666666667</v>
+        <v>1503.666666666667</v>
       </c>
       <c r="T55" t="n">
-        <v>2.866666666666667</v>
+        <v>2564</v>
       </c>
       <c r="U55" t="n">
-        <v>3.1</v>
+        <v>3873.333333333333</v>
       </c>
       <c r="V55" t="n">
-        <v>3.5</v>
+        <v>970.5</v>
       </c>
       <c r="W55" t="n">
-        <v>3.166666666666667</v>
+        <v>1623.333333333333</v>
       </c>
       <c r="X55" t="n">
-        <v>3.266666666666667</v>
+        <v>2795.666666666667</v>
       </c>
       <c r="Y55" t="n">
-        <v>3.666666666666667</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="56">
@@ -4833,76 +4833,76 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.55</v>
+        <v>9223</v>
       </c>
       <c r="C56" t="n">
-        <v>4.233333333333333</v>
+        <v>4468.333333333333</v>
       </c>
       <c r="D56" t="n">
-        <v>4.266666666666667</v>
+        <v>7984.333333333333</v>
       </c>
       <c r="E56" t="n">
-        <v>4.4</v>
+        <v>11743</v>
       </c>
       <c r="F56" t="n">
-        <v>3.9</v>
+        <v>2055</v>
       </c>
       <c r="G56" t="n">
-        <v>4.266666666666667</v>
+        <v>4517.333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>4.333333333333333</v>
+        <v>8043</v>
       </c>
       <c r="I56" t="n">
-        <v>4.333333333333333</v>
+        <v>11624.33333333333</v>
       </c>
       <c r="J56" t="n">
-        <v>4.15</v>
+        <v>8045.5</v>
       </c>
       <c r="K56" t="n">
-        <v>4.3</v>
+        <v>4515.333333333333</v>
       </c>
       <c r="L56" t="n">
-        <v>4.2</v>
+        <v>7865.333333333333</v>
       </c>
       <c r="M56" t="n">
-        <v>4.3</v>
+        <v>11407</v>
       </c>
       <c r="N56" t="n">
-        <v>4.1</v>
+        <v>7902</v>
       </c>
       <c r="O56" t="n">
-        <v>4.166666666666667</v>
+        <v>4374.666666666667</v>
       </c>
       <c r="P56" t="n">
-        <v>4.266666666666667</v>
+        <v>7927</v>
       </c>
       <c r="Q56" t="n">
-        <v>4.199999999999999</v>
+        <v>11666.66666666667</v>
       </c>
       <c r="R56" t="n">
-        <v>2.75</v>
+        <v>1061.5</v>
       </c>
       <c r="S56" t="n">
-        <v>2.766666666666667</v>
+        <v>4181.666666666667</v>
       </c>
       <c r="T56" t="n">
-        <v>3.266666666666667</v>
+        <v>7030.333333333333</v>
       </c>
       <c r="U56" t="n">
-        <v>3.5</v>
+        <v>10443.33333333333</v>
       </c>
       <c r="V56" t="n">
-        <v>3.9</v>
+        <v>2589.5</v>
       </c>
       <c r="W56" t="n">
-        <v>3.433333333333333</v>
+        <v>4271</v>
       </c>
       <c r="X56" t="n">
-        <v>3.533333333333334</v>
+        <v>7404.666666666667</v>
       </c>
       <c r="Y56" t="n">
-        <v>3.933333333333334</v>
+        <v>10382.66666666667</v>
       </c>
     </row>
     <row r="57">
@@ -4912,76 +4912,76 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.25</v>
+        <v>6756</v>
       </c>
       <c r="C57" t="n">
-        <v>3.933333333333334</v>
+        <v>3226.666666666667</v>
       </c>
       <c r="D57" t="n">
-        <v>4.066666666666666</v>
+        <v>5910.333333333333</v>
       </c>
       <c r="E57" t="n">
-        <v>4.2</v>
+        <v>8718.666666666666</v>
       </c>
       <c r="F57" t="n">
-        <v>3.6</v>
+        <v>1448</v>
       </c>
       <c r="G57" t="n">
-        <v>3.933333333333334</v>
+        <v>3262.333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>4.033333333333333</v>
+        <v>5828.333333333333</v>
       </c>
       <c r="I57" t="n">
-        <v>4.1</v>
+        <v>8467</v>
       </c>
       <c r="J57" t="n">
-        <v>3.85</v>
+        <v>5828.5</v>
       </c>
       <c r="K57" t="n">
-        <v>3.833333333333333</v>
+        <v>3134</v>
       </c>
       <c r="L57" t="n">
-        <v>3.933333333333334</v>
+        <v>5635.666666666667</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>8242.333333333334</v>
       </c>
       <c r="N57" t="n">
-        <v>4</v>
+        <v>5781</v>
       </c>
       <c r="O57" t="n">
-        <v>3.9</v>
+        <v>3177.666666666667</v>
       </c>
       <c r="P57" t="n">
-        <v>4.033333333333333</v>
+        <v>5781.333333333333</v>
       </c>
       <c r="Q57" t="n">
-        <v>4.1</v>
+        <v>8367</v>
       </c>
       <c r="R57" t="n">
-        <v>2.3</v>
+        <v>590.5</v>
       </c>
       <c r="S57" t="n">
-        <v>2.2</v>
+        <v>2671</v>
       </c>
       <c r="T57" t="n">
-        <v>2.8</v>
+        <v>4711</v>
       </c>
       <c r="U57" t="n">
-        <v>3.1</v>
+        <v>7185.666666666667</v>
       </c>
       <c r="V57" t="n">
-        <v>3.5</v>
+        <v>1812.5</v>
       </c>
       <c r="W57" t="n">
-        <v>3.133333333333333</v>
+        <v>2903.333333333333</v>
       </c>
       <c r="X57" t="n">
-        <v>3.2</v>
+        <v>5220</v>
       </c>
       <c r="Y57" t="n">
-        <v>3.766666666666667</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="58">
@@ -4991,76 +4991,76 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.1</v>
+        <v>3382</v>
       </c>
       <c r="C58" t="n">
-        <v>3.733333333333333</v>
+        <v>1564</v>
       </c>
       <c r="D58" t="n">
-        <v>3.833333333333333</v>
+        <v>2810.333333333333</v>
       </c>
       <c r="E58" t="n">
-        <v>3.9</v>
+        <v>4124</v>
       </c>
       <c r="F58" t="n">
-        <v>3.4</v>
+        <v>697</v>
       </c>
       <c r="G58" t="n">
-        <v>3.700000000000001</v>
+        <v>1548</v>
       </c>
       <c r="H58" t="n">
-        <v>3.833333333333333</v>
+        <v>2804</v>
       </c>
       <c r="I58" t="n">
-        <v>3.833333333333333</v>
+        <v>4014.333333333333</v>
       </c>
       <c r="J58" t="n">
-        <v>3.75</v>
+        <v>2808</v>
       </c>
       <c r="K58" t="n">
-        <v>3.799999999999999</v>
+        <v>1569.666666666667</v>
       </c>
       <c r="L58" t="n">
-        <v>3.833333333333333</v>
+        <v>2786.666666666667</v>
       </c>
       <c r="M58" t="n">
-        <v>3.9</v>
+        <v>4013.333333333333</v>
       </c>
       <c r="N58" t="n">
-        <v>3.7</v>
+        <v>2781</v>
       </c>
       <c r="O58" t="n">
-        <v>3.633333333333333</v>
+        <v>1498</v>
       </c>
       <c r="P58" t="n">
-        <v>3.700000000000001</v>
+        <v>2693</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.8</v>
+        <v>3955</v>
       </c>
       <c r="R58" t="n">
-        <v>2.25</v>
+        <v>331</v>
       </c>
       <c r="S58" t="n">
-        <v>2.2</v>
+        <v>1302.333333333333</v>
       </c>
       <c r="T58" t="n">
-        <v>2.733333333333334</v>
+        <v>2325.666666666667</v>
       </c>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>3486.666666666667</v>
       </c>
       <c r="V58" t="n">
-        <v>3.5</v>
+        <v>946.5</v>
       </c>
       <c r="W58" t="n">
-        <v>3.233333333333334</v>
+        <v>1527</v>
       </c>
       <c r="X58" t="n">
-        <v>3.266666666666667</v>
+        <v>2637.333333333333</v>
       </c>
       <c r="Y58" t="n">
-        <v>3.5</v>
+        <v>3589.333333333333</v>
       </c>
     </row>
     <row r="59">
@@ -5070,76 +5070,76 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.949999999999999</v>
+        <v>2758.5</v>
       </c>
       <c r="C59" t="n">
-        <v>4.5</v>
+        <v>1287.333333333333</v>
       </c>
       <c r="D59" t="n">
-        <v>4.566666666666666</v>
+        <v>2295.666666666667</v>
       </c>
       <c r="E59" t="n">
-        <v>4.733333333333333</v>
+        <v>3423.333333333333</v>
       </c>
       <c r="F59" t="n">
-        <v>4.1</v>
+        <v>572</v>
       </c>
       <c r="G59" t="n">
-        <v>4.399999999999999</v>
+        <v>1256.333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>4.633333333333333</v>
+        <v>2307.333333333333</v>
       </c>
       <c r="I59" t="n">
-        <v>4.633333333333334</v>
+        <v>3328.666666666667</v>
       </c>
       <c r="J59" t="n">
-        <v>4.35</v>
+        <v>2277</v>
       </c>
       <c r="K59" t="n">
-        <v>4.466666666666667</v>
+        <v>1251</v>
       </c>
       <c r="L59" t="n">
-        <v>4.533333333333333</v>
+        <v>2245</v>
       </c>
       <c r="M59" t="n">
-        <v>4.7</v>
+        <v>3336.333333333333</v>
       </c>
       <c r="N59" t="n">
-        <v>4.8</v>
+        <v>2353.5</v>
       </c>
       <c r="O59" t="n">
-        <v>4.733333333333333</v>
+        <v>1313.333333333333</v>
       </c>
       <c r="P59" t="n">
-        <v>4.633333333333333</v>
+        <v>2275.666666666667</v>
       </c>
       <c r="Q59" t="n">
-        <v>4.7</v>
+        <v>3388.333333333333</v>
       </c>
       <c r="R59" t="n">
-        <v>3.2</v>
+        <v>337</v>
       </c>
       <c r="S59" t="n">
-        <v>2.9</v>
+        <v>1137.333333333333</v>
       </c>
       <c r="T59" t="n">
-        <v>3.366666666666667</v>
+        <v>1892.333333333333</v>
       </c>
       <c r="U59" t="n">
-        <v>3.633333333333333</v>
+        <v>2832.666666666667</v>
       </c>
       <c r="V59" t="n">
-        <v>4.1</v>
+        <v>733.5</v>
       </c>
       <c r="W59" t="n">
-        <v>3.6</v>
+        <v>1168.666666666667</v>
       </c>
       <c r="X59" t="n">
-        <v>3.8</v>
+        <v>2089.333333333333</v>
       </c>
       <c r="Y59" t="n">
-        <v>4.3</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="60">
@@ -5149,76 +5149,76 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.6</v>
+        <v>12708</v>
       </c>
       <c r="C60" t="n">
-        <v>4.333333333333333</v>
+        <v>6173.333333333333</v>
       </c>
       <c r="D60" t="n">
-        <v>4.366666666666666</v>
+        <v>11034.66666666667</v>
       </c>
       <c r="E60" t="n">
-        <v>4.433333333333334</v>
+        <v>16019.33333333333</v>
       </c>
       <c r="F60" t="n">
-        <v>4.2</v>
+        <v>3013</v>
       </c>
       <c r="G60" t="n">
-        <v>4.4</v>
+        <v>6353</v>
       </c>
       <c r="H60" t="n">
-        <v>4.5</v>
+        <v>11340</v>
       </c>
       <c r="I60" t="n">
-        <v>4.566666666666666</v>
+        <v>16403.33333333333</v>
       </c>
       <c r="J60" t="n">
-        <v>4.449999999999999</v>
+        <v>11377.5</v>
       </c>
       <c r="K60" t="n">
-        <v>4.533333333333333</v>
+        <v>6436.333333333333</v>
       </c>
       <c r="L60" t="n">
-        <v>4.533333333333333</v>
+        <v>11389.66666666667</v>
       </c>
       <c r="M60" t="n">
-        <v>4.566666666666666</v>
+        <v>16457.33333333333</v>
       </c>
       <c r="N60" t="n">
-        <v>4.449999999999999</v>
+        <v>11475</v>
       </c>
       <c r="O60" t="n">
-        <v>4.5</v>
+        <v>6434.333333333333</v>
       </c>
       <c r="P60" t="n">
-        <v>4.5</v>
+        <v>11348.66666666667</v>
       </c>
       <c r="Q60" t="n">
-        <v>4.55</v>
+        <v>16563.66666666667</v>
       </c>
       <c r="R60" t="n">
-        <v>2.95</v>
+        <v>1743.5</v>
       </c>
       <c r="S60" t="n">
-        <v>3.066666666666666</v>
+        <v>6288</v>
       </c>
       <c r="T60" t="n">
-        <v>3.566666666666666</v>
+        <v>10431</v>
       </c>
       <c r="U60" t="n">
-        <v>3.8</v>
+        <v>15387.66666666667</v>
       </c>
       <c r="V60" t="n">
-        <v>4.1</v>
+        <v>3774.5</v>
       </c>
       <c r="W60" t="n">
-        <v>3.733333333333333</v>
+        <v>6056.666666666667</v>
       </c>
       <c r="X60" t="n">
-        <v>3.533333333333334</v>
+        <v>9972</v>
       </c>
       <c r="Y60" t="n">
-        <v>4.100000000000001</v>
+        <v>14730</v>
       </c>
     </row>
     <row r="61">
@@ -5228,76 +5228,76 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5.5</v>
+        <v>12163</v>
       </c>
       <c r="C61" t="n">
-        <v>5.199999999999999</v>
+        <v>6143</v>
       </c>
       <c r="D61" t="n">
-        <v>5.266666666666667</v>
+        <v>10956.33333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>5.266666666666667</v>
+        <v>15740</v>
       </c>
       <c r="F61" t="n">
-        <v>4.9</v>
+        <v>2890</v>
       </c>
       <c r="G61" t="n">
-        <v>5.199999999999999</v>
+        <v>6259</v>
       </c>
       <c r="H61" t="n">
-        <v>5.233333333333333</v>
+        <v>11036.33333333333</v>
       </c>
       <c r="I61" t="n">
-        <v>5.2</v>
+        <v>15690</v>
       </c>
       <c r="J61" t="n">
-        <v>5.050000000000001</v>
+        <v>10934</v>
       </c>
       <c r="K61" t="n">
-        <v>5.166666666666667</v>
+        <v>6255.333333333333</v>
       </c>
       <c r="L61" t="n">
-        <v>5.2</v>
+        <v>11096.33333333333</v>
       </c>
       <c r="M61" t="n">
-        <v>5.1</v>
+        <v>15675.66666666667</v>
       </c>
       <c r="N61" t="n">
-        <v>5.050000000000001</v>
+        <v>10957.5</v>
       </c>
       <c r="O61" t="n">
-        <v>5.2</v>
+        <v>6308.666666666667</v>
       </c>
       <c r="P61" t="n">
-        <v>5.1</v>
+        <v>11038.33333333333</v>
       </c>
       <c r="Q61" t="n">
-        <v>5.1</v>
+        <v>16368.33333333333</v>
       </c>
       <c r="R61" t="n">
-        <v>3.45</v>
+        <v>1583.5</v>
       </c>
       <c r="S61" t="n">
-        <v>3.333333333333333</v>
+        <v>6034.333333333333</v>
       </c>
       <c r="T61" t="n">
-        <v>4</v>
+        <v>9876.333333333334</v>
       </c>
       <c r="U61" t="n">
-        <v>4.100000000000001</v>
+        <v>14512</v>
       </c>
       <c r="V61" t="n">
-        <v>4.6</v>
+        <v>3792.5</v>
       </c>
       <c r="W61" t="n">
-        <v>3.966666666666666</v>
+        <v>5422.666666666667</v>
       </c>
       <c r="X61" t="n">
-        <v>3.666666666666667</v>
+        <v>9026.666666666666</v>
       </c>
       <c r="Y61" t="n">
-        <v>4.166666666666667</v>
+        <v>13005</v>
       </c>
     </row>
     <row r="62">
@@ -5307,55 +5307,55 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5.75</v>
+        <v>1923.5</v>
       </c>
       <c r="C62" t="n">
-        <v>5.600000000000001</v>
+        <v>1003.333333333333</v>
       </c>
       <c r="D62" t="n">
-        <v>5.533333333333334</v>
+        <v>1738</v>
       </c>
       <c r="E62" t="n">
-        <v>5.5</v>
+        <v>2489</v>
       </c>
       <c r="F62" t="n">
-        <v>5.8</v>
+        <v>506</v>
       </c>
       <c r="G62" t="n">
-        <v>6.266666666666667</v>
+        <v>1106</v>
       </c>
       <c r="H62" t="n">
-        <v>5.899999999999999</v>
+        <v>1827</v>
       </c>
       <c r="I62" t="n">
-        <v>5.633333333333333</v>
+        <v>2509.333333333333</v>
       </c>
       <c r="J62" t="n">
-        <v>5.5</v>
+        <v>1746.5</v>
       </c>
       <c r="K62" t="n">
-        <v>5.733333333333333</v>
+        <v>1019.333333333333</v>
       </c>
       <c r="L62" t="n">
-        <v>5.533333333333334</v>
+        <v>1730.333333333333</v>
       </c>
       <c r="M62" t="n">
-        <v>5.366666666666667</v>
+        <v>2402</v>
       </c>
       <c r="N62" t="n">
-        <v>5.5</v>
+        <v>1711.5</v>
       </c>
       <c r="O62" t="n">
-        <v>5.833333333333333</v>
+        <v>1037.333333333333</v>
       </c>
       <c r="P62" t="n">
-        <v>5.600000000000001</v>
+        <v>1752</v>
       </c>
       <c r="Q62" t="n">
-        <v>5.4</v>
+        <v>2555</v>
       </c>
       <c r="R62" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -5386,55 +5386,55 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>4459.5</v>
       </c>
       <c r="C63" t="n">
-        <v>4.533333333333333</v>
+        <v>2136</v>
       </c>
       <c r="D63" t="n">
-        <v>4.666666666666667</v>
+        <v>3867</v>
       </c>
       <c r="E63" t="n">
-        <v>4.733333333333333</v>
+        <v>5654</v>
       </c>
       <c r="F63" t="n">
-        <v>4.2</v>
+        <v>1007</v>
       </c>
       <c r="G63" t="n">
-        <v>4.533333333333333</v>
+        <v>2190.333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>4.633333333333333</v>
+        <v>3925</v>
       </c>
       <c r="I63" t="n">
-        <v>4.6</v>
+        <v>5609</v>
       </c>
       <c r="J63" t="n">
-        <v>4.5</v>
+        <v>3910</v>
       </c>
       <c r="K63" t="n">
-        <v>4.533333333333333</v>
+        <v>2211.333333333333</v>
       </c>
       <c r="L63" t="n">
-        <v>4.666666666666667</v>
+        <v>4001.666666666667</v>
       </c>
       <c r="M63" t="n">
-        <v>4.633333333333333</v>
+        <v>5727.333333333333</v>
       </c>
       <c r="N63" t="n">
-        <v>4.5</v>
+        <v>4029.5</v>
       </c>
       <c r="O63" t="n">
-        <v>4.566666666666666</v>
+        <v>2254.666666666667</v>
       </c>
       <c r="P63" t="n">
-        <v>4.6</v>
+        <v>4003.333333333333</v>
       </c>
       <c r="Q63" t="n">
-        <v>4.6</v>
+        <v>6065</v>
       </c>
       <c r="R63" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -5465,76 +5465,76 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.949999999999999</v>
+        <v>11066.5</v>
       </c>
       <c r="C64" t="n">
-        <v>4.433333333333334</v>
+        <v>5106</v>
       </c>
       <c r="D64" t="n">
-        <v>4.466666666666667</v>
+        <v>9114.333333333334</v>
       </c>
       <c r="E64" t="n">
-        <v>4.6</v>
+        <v>13282.33333333333</v>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>2323</v>
       </c>
       <c r="G64" t="n">
-        <v>4.433333333333334</v>
+        <v>5157.666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>4.5</v>
+        <v>9163.666666666666</v>
       </c>
       <c r="I64" t="n">
-        <v>4.6</v>
+        <v>13303</v>
       </c>
       <c r="J64" t="n">
-        <v>4.4</v>
+        <v>9171.5</v>
       </c>
       <c r="K64" t="n">
-        <v>4.433333333333334</v>
+        <v>5122.666666666667</v>
       </c>
       <c r="L64" t="n">
-        <v>4.533333333333333</v>
+        <v>9217.333333333334</v>
       </c>
       <c r="M64" t="n">
-        <v>4.6</v>
+        <v>13361</v>
       </c>
       <c r="N64" t="n">
-        <v>4.449999999999999</v>
+        <v>9256</v>
       </c>
       <c r="O64" t="n">
-        <v>4.433333333333334</v>
+        <v>5122.333333333333</v>
       </c>
       <c r="P64" t="n">
-        <v>4.533333333333333</v>
+        <v>9152.666666666666</v>
       </c>
       <c r="Q64" t="n">
-        <v>4.6</v>
+        <v>13328.66666666667</v>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>1191.5</v>
       </c>
       <c r="S64" t="n">
-        <v>2.766666666666667</v>
+        <v>4643.333333333333</v>
       </c>
       <c r="T64" t="n">
-        <v>3.366666666666667</v>
+        <v>7846</v>
       </c>
       <c r="U64" t="n">
-        <v>3.566666666666666</v>
+        <v>11850.66666666667</v>
       </c>
       <c r="V64" t="n">
-        <v>4.15</v>
+        <v>3168</v>
       </c>
       <c r="W64" t="n">
-        <v>3.833333333333334</v>
+        <v>5110</v>
       </c>
       <c r="X64" t="n">
-        <v>3.866666666666667</v>
+        <v>8850.666666666666</v>
       </c>
       <c r="Y64" t="n">
-        <v>4.399999999999999</v>
+        <v>12746</v>
       </c>
     </row>
     <row r="65">
@@ -5544,76 +5544,76 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.7</v>
+        <v>670</v>
       </c>
       <c r="C65" t="n">
-        <v>3.700000000000001</v>
+        <v>262.6666666666667</v>
       </c>
       <c r="D65" t="n">
-        <v>3.933333333333334</v>
+        <v>490.3333333333333</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>712.3333333333334</v>
       </c>
       <c r="F65" t="n">
-        <v>4.3</v>
+        <v>152</v>
       </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>300.6666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>4.2</v>
+        <v>527</v>
       </c>
       <c r="I65" t="n">
-        <v>4.266666666666667</v>
+        <v>768.6666666666666</v>
       </c>
       <c r="J65" t="n">
-        <v>3.85</v>
+        <v>527</v>
       </c>
       <c r="K65" t="n">
-        <v>3.799999999999999</v>
+        <v>272.6666666666667</v>
       </c>
       <c r="L65" t="n">
-        <v>3.9</v>
+        <v>493.6666666666667</v>
       </c>
       <c r="M65" t="n">
-        <v>4.2</v>
+        <v>754</v>
       </c>
       <c r="N65" t="n">
-        <v>4.1</v>
+        <v>528</v>
       </c>
       <c r="O65" t="n">
-        <v>3.9</v>
+        <v>278.6666666666667</v>
       </c>
       <c r="P65" t="n">
-        <v>3.833333333333333</v>
+        <v>488</v>
       </c>
       <c r="Q65" t="n">
-        <v>3.75</v>
+        <v>680.3333333333334</v>
       </c>
       <c r="R65" t="n">
-        <v>2.3</v>
+        <v>57</v>
       </c>
       <c r="S65" t="n">
-        <v>2.3</v>
+        <v>259.3333333333333</v>
       </c>
       <c r="T65" t="n">
-        <v>3.033333333333333</v>
+        <v>447.6666666666667</v>
       </c>
       <c r="U65" t="n">
-        <v>3.333333333333333</v>
+        <v>697</v>
       </c>
       <c r="V65" t="n">
-        <v>3.9</v>
+        <v>197</v>
       </c>
       <c r="W65" t="n">
-        <v>4.033333333333333</v>
+        <v>368.6666666666667</v>
       </c>
       <c r="X65" t="n">
-        <v>4.499999999999999</v>
+        <v>649.3333333333334</v>
       </c>
       <c r="Y65" t="n">
-        <v>4.766666666666667</v>
+        <v>867.3333333333334</v>
       </c>
     </row>
     <row r="66">
@@ -5623,76 +5623,76 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.95</v>
+        <v>2539.5</v>
       </c>
       <c r="C66" t="n">
-        <v>3.5</v>
+        <v>1132</v>
       </c>
       <c r="D66" t="n">
-        <v>3.566666666666666</v>
+        <v>2030</v>
       </c>
       <c r="E66" t="n">
-        <v>3.6</v>
+        <v>2945</v>
       </c>
       <c r="F66" t="n">
-        <v>3.3</v>
+        <v>526</v>
       </c>
       <c r="G66" t="n">
-        <v>3.566666666666666</v>
+        <v>1163.333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>3.633333333333333</v>
+        <v>2075.666666666667</v>
       </c>
       <c r="I66" t="n">
-        <v>3.6</v>
+        <v>2983.666666666667</v>
       </c>
       <c r="J66" t="n">
-        <v>3.4</v>
+        <v>2039</v>
       </c>
       <c r="K66" t="n">
-        <v>3.5</v>
+        <v>1142.333333333333</v>
       </c>
       <c r="L66" t="n">
-        <v>3.5</v>
+        <v>2019</v>
       </c>
       <c r="M66" t="n">
-        <v>3.566666666666666</v>
+        <v>2913.333333333333</v>
       </c>
       <c r="N66" t="n">
-        <v>3.6</v>
+        <v>2038.5</v>
       </c>
       <c r="O66" t="n">
-        <v>3.700000000000001</v>
+        <v>1190.333333333333</v>
       </c>
       <c r="P66" t="n">
-        <v>3.633333333333333</v>
+        <v>2080</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.65</v>
+        <v>3000.666666666667</v>
       </c>
       <c r="R66" t="n">
-        <v>2.15</v>
+        <v>237.5</v>
       </c>
       <c r="S66" t="n">
-        <v>2.066666666666666</v>
+        <v>1003</v>
       </c>
       <c r="T66" t="n">
-        <v>2.566666666666666</v>
+        <v>1736</v>
       </c>
       <c r="U66" t="n">
-        <v>2.8</v>
+        <v>2654.333333333333</v>
       </c>
       <c r="V66" t="n">
-        <v>3.5</v>
+        <v>779.5</v>
       </c>
       <c r="W66" t="n">
-        <v>3</v>
+        <v>1106.333333333333</v>
       </c>
       <c r="X66" t="n">
-        <v>3.066666666666666</v>
+        <v>2048</v>
       </c>
       <c r="Y66" t="n">
-        <v>3.5</v>
+        <v>2884.333333333333</v>
       </c>
     </row>
     <row r="67">
@@ -5702,76 +5702,76 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.85</v>
+        <v>360.5</v>
       </c>
       <c r="C67" t="n">
-        <v>1.633333333333334</v>
+        <v>170.3333333333333</v>
       </c>
       <c r="D67" t="n">
-        <v>1.633333333333334</v>
+        <v>301.6666666666667</v>
       </c>
       <c r="E67" t="n">
-        <v>1.7</v>
+        <v>439.6666666666667</v>
       </c>
       <c r="F67" t="n">
-        <v>1.4</v>
+        <v>75</v>
       </c>
       <c r="G67" t="n">
-        <v>1.533333333333333</v>
+        <v>162.6666666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1.566666666666667</v>
+        <v>290.6666666666667</v>
       </c>
       <c r="I67" t="n">
-        <v>1.6</v>
+        <v>422</v>
       </c>
       <c r="J67" t="n">
-        <v>1.55</v>
+        <v>293.5</v>
       </c>
       <c r="K67" t="n">
-        <v>1.666666666666667</v>
+        <v>171.3333333333333</v>
       </c>
       <c r="L67" t="n">
-        <v>1.633333333333334</v>
+        <v>306.6666666666667</v>
       </c>
       <c r="M67" t="n">
-        <v>1.633333333333334</v>
+        <v>439.3333333333333</v>
       </c>
       <c r="N67" t="n">
-        <v>1.7</v>
+        <v>324</v>
       </c>
       <c r="O67" t="n">
-        <v>1.7</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="P67" t="n">
-        <v>1.8</v>
+        <v>337.6666666666667</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.85</v>
+        <v>519</v>
       </c>
       <c r="R67" t="n">
-        <v>1.25</v>
+        <v>54</v>
       </c>
       <c r="S67" t="n">
-        <v>1.3</v>
+        <v>188.6666666666667</v>
       </c>
       <c r="T67" t="n">
-        <v>1.466666666666667</v>
+        <v>335</v>
       </c>
       <c r="U67" t="n">
-        <v>1.733333333333333</v>
+        <v>537.6666666666666</v>
       </c>
       <c r="V67" t="n">
-        <v>2.1</v>
+        <v>156.5</v>
       </c>
       <c r="W67" t="n">
-        <v>1.966666666666667</v>
+        <v>232</v>
       </c>
       <c r="X67" t="n">
-        <v>1.6</v>
+        <v>342.3333333333333</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.766666666666667</v>
+        <v>479.6666666666667</v>
       </c>
     </row>
     <row r="68">
@@ -5781,76 +5781,76 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4.7</v>
+        <v>1611.5</v>
       </c>
       <c r="C68" t="n">
-        <v>4.033333333333333</v>
+        <v>720.6666666666666</v>
       </c>
       <c r="D68" t="n">
-        <v>4.3</v>
+        <v>1339</v>
       </c>
       <c r="E68" t="n">
-        <v>4.5</v>
+        <v>2008</v>
       </c>
       <c r="F68" t="n">
-        <v>4.2</v>
+        <v>373</v>
       </c>
       <c r="G68" t="n">
-        <v>4.666666666666667</v>
+        <v>828</v>
       </c>
       <c r="H68" t="n">
-        <v>4.633333333333334</v>
+        <v>1443.666666666667</v>
       </c>
       <c r="I68" t="n">
-        <v>4.566666666666666</v>
+        <v>2039.333333333333</v>
       </c>
       <c r="J68" t="n">
-        <v>4.5</v>
+        <v>1433.5</v>
       </c>
       <c r="K68" t="n">
-        <v>4.533333333333333</v>
+        <v>803.3333333333334</v>
       </c>
       <c r="L68" t="n">
-        <v>4.566666666666666</v>
+        <v>1427</v>
       </c>
       <c r="M68" t="n">
-        <v>4.6</v>
+        <v>2067.666666666667</v>
       </c>
       <c r="N68" t="n">
-        <v>4.35</v>
+        <v>1427.5</v>
       </c>
       <c r="O68" t="n">
-        <v>4.166666666666667</v>
+        <v>740</v>
       </c>
       <c r="P68" t="n">
-        <v>4.3</v>
+        <v>1351.333333333333</v>
       </c>
       <c r="Q68" t="n">
-        <v>4.25</v>
+        <v>2025.333333333333</v>
       </c>
       <c r="R68" t="n">
-        <v>2.7</v>
+        <v>129</v>
       </c>
       <c r="S68" t="n">
-        <v>2.333333333333333</v>
+        <v>632.3333333333334</v>
       </c>
       <c r="T68" t="n">
-        <v>3</v>
+        <v>1096</v>
       </c>
       <c r="U68" t="n">
-        <v>3.266666666666667</v>
+        <v>1670.333333333333</v>
       </c>
       <c r="V68" t="n">
-        <v>4</v>
+        <v>487.5</v>
       </c>
       <c r="W68" t="n">
-        <v>3.933333333333334</v>
+        <v>843.3333333333334</v>
       </c>
       <c r="X68" t="n">
-        <v>4.333333333333333</v>
+        <v>1538.333333333333</v>
       </c>
       <c r="Y68" t="n">
-        <v>4.7</v>
+        <v>2093.333333333333</v>
       </c>
     </row>
     <row r="69">
@@ -5860,76 +5860,76 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.7</v>
+        <v>7376.5</v>
       </c>
       <c r="C69" t="n">
-        <v>4.1</v>
+        <v>3206.333333333333</v>
       </c>
       <c r="D69" t="n">
-        <v>4.266666666666667</v>
+        <v>5897.333333333333</v>
       </c>
       <c r="E69" t="n">
-        <v>4.4</v>
+        <v>8761.666666666666</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>1540</v>
       </c>
       <c r="G69" t="n">
-        <v>4.199999999999999</v>
+        <v>3295.333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>4.333333333333333</v>
+        <v>5984.333333333333</v>
       </c>
       <c r="I69" t="n">
-        <v>4.4</v>
+        <v>8648</v>
       </c>
       <c r="J69" t="n">
-        <v>4.2</v>
+        <v>5949</v>
       </c>
       <c r="K69" t="n">
-        <v>4.366666666666666</v>
+        <v>3401</v>
       </c>
       <c r="L69" t="n">
-        <v>4.466666666666667</v>
+        <v>6149</v>
       </c>
       <c r="M69" t="n">
-        <v>4.5</v>
+        <v>8913.333333333334</v>
       </c>
       <c r="N69" t="n">
-        <v>4.2</v>
+        <v>6118</v>
       </c>
       <c r="O69" t="n">
-        <v>4.033333333333333</v>
+        <v>3143.333333333333</v>
       </c>
       <c r="P69" t="n">
-        <v>4.266666666666667</v>
+        <v>5815.333333333333</v>
       </c>
       <c r="Q69" t="n">
-        <v>4.35</v>
+        <v>8537.666666666666</v>
       </c>
       <c r="R69" t="n">
-        <v>2.6</v>
+        <v>727</v>
       </c>
       <c r="S69" t="n">
-        <v>2.566666666666667</v>
+        <v>2912.666666666667</v>
       </c>
       <c r="T69" t="n">
-        <v>3.166666666666667</v>
+        <v>4963.333333333333</v>
       </c>
       <c r="U69" t="n">
-        <v>3.366666666666667</v>
+        <v>7389.333333333333</v>
       </c>
       <c r="V69" t="n">
-        <v>3.8</v>
+        <v>1905</v>
       </c>
       <c r="W69" t="n">
-        <v>3.433333333333334</v>
+        <v>3220.333333333333</v>
       </c>
       <c r="X69" t="n">
-        <v>3.833333333333333</v>
+        <v>5863.333333333333</v>
       </c>
       <c r="Y69" t="n">
-        <v>4.266666666666667</v>
+        <v>8144.333333333333</v>
       </c>
     </row>
     <row r="70">
@@ -5939,76 +5939,76 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.6</v>
+        <v>3307</v>
       </c>
       <c r="C70" t="n">
-        <v>4.233333333333333</v>
+        <v>1516.666666666667</v>
       </c>
       <c r="D70" t="n">
-        <v>4.266666666666667</v>
+        <v>2717.333333333333</v>
       </c>
       <c r="E70" t="n">
-        <v>4.3</v>
+        <v>3915.333333333333</v>
       </c>
       <c r="F70" t="n">
-        <v>4.2</v>
+        <v>752</v>
       </c>
       <c r="G70" t="n">
-        <v>4.4</v>
+        <v>1579.333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>4.5</v>
+        <v>2828</v>
       </c>
       <c r="I70" t="n">
-        <v>4.466666666666667</v>
+        <v>4034.666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>4.3</v>
+        <v>2796.5</v>
       </c>
       <c r="K70" t="n">
-        <v>4.4</v>
+        <v>1557.666666666667</v>
       </c>
       <c r="L70" t="n">
-        <v>4.466666666666667</v>
+        <v>2806.333333333333</v>
       </c>
       <c r="M70" t="n">
-        <v>4.566666666666666</v>
+        <v>4115.666666666667</v>
       </c>
       <c r="N70" t="n">
-        <v>4.449999999999999</v>
+        <v>2876.5</v>
       </c>
       <c r="O70" t="n">
-        <v>4.533333333333333</v>
+        <v>1611.333333333333</v>
       </c>
       <c r="P70" t="n">
-        <v>4.5</v>
+        <v>2797.333333333333</v>
       </c>
       <c r="Q70" t="n">
-        <v>4.5</v>
+        <v>4074.333333333333</v>
       </c>
       <c r="R70" t="n">
-        <v>2.8</v>
+        <v>341.5</v>
       </c>
       <c r="S70" t="n">
-        <v>2.799999999999999</v>
+        <v>1446</v>
       </c>
       <c r="T70" t="n">
-        <v>3.333333333333333</v>
+        <v>2391.666666666667</v>
       </c>
       <c r="U70" t="n">
-        <v>3.566666666666666</v>
+        <v>3616.666666666667</v>
       </c>
       <c r="V70" t="n">
-        <v>4.3</v>
+        <v>1036.5</v>
       </c>
       <c r="W70" t="n">
-        <v>4.033333333333333</v>
+        <v>1640.666666666667</v>
       </c>
       <c r="X70" t="n">
-        <v>4</v>
+        <v>2814</v>
       </c>
       <c r="Y70" t="n">
-        <v>4.5</v>
+        <v>3940.666666666667</v>
       </c>
     </row>
     <row r="71">
@@ -6018,76 +6018,76 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.5</v>
+        <v>7892</v>
       </c>
       <c r="C71" t="n">
-        <v>4.633333333333334</v>
+        <v>4389</v>
       </c>
       <c r="D71" t="n">
-        <v>4.666666666666667</v>
+        <v>7773</v>
       </c>
       <c r="E71" t="n">
-        <v>4.766666666666667</v>
+        <v>11307.33333333333</v>
       </c>
       <c r="F71" t="n">
-        <v>4.4</v>
+        <v>2081</v>
       </c>
       <c r="G71" t="n">
-        <v>4.766666666666667</v>
+        <v>4546</v>
       </c>
       <c r="H71" t="n">
-        <v>4.8</v>
+        <v>8023.333333333333</v>
       </c>
       <c r="I71" t="n">
-        <v>4.8</v>
+        <v>11490</v>
       </c>
       <c r="J71" t="n">
-        <v>4.6</v>
+        <v>7958</v>
       </c>
       <c r="K71" t="n">
-        <v>4.7</v>
+        <v>4465</v>
       </c>
       <c r="L71" t="n">
-        <v>4.733333333333333</v>
+        <v>7894.666666666667</v>
       </c>
       <c r="M71" t="n">
-        <v>4.766666666666667</v>
+        <v>11444.66666666667</v>
       </c>
       <c r="N71" t="n">
-        <v>4.699999999999999</v>
+        <v>8037.5</v>
       </c>
       <c r="O71" t="n">
-        <v>4.833333333333333</v>
+        <v>4573</v>
       </c>
       <c r="P71" t="n">
-        <v>4.866666666666666</v>
+        <v>8139.666666666667</v>
       </c>
       <c r="Q71" t="n">
-        <v>4.9</v>
+        <v>12081.66666666667</v>
       </c>
       <c r="R71" t="n">
-        <v>3.25</v>
+        <v>1113.5</v>
       </c>
       <c r="S71" t="n">
-        <v>3</v>
+        <v>4093.666666666667</v>
       </c>
       <c r="T71" t="n">
-        <v>3.566666666666666</v>
+        <v>6917.666666666667</v>
       </c>
       <c r="U71" t="n">
-        <v>3.866666666666667</v>
+        <v>10436</v>
       </c>
       <c r="V71" t="n">
-        <v>4.4</v>
+        <v>2734</v>
       </c>
       <c r="W71" t="n">
-        <v>3.966666666666666</v>
+        <v>4296.666666666667</v>
       </c>
       <c r="X71" t="n">
-        <v>3.833333333333333</v>
+        <v>7306.333333333333</v>
       </c>
       <c r="Y71" t="n">
-        <v>4.3</v>
+        <v>10285.66666666667</v>
       </c>
     </row>
     <row r="72">
@@ -6097,76 +6097,76 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5.199999999999999</v>
+        <v>7924.5</v>
       </c>
       <c r="C72" t="n">
-        <v>4.733333333333333</v>
+        <v>3769.666666666667</v>
       </c>
       <c r="D72" t="n">
-        <v>4.7</v>
+        <v>6642</v>
       </c>
       <c r="E72" t="n">
-        <v>4.8</v>
+        <v>9620</v>
       </c>
       <c r="F72" t="n">
-        <v>4.1</v>
+        <v>1639</v>
       </c>
       <c r="G72" t="n">
-        <v>4.6</v>
+        <v>3678.333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>4.7</v>
+        <v>6605.333333333333</v>
       </c>
       <c r="I72" t="n">
-        <v>4.733333333333333</v>
+        <v>9536.333333333334</v>
       </c>
       <c r="J72" t="n">
-        <v>4.75</v>
+        <v>6735</v>
       </c>
       <c r="K72" t="n">
-        <v>4.833333333333333</v>
+        <v>3809.333333333333</v>
       </c>
       <c r="L72" t="n">
-        <v>4.833333333333333</v>
+        <v>6758.333333333333</v>
       </c>
       <c r="M72" t="n">
-        <v>4.9</v>
+        <v>9755.666666666666</v>
       </c>
       <c r="N72" t="n">
-        <v>4.85</v>
+        <v>6818.5</v>
       </c>
       <c r="O72" t="n">
-        <v>4.7</v>
+        <v>3755.666666666667</v>
       </c>
       <c r="P72" t="n">
-        <v>4.833333333333333</v>
+        <v>6739.333333333333</v>
       </c>
       <c r="Q72" t="n">
-        <v>4.9</v>
+        <v>10075.66666666667</v>
       </c>
       <c r="R72" t="n">
-        <v>3.1</v>
+        <v>870.5</v>
       </c>
       <c r="S72" t="n">
-        <v>2.933333333333334</v>
+        <v>3421</v>
       </c>
       <c r="T72" t="n">
-        <v>3.6</v>
+        <v>5900.666666666667</v>
       </c>
       <c r="U72" t="n">
-        <v>3.9</v>
+        <v>8814.333333333334</v>
       </c>
       <c r="V72" t="n">
-        <v>4.5</v>
+        <v>2352.5</v>
       </c>
       <c r="W72" t="n">
-        <v>4.166666666666667</v>
+        <v>3857.666666666667</v>
       </c>
       <c r="X72" t="n">
-        <v>4.066666666666666</v>
+        <v>6407.666666666667</v>
       </c>
       <c r="Y72" t="n">
-        <v>4.4</v>
+        <v>8704.666666666666</v>
       </c>
     </row>
     <row r="73">
@@ -6176,76 +6176,76 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4.8</v>
+        <v>8192.5</v>
       </c>
       <c r="C73" t="n">
-        <v>4.300000000000001</v>
+        <v>3885</v>
       </c>
       <c r="D73" t="n">
-        <v>4.366666666666666</v>
+        <v>6948.333333333333</v>
       </c>
       <c r="E73" t="n">
-        <v>4.466666666666667</v>
+        <v>10100.33333333333</v>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>1789</v>
       </c>
       <c r="G73" t="n">
-        <v>4.4</v>
+        <v>3963.666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>4.433333333333334</v>
+        <v>7027.666666666667</v>
       </c>
       <c r="I73" t="n">
-        <v>4.466666666666667</v>
+        <v>10070.66666666667</v>
       </c>
       <c r="J73" t="n">
-        <v>4.25</v>
+        <v>6940.5</v>
       </c>
       <c r="K73" t="n">
-        <v>4.333333333333333</v>
+        <v>3852</v>
       </c>
       <c r="L73" t="n">
-        <v>4.4</v>
+        <v>6881.333333333333</v>
       </c>
       <c r="M73" t="n">
-        <v>4.4</v>
+        <v>9944</v>
       </c>
       <c r="N73" t="n">
-        <v>4.25</v>
+        <v>6858</v>
       </c>
       <c r="O73" t="n">
-        <v>4.333333333333333</v>
+        <v>3868.333333333333</v>
       </c>
       <c r="P73" t="n">
-        <v>4.4</v>
+        <v>6907</v>
       </c>
       <c r="Q73" t="n">
-        <v>4.25</v>
+        <v>9663.333333333334</v>
       </c>
       <c r="R73" t="n">
-        <v>2.6</v>
+        <v>821.5</v>
       </c>
       <c r="S73" t="n">
-        <v>2.6</v>
+        <v>3432.333333333333</v>
       </c>
       <c r="T73" t="n">
-        <v>3.233333333333333</v>
+        <v>5830.333333333333</v>
       </c>
       <c r="U73" t="n">
-        <v>3.433333333333334</v>
+        <v>8677.333333333334</v>
       </c>
       <c r="V73" t="n">
-        <v>3.8</v>
+        <v>2112</v>
       </c>
       <c r="W73" t="n">
-        <v>3.333333333333333</v>
+        <v>3469.666666666667</v>
       </c>
       <c r="X73" t="n">
-        <v>3.4</v>
+        <v>6006.333333333333</v>
       </c>
       <c r="Y73" t="n">
-        <v>3.866666666666667</v>
+        <v>8561</v>
       </c>
     </row>
     <row r="74">
@@ -6255,76 +6255,76 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5.1</v>
+        <v>8915</v>
       </c>
       <c r="C74" t="n">
-        <v>4.633333333333334</v>
+        <v>4194</v>
       </c>
       <c r="D74" t="n">
-        <v>4.733333333333333</v>
+        <v>7542</v>
       </c>
       <c r="E74" t="n">
-        <v>4.8</v>
+        <v>10928.66666666667</v>
       </c>
       <c r="F74" t="n">
-        <v>4.3</v>
+        <v>1961</v>
       </c>
       <c r="G74" t="n">
-        <v>4.633333333333333</v>
+        <v>4278</v>
       </c>
       <c r="H74" t="n">
-        <v>4.7</v>
+        <v>7594.333333333333</v>
       </c>
       <c r="I74" t="n">
-        <v>4.7</v>
+        <v>10849.33333333333</v>
       </c>
       <c r="J74" t="n">
-        <v>4.550000000000001</v>
+        <v>7504</v>
       </c>
       <c r="K74" t="n">
-        <v>4.7</v>
+        <v>4277.666666666667</v>
       </c>
       <c r="L74" t="n">
-        <v>4.633333333333333</v>
+        <v>7526</v>
       </c>
       <c r="M74" t="n">
-        <v>4.7</v>
+        <v>10879.33333333333</v>
       </c>
       <c r="N74" t="n">
-        <v>4.6</v>
+        <v>7550.5</v>
       </c>
       <c r="O74" t="n">
-        <v>4.7</v>
+        <v>4319.333333333333</v>
       </c>
       <c r="P74" t="n">
-        <v>4.766666666666667</v>
+        <v>7699.666666666667</v>
       </c>
       <c r="Q74" t="n">
-        <v>4.699999999999999</v>
+        <v>10812</v>
       </c>
       <c r="R74" t="n">
-        <v>2.8</v>
+        <v>978.5</v>
       </c>
       <c r="S74" t="n">
-        <v>2.9</v>
+        <v>3907.333333333333</v>
       </c>
       <c r="T74" t="n">
-        <v>3.533333333333333</v>
+        <v>6697.333333333333</v>
       </c>
       <c r="U74" t="n">
-        <v>3.766666666666667</v>
+        <v>9941</v>
       </c>
       <c r="V74" t="n">
-        <v>4.15</v>
+        <v>2451</v>
       </c>
       <c r="W74" t="n">
-        <v>3.466666666666666</v>
+        <v>3627</v>
       </c>
       <c r="X74" t="n">
-        <v>3.5</v>
+        <v>6569</v>
       </c>
       <c r="Y74" t="n">
-        <v>4.233333333333333</v>
+        <v>9850.666666666666</v>
       </c>
     </row>
     <row r="75">
@@ -6334,76 +6334,76 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.6</v>
+        <v>5880.5</v>
       </c>
       <c r="C75" t="n">
-        <v>4.300000000000001</v>
+        <v>2811</v>
       </c>
       <c r="D75" t="n">
-        <v>4.333333333333333</v>
+        <v>4975</v>
       </c>
       <c r="E75" t="n">
-        <v>4.333333333333333</v>
+        <v>7150.333333333333</v>
       </c>
       <c r="F75" t="n">
-        <v>3.9</v>
+        <v>1263</v>
       </c>
       <c r="G75" t="n">
-        <v>4.2</v>
+        <v>2763.666666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>4.366666666666666</v>
+        <v>5043</v>
       </c>
       <c r="I75" t="n">
-        <v>4.4</v>
+        <v>7246.666666666667</v>
       </c>
       <c r="J75" t="n">
-        <v>4.15</v>
+        <v>4953</v>
       </c>
       <c r="K75" t="n">
-        <v>4.3</v>
+        <v>2790.333333333333</v>
       </c>
       <c r="L75" t="n">
-        <v>4.333333333333333</v>
+        <v>4980.333333333333</v>
       </c>
       <c r="M75" t="n">
-        <v>4.366666666666666</v>
+        <v>7169</v>
       </c>
       <c r="N75" t="n">
-        <v>4.25</v>
+        <v>4986.5</v>
       </c>
       <c r="O75" t="n">
-        <v>4.2</v>
+        <v>2706.333333333333</v>
       </c>
       <c r="P75" t="n">
-        <v>4.366666666666666</v>
+        <v>4956.666666666667</v>
       </c>
       <c r="Q75" t="n">
-        <v>4.25</v>
+        <v>6843.333333333333</v>
       </c>
       <c r="R75" t="n">
-        <v>2.55</v>
+        <v>631.5</v>
       </c>
       <c r="S75" t="n">
-        <v>2.666666666666667</v>
+        <v>2524.666666666667</v>
       </c>
       <c r="T75" t="n">
-        <v>3.266666666666667</v>
+        <v>4254</v>
       </c>
       <c r="U75" t="n">
-        <v>3.4</v>
+        <v>6300.666666666667</v>
       </c>
       <c r="V75" t="n">
-        <v>3.95</v>
+        <v>1660.5</v>
       </c>
       <c r="W75" t="n">
-        <v>3.266666666666666</v>
+        <v>2269.333333333333</v>
       </c>
       <c r="X75" t="n">
-        <v>3.166666666666667</v>
+        <v>4123</v>
       </c>
       <c r="Y75" t="n">
-        <v>3.8</v>
+        <v>6101.333333333333</v>
       </c>
     </row>
     <row r="76">
@@ -6413,76 +6413,76 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.6</v>
+        <v>3145</v>
       </c>
       <c r="C76" t="n">
-        <v>4.233333333333333</v>
+        <v>1504.333333333333</v>
       </c>
       <c r="D76" t="n">
-        <v>4.366666666666666</v>
+        <v>2743.666666666667</v>
       </c>
       <c r="E76" t="n">
-        <v>4.5</v>
+        <v>4020.666666666667</v>
       </c>
       <c r="F76" t="n">
-        <v>3.9</v>
+        <v>694</v>
       </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>1500.333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>4.3</v>
+        <v>2695.333333333333</v>
       </c>
       <c r="I76" t="n">
-        <v>4.366666666666666</v>
+        <v>3903.666666666667</v>
       </c>
       <c r="J76" t="n">
-        <v>4.2</v>
+        <v>2699</v>
       </c>
       <c r="K76" t="n">
-        <v>4.166666666666667</v>
+        <v>1481</v>
       </c>
       <c r="L76" t="n">
-        <v>4.2</v>
+        <v>2649.666666666667</v>
       </c>
       <c r="M76" t="n">
-        <v>4.2</v>
+        <v>3783</v>
       </c>
       <c r="N76" t="n">
-        <v>4.25</v>
+        <v>2668</v>
       </c>
       <c r="O76" t="n">
-        <v>4.3</v>
+        <v>1531.333333333333</v>
       </c>
       <c r="P76" t="n">
-        <v>4.3</v>
+        <v>2690.333333333333</v>
       </c>
       <c r="Q76" t="n">
-        <v>4.199999999999999</v>
+        <v>3678.333333333333</v>
       </c>
       <c r="R76" t="n">
-        <v>2.45</v>
+        <v>304</v>
       </c>
       <c r="S76" t="n">
-        <v>2.766666666666667</v>
+        <v>1509.666666666667</v>
       </c>
       <c r="T76" t="n">
-        <v>3.466666666666667</v>
+        <v>2508</v>
       </c>
       <c r="U76" t="n">
-        <v>3.633333333333333</v>
+        <v>3712</v>
       </c>
       <c r="V76" t="n">
-        <v>3.8</v>
+        <v>834.5</v>
       </c>
       <c r="W76" t="n">
-        <v>3.233333333333333</v>
+        <v>1328.333333333333</v>
       </c>
       <c r="X76" t="n">
-        <v>3.166666666666667</v>
+        <v>2277</v>
       </c>
       <c r="Y76" t="n">
-        <v>3.566666666666666</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="77">
@@ -6492,76 +6492,76 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4.4</v>
+        <v>2565</v>
       </c>
       <c r="C77" t="n">
-        <v>4.266666666666667</v>
+        <v>1346</v>
       </c>
       <c r="D77" t="n">
-        <v>4.3</v>
+        <v>2394.666666666667</v>
       </c>
       <c r="E77" t="n">
-        <v>4.266666666666667</v>
+        <v>3403.333333333333</v>
       </c>
       <c r="F77" t="n">
-        <v>4.2</v>
+        <v>658</v>
       </c>
       <c r="G77" t="n">
-        <v>4.433333333333334</v>
+        <v>1419</v>
       </c>
       <c r="H77" t="n">
-        <v>4.4</v>
+        <v>2461.333333333333</v>
       </c>
       <c r="I77" t="n">
-        <v>4.3</v>
+        <v>3467</v>
       </c>
       <c r="J77" t="n">
-        <v>4.1</v>
+        <v>2384.5</v>
       </c>
       <c r="K77" t="n">
-        <v>4.166666666666667</v>
+        <v>1326</v>
       </c>
       <c r="L77" t="n">
-        <v>4.166666666666667</v>
+        <v>2331.666666666667</v>
       </c>
       <c r="M77" t="n">
-        <v>4.1</v>
+        <v>3317</v>
       </c>
       <c r="N77" t="n">
-        <v>4.3</v>
+        <v>2345</v>
       </c>
       <c r="O77" t="n">
-        <v>4.333333333333333</v>
+        <v>1369.333333333333</v>
       </c>
       <c r="P77" t="n">
-        <v>4.266666666666667</v>
+        <v>2382.333333333333</v>
       </c>
       <c r="Q77" t="n">
-        <v>3.95</v>
+        <v>3323.333333333333</v>
       </c>
       <c r="R77" t="n">
-        <v>2.55</v>
+        <v>272.5</v>
       </c>
       <c r="S77" t="n">
-        <v>2.633333333333333</v>
+        <v>1245.666666666667</v>
       </c>
       <c r="T77" t="n">
-        <v>3.166666666666667</v>
+        <v>2057</v>
       </c>
       <c r="U77" t="n">
-        <v>3.3</v>
+        <v>3011.333333333333</v>
       </c>
       <c r="V77" t="n">
-        <v>3.8</v>
+        <v>761.5</v>
       </c>
       <c r="W77" t="n">
-        <v>3.1</v>
+        <v>1118</v>
       </c>
       <c r="X77" t="n">
-        <v>2.833333333333333</v>
+        <v>1827.333333333333</v>
       </c>
       <c r="Y77" t="n">
-        <v>3.233333333333333</v>
+        <v>2611.666666666667</v>
       </c>
     </row>
     <row r="78">
@@ -6571,76 +6571,76 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5.6</v>
+        <v>1154</v>
       </c>
       <c r="C78" t="n">
-        <v>5.233333333333333</v>
+        <v>552</v>
       </c>
       <c r="D78" t="n">
-        <v>5.533333333333334</v>
+        <v>1019.333333333333</v>
       </c>
       <c r="E78" t="n">
-        <v>5.633333333333333</v>
+        <v>1486</v>
       </c>
       <c r="F78" t="n">
-        <v>5.6</v>
+        <v>290</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>630</v>
       </c>
       <c r="H78" t="n">
-        <v>6.099999999999999</v>
+        <v>1119.333333333333</v>
       </c>
       <c r="I78" t="n">
-        <v>5.966666666666666</v>
+        <v>1574</v>
       </c>
       <c r="J78" t="n">
-        <v>5.65</v>
+        <v>1097</v>
       </c>
       <c r="K78" t="n">
-        <v>5.766666666666667</v>
+        <v>600</v>
       </c>
       <c r="L78" t="n">
-        <v>5.7</v>
+        <v>1041</v>
       </c>
       <c r="M78" t="n">
-        <v>5.633333333333333</v>
+        <v>1479</v>
       </c>
       <c r="N78" t="n">
-        <v>6.050000000000001</v>
+        <v>1066</v>
       </c>
       <c r="O78" t="n">
-        <v>5.966666666666666</v>
+        <v>617.3333333333334</v>
       </c>
       <c r="P78" t="n">
-        <v>5.8</v>
+        <v>1063</v>
       </c>
       <c r="Q78" t="n">
-        <v>5.7</v>
+        <v>1484</v>
       </c>
       <c r="R78" t="n">
-        <v>3.65</v>
+        <v>141</v>
       </c>
       <c r="S78" t="n">
-        <v>3.5</v>
+        <v>530.3333333333334</v>
       </c>
       <c r="T78" t="n">
-        <v>4.2</v>
+        <v>900.6666666666666</v>
       </c>
       <c r="U78" t="n">
-        <v>4.5</v>
+        <v>1317.666666666667</v>
       </c>
       <c r="V78" t="n">
-        <v>4.85</v>
+        <v>329</v>
       </c>
       <c r="W78" t="n">
-        <v>4.466666666666668</v>
+        <v>521.3333333333334</v>
       </c>
       <c r="X78" t="n">
-        <v>4.100000000000001</v>
+        <v>847.3333333333334</v>
       </c>
       <c r="Y78" t="n">
-        <v>4.6</v>
+        <v>1197.333333333333</v>
       </c>
     </row>
     <row r="79">
@@ -6650,76 +6650,76 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5.4</v>
+        <v>6351.5</v>
       </c>
       <c r="C79" t="n">
-        <v>4.866666666666667</v>
+        <v>3091</v>
       </c>
       <c r="D79" t="n">
-        <v>4.866666666666666</v>
+        <v>5436.333333333333</v>
       </c>
       <c r="E79" t="n">
-        <v>4.9</v>
+        <v>7916</v>
       </c>
       <c r="F79" t="n">
-        <v>4.2</v>
+        <v>1332</v>
       </c>
       <c r="G79" t="n">
-        <v>4.733333333333333</v>
+        <v>3024.333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>4.766666666666667</v>
+        <v>5341</v>
       </c>
       <c r="I79" t="n">
-        <v>4.8</v>
+        <v>7676</v>
       </c>
       <c r="J79" t="n">
-        <v>4.699999999999999</v>
+        <v>5339.5</v>
       </c>
       <c r="K79" t="n">
-        <v>4.833333333333333</v>
+        <v>3065.333333333333</v>
       </c>
       <c r="L79" t="n">
-        <v>4.800000000000001</v>
+        <v>5343.333333333333</v>
       </c>
       <c r="M79" t="n">
-        <v>4.766666666666667</v>
+        <v>7648</v>
       </c>
       <c r="N79" t="n">
-        <v>4.8</v>
+        <v>5395</v>
       </c>
       <c r="O79" t="n">
-        <v>4.866666666666666</v>
+        <v>3085.666666666667</v>
       </c>
       <c r="P79" t="n">
-        <v>4.933333333333334</v>
+        <v>5493</v>
       </c>
       <c r="Q79" t="n">
-        <v>5</v>
+        <v>8253.333333333334</v>
       </c>
       <c r="R79" t="n">
-        <v>3.25</v>
+        <v>712.5</v>
       </c>
       <c r="S79" t="n">
-        <v>3.033333333333333</v>
+        <v>2773.333333333333</v>
       </c>
       <c r="T79" t="n">
-        <v>3.666666666666667</v>
+        <v>4646</v>
       </c>
       <c r="U79" t="n">
-        <v>3.866666666666667</v>
+        <v>6916.333333333333</v>
       </c>
       <c r="V79" t="n">
-        <v>4.45</v>
+        <v>1895.5</v>
       </c>
       <c r="W79" t="n">
-        <v>4.066666666666667</v>
+        <v>2854.666666666667</v>
       </c>
       <c r="X79" t="n">
-        <v>3.8</v>
+        <v>4775</v>
       </c>
       <c r="Y79" t="n">
-        <v>4.366666666666666</v>
+        <v>6830.666666666667</v>
       </c>
     </row>
     <row r="80">
@@ -6729,76 +6729,76 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5.5</v>
+        <v>4653</v>
       </c>
       <c r="C80" t="n">
-        <v>5.066666666666666</v>
+        <v>2236.333333333333</v>
       </c>
       <c r="D80" t="n">
-        <v>5.166666666666667</v>
+        <v>3988</v>
       </c>
       <c r="E80" t="n">
-        <v>5.233333333333333</v>
+        <v>5819.333333333333</v>
       </c>
       <c r="F80" t="n">
-        <v>4.7</v>
+        <v>1029</v>
       </c>
       <c r="G80" t="n">
-        <v>5.133333333333334</v>
+        <v>2264.666666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>5.2</v>
+        <v>4039</v>
       </c>
       <c r="I80" t="n">
-        <v>5.2</v>
+        <v>5771</v>
       </c>
       <c r="J80" t="n">
-        <v>5</v>
+        <v>3978.5</v>
       </c>
       <c r="K80" t="n">
-        <v>5.1</v>
+        <v>2235.666666666667</v>
       </c>
       <c r="L80" t="n">
-        <v>5.133333333333333</v>
+        <v>3982.333333333333</v>
       </c>
       <c r="M80" t="n">
-        <v>5.2</v>
+        <v>5750.333333333333</v>
       </c>
       <c r="N80" t="n">
-        <v>5.1</v>
+        <v>3989.5</v>
       </c>
       <c r="O80" t="n">
-        <v>5.033333333333333</v>
+        <v>2208.666666666667</v>
       </c>
       <c r="P80" t="n">
-        <v>5.133333333333333</v>
+        <v>3949.666666666667</v>
       </c>
       <c r="Q80" t="n">
-        <v>4.949999999999999</v>
+        <v>5683</v>
       </c>
       <c r="R80" t="n">
-        <v>3.35</v>
+        <v>540</v>
       </c>
       <c r="S80" t="n">
-        <v>3.166666666666667</v>
+        <v>1998.333333333333</v>
       </c>
       <c r="T80" t="n">
-        <v>3.766666666666667</v>
+        <v>3349.666666666667</v>
       </c>
       <c r="U80" t="n">
-        <v>3.966666666666666</v>
+        <v>5003</v>
       </c>
       <c r="V80" t="n">
-        <v>4.75</v>
+        <v>1415.5</v>
       </c>
       <c r="W80" t="n">
-        <v>4.466666666666667</v>
+        <v>2211.666666666667</v>
       </c>
       <c r="X80" t="n">
-        <v>4.133333333333333</v>
+        <v>3529</v>
       </c>
       <c r="Y80" t="n">
-        <v>4.566666666666666</v>
+        <v>5010.666666666667</v>
       </c>
     </row>
     <row r="81">
@@ -6808,76 +6808,76 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5.449999999999999</v>
+        <v>2766</v>
       </c>
       <c r="C81" t="n">
-        <v>5.033333333333333</v>
+        <v>1345.666666666667</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>2363.666666666667</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>3390</v>
       </c>
       <c r="F81" t="n">
-        <v>4.8</v>
+        <v>634</v>
       </c>
       <c r="G81" t="n">
-        <v>4.966666666666667</v>
+        <v>1337</v>
       </c>
       <c r="H81" t="n">
-        <v>5.033333333333333</v>
+        <v>2371</v>
       </c>
       <c r="I81" t="n">
-        <v>5.033333333333333</v>
+        <v>3384</v>
       </c>
       <c r="J81" t="n">
-        <v>4.75</v>
+        <v>2331</v>
       </c>
       <c r="K81" t="n">
-        <v>4.733333333333333</v>
+        <v>1254</v>
       </c>
       <c r="L81" t="n">
-        <v>4.833333333333333</v>
+        <v>2248</v>
       </c>
       <c r="M81" t="n">
-        <v>4.966666666666667</v>
+        <v>3298.333333333333</v>
       </c>
       <c r="N81" t="n">
-        <v>5</v>
+        <v>2310.5</v>
       </c>
       <c r="O81" t="n">
-        <v>5.166666666666667</v>
+        <v>1359.666666666667</v>
       </c>
       <c r="P81" t="n">
-        <v>5.133333333333333</v>
+        <v>2383.333333333333</v>
       </c>
       <c r="Q81" t="n">
-        <v>5.1</v>
+        <v>3519</v>
       </c>
       <c r="R81" t="n">
-        <v>4.1</v>
+        <v>507</v>
       </c>
       <c r="S81" t="n">
-        <v>3.766666666666667</v>
+        <v>1316.333333333333</v>
       </c>
       <c r="T81" t="n">
-        <v>4</v>
+        <v>2124.666666666667</v>
       </c>
       <c r="U81" t="n">
-        <v>4.2</v>
+        <v>3123.333333333333</v>
       </c>
       <c r="V81" t="n">
-        <v>4.75</v>
+        <v>810.5</v>
       </c>
       <c r="W81" t="n">
-        <v>4.333333333333334</v>
+        <v>1329.666666666667</v>
       </c>
       <c r="X81" t="n">
-        <v>4.333333333333333</v>
+        <v>2256</v>
       </c>
       <c r="Y81" t="n">
-        <v>4.666666666666667</v>
+        <v>3061.666666666667</v>
       </c>
     </row>
     <row r="82">
@@ -6887,76 +6887,76 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6.2</v>
+        <v>583</v>
       </c>
       <c r="C82" t="n">
-        <v>5.933333333333334</v>
+        <v>288.3333333333333</v>
       </c>
       <c r="D82" t="n">
-        <v>6.033333333333334</v>
+        <v>516.6666666666666</v>
       </c>
       <c r="E82" t="n">
-        <v>5.966666666666666</v>
+        <v>739.3333333333334</v>
       </c>
       <c r="F82" t="n">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="G82" t="n">
-        <v>6.166666666666667</v>
+        <v>301.6666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>6.366666666666667</v>
+        <v>543.3333333333334</v>
       </c>
       <c r="I82" t="n">
-        <v>6.266666666666667</v>
+        <v>764.6666666666666</v>
       </c>
       <c r="J82" t="n">
-        <v>6.449999999999999</v>
+        <v>542</v>
       </c>
       <c r="K82" t="n">
-        <v>6.633333333333333</v>
+        <v>317</v>
       </c>
       <c r="L82" t="n">
-        <v>6.166666666666667</v>
+        <v>521</v>
       </c>
       <c r="M82" t="n">
-        <v>6</v>
+        <v>724</v>
       </c>
       <c r="N82" t="n">
-        <v>5.75</v>
+        <v>500</v>
       </c>
       <c r="O82" t="n">
-        <v>5.8</v>
+        <v>274.6666666666667</v>
       </c>
       <c r="P82" t="n">
-        <v>5.399999999999999</v>
+        <v>449.6666666666667</v>
       </c>
       <c r="Q82" t="n">
-        <v>5.050000000000001</v>
+        <v>619</v>
       </c>
       <c r="R82" t="n">
-        <v>3.35</v>
+        <v>64</v>
       </c>
       <c r="S82" t="n">
-        <v>3.366666666666667</v>
+        <v>222</v>
       </c>
       <c r="T82" t="n">
-        <v>3.799999999999999</v>
+        <v>356</v>
       </c>
       <c r="U82" t="n">
-        <v>3.966666666666666</v>
+        <v>531.6666666666666</v>
       </c>
       <c r="V82" t="n">
-        <v>4.6</v>
+        <v>148</v>
       </c>
       <c r="W82" t="n">
-        <v>4.666666666666667</v>
+        <v>247.3333333333333</v>
       </c>
       <c r="X82" t="n">
-        <v>4.033333333333333</v>
+        <v>357.6666666666667</v>
       </c>
       <c r="Y82" t="n">
-        <v>4.633333333333334</v>
+        <v>541.3333333333334</v>
       </c>
     </row>
     <row r="83">
@@ -6966,76 +6966,76 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5.949999999999999</v>
+        <v>1819</v>
       </c>
       <c r="C83" t="n">
-        <v>5.733333333333333</v>
+        <v>920.3333333333334</v>
       </c>
       <c r="D83" t="n">
-        <v>5.833333333333333</v>
+        <v>1656</v>
       </c>
       <c r="E83" t="n">
-        <v>5.866666666666667</v>
+        <v>2396</v>
       </c>
       <c r="F83" t="n">
-        <v>5.3</v>
+        <v>427</v>
       </c>
       <c r="G83" t="n">
-        <v>5.566666666666666</v>
+        <v>903</v>
       </c>
       <c r="H83" t="n">
-        <v>5.5</v>
+        <v>1560.333333333333</v>
       </c>
       <c r="I83" t="n">
-        <v>5.566666666666666</v>
+        <v>2261.666666666667</v>
       </c>
       <c r="J83" t="n">
-        <v>5.75</v>
+        <v>1626.5</v>
       </c>
       <c r="K83" t="n">
-        <v>5.966666666666666</v>
+        <v>961</v>
       </c>
       <c r="L83" t="n">
-        <v>5.766666666666667</v>
+        <v>1630</v>
       </c>
       <c r="M83" t="n">
-        <v>5.633333333333333</v>
+        <v>2284.333333333333</v>
       </c>
       <c r="N83" t="n">
-        <v>5.5</v>
+        <v>1580</v>
       </c>
       <c r="O83" t="n">
-        <v>5.5</v>
+        <v>890</v>
       </c>
       <c r="P83" t="n">
-        <v>5.600000000000001</v>
+        <v>1597.666666666667</v>
       </c>
       <c r="Q83" t="n">
-        <v>5.6</v>
+        <v>2356</v>
       </c>
       <c r="R83" t="n">
-        <v>4.699999999999999</v>
+        <v>397.5</v>
       </c>
       <c r="S83" t="n">
-        <v>4.733333333333333</v>
+        <v>1016.666666666667</v>
       </c>
       <c r="T83" t="n">
-        <v>5</v>
+        <v>1644.666666666667</v>
       </c>
       <c r="U83" t="n">
-        <v>5.2</v>
+        <v>2382.333333333333</v>
       </c>
       <c r="V83" t="n">
-        <v>5.25</v>
+        <v>510</v>
       </c>
       <c r="W83" t="n">
-        <v>4.366666666666667</v>
+        <v>805.3333333333334</v>
       </c>
       <c r="X83" t="n">
-        <v>4.133333333333333</v>
+        <v>1318</v>
       </c>
       <c r="Y83" t="n">
-        <v>4.833333333333333</v>
+        <v>1951.333333333333</v>
       </c>
     </row>
     <row r="84">
@@ -7045,55 +7045,55 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5.1</v>
+        <v>555</v>
       </c>
       <c r="C84" t="n">
-        <v>4.8</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="D84" t="n">
-        <v>4.8</v>
+        <v>469.6666666666667</v>
       </c>
       <c r="E84" t="n">
-        <v>4.8</v>
+        <v>674.3333333333334</v>
       </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="G84" t="n">
-        <v>4.866666666666667</v>
+        <v>268</v>
       </c>
       <c r="H84" t="n">
-        <v>4.766666666666667</v>
+        <v>460</v>
       </c>
       <c r="I84" t="n">
-        <v>4.7</v>
+        <v>649.6666666666666</v>
       </c>
       <c r="J84" t="n">
-        <v>4.35</v>
+        <v>440</v>
       </c>
       <c r="K84" t="n">
-        <v>4.399999999999999</v>
+        <v>240</v>
       </c>
       <c r="L84" t="n">
-        <v>4.7</v>
+        <v>447.3333333333333</v>
       </c>
       <c r="M84" t="n">
-        <v>4.766666666666667</v>
+        <v>649.6666666666666</v>
       </c>
       <c r="N84" t="n">
-        <v>4.8</v>
+        <v>460.5</v>
       </c>
       <c r="O84" t="n">
-        <v>4.666666666666667</v>
+        <v>248.3333333333333</v>
       </c>
       <c r="P84" t="n">
-        <v>4.933333333333334</v>
+        <v>463.6666666666667</v>
       </c>
       <c r="Q84" t="n">
-        <v>4.75</v>
+        <v>671.3333333333334</v>
       </c>
       <c r="R84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
         <v>0</v>
@@ -7124,55 +7124,55 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>175.5</v>
       </c>
       <c r="C85" t="n">
-        <v>5.933333333333334</v>
+        <v>99.66666666666667</v>
       </c>
       <c r="D85" t="n">
-        <v>5.8</v>
+        <v>169.6666666666667</v>
       </c>
       <c r="E85" t="n">
-        <v>5.600000000000001</v>
+        <v>234.6666666666667</v>
       </c>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G85" t="n">
-        <v>5.766666666666666</v>
+        <v>95</v>
       </c>
       <c r="H85" t="n">
-        <v>5.600000000000001</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="I85" t="n">
-        <v>5.133333333333334</v>
+        <v>214.3333333333333</v>
       </c>
       <c r="J85" t="n">
-        <v>5.85</v>
+        <v>156.5</v>
       </c>
       <c r="K85" t="n">
-        <v>6.866666666666667</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="L85" t="n">
-        <v>6.066666666666667</v>
+        <v>176.3333333333333</v>
       </c>
       <c r="M85" t="n">
-        <v>5.7</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="N85" t="n">
-        <v>5.25</v>
+        <v>159</v>
       </c>
       <c r="O85" t="n">
-        <v>5.3</v>
+        <v>87</v>
       </c>
       <c r="P85" t="n">
-        <v>4.899999999999999</v>
+        <v>140</v>
       </c>
       <c r="Q85" t="n">
-        <v>4.7</v>
+        <v>201.6666666666667</v>
       </c>
       <c r="R85" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -7203,76 +7203,76 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.7</v>
+        <v>2938.5</v>
       </c>
       <c r="C86" t="n">
-        <v>2.799999999999999</v>
+        <v>1756.333333333333</v>
       </c>
       <c r="D86" t="n">
-        <v>2.9</v>
+        <v>3173.666666666667</v>
       </c>
       <c r="E86" t="n">
-        <v>2.933333333333334</v>
+        <v>4630</v>
       </c>
       <c r="F86" t="n">
-        <v>2.8</v>
+        <v>885</v>
       </c>
       <c r="G86" t="n">
-        <v>3.066666666666666</v>
+        <v>1932</v>
       </c>
       <c r="H86" t="n">
-        <v>3.066666666666666</v>
+        <v>3418.666666666667</v>
       </c>
       <c r="I86" t="n">
-        <v>3.166666666666667</v>
+        <v>5065</v>
       </c>
       <c r="J86" t="n">
-        <v>3.1</v>
+        <v>3578</v>
       </c>
       <c r="K86" t="n">
-        <v>3.166666666666667</v>
+        <v>1999.333333333333</v>
       </c>
       <c r="L86" t="n">
-        <v>3.366666666666667</v>
+        <v>3744.333333333333</v>
       </c>
       <c r="M86" t="n">
-        <v>3.5</v>
+        <v>5584.666666666667</v>
       </c>
       <c r="N86" t="n">
-        <v>3.55</v>
+        <v>3929.5</v>
       </c>
       <c r="O86" t="n">
-        <v>3.466666666666667</v>
+        <v>2175</v>
       </c>
       <c r="P86" t="n">
-        <v>3.533333333333333</v>
+        <v>3920.333333333333</v>
       </c>
       <c r="Q86" t="n">
-        <v>3.5</v>
+        <v>5443.333333333333</v>
       </c>
       <c r="R86" t="n">
-        <v>2.1</v>
+        <v>547.5</v>
       </c>
       <c r="S86" t="n">
-        <v>2.333333333333333</v>
+        <v>2126.333333333333</v>
       </c>
       <c r="T86" t="n">
-        <v>2.8</v>
+        <v>3633.333333333333</v>
       </c>
       <c r="U86" t="n">
-        <v>3.033333333333333</v>
+        <v>5489</v>
       </c>
       <c r="V86" t="n">
-        <v>3.45</v>
+        <v>1403.5</v>
       </c>
       <c r="W86" t="n">
-        <v>3</v>
+        <v>2274.666666666667</v>
       </c>
       <c r="X86" t="n">
-        <v>3.233333333333333</v>
+        <v>4127.333333333333</v>
       </c>
       <c r="Y86" t="n">
-        <v>3.666666666666667</v>
+        <v>5850.333333333333</v>
       </c>
     </row>
     <row r="87">
@@ -7282,55 +7282,55 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.85</v>
+        <v>629.5</v>
       </c>
       <c r="C87" t="n">
-        <v>3.366666666666667</v>
+        <v>446.6666666666667</v>
       </c>
       <c r="D87" t="n">
-        <v>3.766666666666667</v>
+        <v>872.3333333333334</v>
       </c>
       <c r="E87" t="n">
-        <v>4.033333333333333</v>
+        <v>1335.666666666667</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="G87" t="n">
-        <v>3.966666666666666</v>
+        <v>553</v>
       </c>
       <c r="H87" t="n">
-        <v>4.266666666666667</v>
+        <v>1041.666666666667</v>
       </c>
       <c r="I87" t="n">
-        <v>4.433333333333334</v>
+        <v>1547</v>
       </c>
       <c r="J87" t="n">
-        <v>4.35</v>
+        <v>1092</v>
       </c>
       <c r="K87" t="n">
-        <v>4.5</v>
+        <v>636</v>
       </c>
       <c r="L87" t="n">
-        <v>4.566666666666666</v>
+        <v>1129.333333333333</v>
       </c>
       <c r="M87" t="n">
-        <v>4.633333333333334</v>
+        <v>1655.333333333333</v>
       </c>
       <c r="N87" t="n">
-        <v>4.4</v>
+        <v>1127</v>
       </c>
       <c r="O87" t="n">
-        <v>4.233333333333333</v>
+        <v>611.3333333333334</v>
       </c>
       <c r="P87" t="n">
-        <v>4.399999999999999</v>
+        <v>1115</v>
       </c>
       <c r="Q87" t="n">
-        <v>4.55</v>
+        <v>1638.333333333333</v>
       </c>
       <c r="R87" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>

--- a/Tables/разводы по кварталам.xlsx
+++ b/Tables/разводы по кварталам.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X87"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,349 +436,399 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>1 квартал 2015</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2 квартал 2015</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3 квартал 2015</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4 квартал 2015</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1 квартал 2016</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2 квартал 2016</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>3 квартал 2016</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>4 квартал 2016</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>1 квартал 2017</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2 квартал 2017</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>3 квартал 2017</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>4 квартал 2017</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>1 квартал 2018</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>2 квартал 2018</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>3 квартал 2018</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>4 квартал 2018</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>1 квартал 2019</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2 квартал 2019</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>3 квартал 2019</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>4 квартал 2019</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>1 квартал 2020</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>2 квартал 2020</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>3 квартал 2020</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>4 квартал 2020</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Российская Федерация</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>4.3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>4.1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>3.7</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>4.066666666666666</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.1</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
       </c>
       <c r="I2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J2" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Белгородская область</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>4.45</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>4.1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>4.3</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>3.8</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>4.35</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>4.3</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>4.4</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>4.300000000000001</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>4.4</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>4.199999999999999</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>4.3</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>4.300000000000001</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>3.8</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>3.9</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>4.133333333333334</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Брянская область</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>5.2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>4.7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>4.2</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4.550000000000001</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>4.5</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>4.45</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>4.4</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>3.05</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>4.050000000000001</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>4.266666666666667</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Владимирская область</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>4.4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4.033333333333333</v>
       </c>
       <c r="C5" t="n">
         <v>4.033333333333333</v>
       </c>
       <c r="D5" t="n">
+        <v>4.033333333333333</v>
+      </c>
+      <c r="E5" t="n">
         <v>4.1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.9</v>
       </c>
       <c r="G5" t="n">
         <v>3.9</v>
       </c>
       <c r="H5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3.95</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.166666666666667</v>
       </c>
       <c r="K5" t="n">
         <v>4.166666666666667</v>
@@ -787,726 +837,776 @@
         <v>4.166666666666667</v>
       </c>
       <c r="M5" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="N5" t="n">
         <v>4.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.966666666666667</v>
       </c>
       <c r="O5" t="n">
         <v>3.966666666666667</v>
       </c>
       <c r="P5" t="n">
+        <v>3.966666666666667</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3.85</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>2.4</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>3.7</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>3</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>2.933333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>3.333333333333333</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Воронежская область</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>4.3</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>3.9</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>4.1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>3.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>3.9</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>3.95</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>3.9</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>4</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>4.15</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>2.85</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>4</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>3.6</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>4.033333333333333</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ивановская область</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>4.25</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>4.1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>3.7</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>3.766666666666667</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.933333333333334</v>
       </c>
       <c r="L7" t="n">
         <v>3.933333333333334</v>
       </c>
       <c r="M7" t="n">
+        <v>3.933333333333334</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.8</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>3.9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
       </c>
       <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
         <v>2.6</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>2.133333333333333</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>3.1</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>3.85</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>3.5</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>3.866666666666667</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Калужская область</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>4.699999999999999</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>4.4</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>4.5</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>4.35</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>4.6</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>4.5</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>4.35</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>4.333333333333333</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4.5</v>
       </c>
       <c r="P8" t="n">
         <v>4.5</v>
       </c>
       <c r="Q8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.9</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>3.066666666666666</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>4</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>4.5</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>3.5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Костромская область</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>4.65</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>4.2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>4.3</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>4.2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>4.2</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>4.1</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>4.1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>2.5</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>2.7</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>3.9</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Курская область</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>4.5</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>4.3</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>4.4</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.9</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>4.3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.333333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="I10" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="J10" t="n">
         <v>4.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>4.3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>4.300000000000001</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>4.2</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>4.3</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>4.4</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>2.7</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>2.466666666666667</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>3</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>3.85</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>3.5</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>3.6</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>4.066666666666666</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Липецкая область</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>4.45</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>4.1</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>4.2</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.6</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>4.2</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>4.2</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>4.3</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>3.95</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>4.2</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>2.45</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>2.533333333333333</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>3.1</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>3.3</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>3.95</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Московская область</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>4.65</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.5</v>
       </c>
       <c r="C12" t="n">
         <v>4.5</v>
       </c>
       <c r="D12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E12" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4.1</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>4.6</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>4.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>4.466666666666667</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>4.6</v>
       </c>
       <c r="M12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N12" t="n">
         <v>4.550000000000001</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>4.5</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>4.35</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>3.15</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>3.299999999999999</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>4.55</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>3.966666666666667</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Орловская область</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>4.7</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3.6</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>4.3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.433333333333334</v>
       </c>
       <c r="L13" t="n">
         <v>4.433333333333334</v>
       </c>
       <c r="M13" t="n">
+        <v>4.433333333333334</v>
+      </c>
+      <c r="N13" t="n">
         <v>4.2</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>4.2</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>2.8</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>2.6</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>3.5</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>3.7</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>3</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>3.633333333333333</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Рязанская область</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>4.35</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>4.1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>4.3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>3.7</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>4.1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>4.4</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>4.3</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>4.15</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>2.9</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>4.1</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>3.1</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>3.833333333333333</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Смоленская область</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>4.9</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>4.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.5</v>
       </c>
       <c r="G15" t="n">
         <v>4.5</v>
@@ -1515,158 +1615,168 @@
         <v>4.5</v>
       </c>
       <c r="I15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J15" t="n">
         <v>4.3</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>4.5</v>
       </c>
       <c r="M15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N15" t="n">
         <v>4.3</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>4.2</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>4.4</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>2.7</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>2.933333333333334</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>3.5</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>4.1</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Тамбовская область</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>4.15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3.866666666666667</v>
       </c>
       <c r="C16" t="n">
         <v>3.866666666666667</v>
       </c>
       <c r="D16" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="E16" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>3.4</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>3.9</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>3.7</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>3.85</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>3.9</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>3.9</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>2.3</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>2.366666666666667</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>3.066666666666666</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>3.55</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>3.1</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>2.966666666666667</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>3.466666666666667</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Тверская область</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>4.55</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.233333333333333</v>
       </c>
       <c r="C17" t="n">
         <v>4.233333333333333</v>
       </c>
       <c r="D17" t="n">
+        <v>4.233333333333333</v>
+      </c>
+      <c r="E17" t="n">
         <v>4.3</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>3.8</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>4.2</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>4.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.4</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
@@ -1675,63 +1785,68 @@
         <v>4.4</v>
       </c>
       <c r="M17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N17" t="n">
         <v>4.300000000000001</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>4.2</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>4.25</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>2.8</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>3.5</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>3.9</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>3.299999999999999</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Тульская область</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>4.55</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>4.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>4</v>
       </c>
       <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
         <v>3.7</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4.1</v>
       </c>
       <c r="H18" t="n">
         <v>4.1</v>
@@ -1740,351 +1855,390 @@
         <v>4.1</v>
       </c>
       <c r="J18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>3.95</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>4.1</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>2.7</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>2.633333333333333</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>3.3</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>3.75</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>3.566666666666666</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ярославская область</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>4.45</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>4.2</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>3.9</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>4.233333333333333</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4.1</v>
       </c>
       <c r="H19" t="n">
         <v>4.1</v>
       </c>
       <c r="I19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.9</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>4.1</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>4.05</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>4.2</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>4.2</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>2.6</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>2.7</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>3.75</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>3.3</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>г.Москва</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>3.4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3.433333333333334</v>
       </c>
       <c r="C20" t="n">
         <v>3.433333333333334</v>
       </c>
       <c r="D20" t="n">
+        <v>3.433333333333334</v>
+      </c>
+      <c r="E20" t="n">
         <v>3.5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>3.35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.566666666666666</v>
       </c>
       <c r="K20" t="n">
         <v>3.566666666666666</v>
       </c>
       <c r="L20" t="n">
+        <v>3.566666666666666</v>
+      </c>
+      <c r="M20" t="n">
         <v>3.6</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>3.45</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>3.6</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>3.65</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>3.3</v>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Республика Карелия</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>4.4</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>4</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>4.2</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>4.4</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>4.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.3</v>
       </c>
       <c r="K21" t="n">
         <v>4.3</v>
       </c>
       <c r="L21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M21" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>4.25</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>4.2</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>4.25</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>4.45</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4.5</v>
       </c>
       <c r="S21" t="n">
         <v>4.5</v>
       </c>
       <c r="T21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>4.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3.5</v>
       </c>
       <c r="W21" t="n">
         <v>3.5</v>
       </c>
       <c r="X21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>3.866666666666667</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Республика Коми</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>4.85</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>4.7</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>5</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>4.866666666666667</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>4.8</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>5.15</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>5.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>5.133333333333333</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>4.7</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>4.6</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>3.2</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>3.4</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>4</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3.566666666666666</v>
       </c>
       <c r="W22" t="n">
         <v>3.566666666666666</v>
       </c>
       <c r="X22" t="n">
+        <v>3.566666666666666</v>
+      </c>
+      <c r="Y22" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Архангельская область</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>4.5</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>4.2</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>4.3</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>4.1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4.2</v>
       </c>
       <c r="G23" t="n">
         <v>4.2</v>
@@ -2093,72 +2247,77 @@
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
         <v>4.3</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>4.3</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>4.199999999999999</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>4.366666666666667</v>
-      </c>
-      <c r="O23" t="n">
-        <v>4.4</v>
       </c>
       <c r="P23" t="n">
         <v>4.4</v>
       </c>
       <c r="Q23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R23" t="n">
         <v>2.95</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>2.7</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>3.3</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>3.95</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>3.6</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>3.933333333333334</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Архангельская область без авт.округа</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>4.5</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>4.2</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>4.3</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>4.1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4.2</v>
       </c>
       <c r="G24" t="n">
         <v>4.2</v>
@@ -2167,22 +2326,22 @@
         <v>4.2</v>
       </c>
       <c r="I24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J24" t="n">
         <v>4.3</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>4.3</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>4.25</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.4</v>
       </c>
       <c r="O24" t="n">
         <v>4.4</v>
@@ -2191,25 +2350,44 @@
         <v>4.4</v>
       </c>
       <c r="Q24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R24" t="n">
         <v>4.5</v>
       </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Вологодская область</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>3.95</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>3.5</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.6</v>
       </c>
       <c r="D25" t="n">
         <v>3.6</v>
@@ -2218,7 +2396,7 @@
         <v>3.6</v>
       </c>
       <c r="F25" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="G25" t="n">
         <v>3.9</v>
@@ -2227,946 +2405,1025 @@
         <v>3.9</v>
       </c>
       <c r="I25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.65</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>3.85</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>4</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>2.4</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>2.566666666666667</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>3</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>3.85</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Калининградская область</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>5.35</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>5.2</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>5.400000000000001</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>5.3</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>5.3</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>5.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.033333333333333</v>
       </c>
       <c r="K26" t="n">
         <v>5.033333333333333</v>
       </c>
       <c r="L26" t="n">
+        <v>5.033333333333333</v>
+      </c>
+      <c r="M26" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>5.3</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>5.2</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>5.25</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>3.85</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>4.333333333333334</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>4.8</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>4.3</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>4.433333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>4.9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ленинградская область</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>4.15</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>3.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
         <v>4.1</v>
       </c>
       <c r="J27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>4.1</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>4.1</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>4.2</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>4.1</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>2.45</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>2.6</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>3.066666666666666</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>3.3</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>3.75</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>3</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>3.333333333333333</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Мурманская область</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>5.65</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>5.2</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>5.166666666666667</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>4.7</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>5.400000000000001</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>5.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>5.3</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>5.15</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>5.199999999999999</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>5</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>3.35</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>3.8</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>4.3</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>5</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>4.366666666666666</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Новгородская область</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>4.7</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4.466666666666667</v>
       </c>
       <c r="C29" t="n">
         <v>4.466666666666667</v>
       </c>
       <c r="D29" t="n">
+        <v>4.466666666666667</v>
+      </c>
+      <c r="E29" t="n">
         <v>4.5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>3.9</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>4.5</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>4.35</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>4.55</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>4.5</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>2.85</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>2.966666666666667</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>4.4</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>3.9</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>4.399999999999999</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Псковская область</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>4.3</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>4</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>4.3</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>4.15</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>4.4</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>4.2</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>4.35</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>2.55</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>2.4</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>3</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>3.233333333333334</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>3.85</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>3.6</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>4.066666666666666</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>г.Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>4.85</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>4.3</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>4.733333333333333</v>
-      </c>
-      <c r="G31" t="n">
-        <v>4.7</v>
       </c>
       <c r="H31" t="n">
         <v>4.7</v>
       </c>
       <c r="I31" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J31" t="n">
         <v>4.6</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.633333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>4.633333333333333</v>
       </c>
       <c r="M31" t="n">
+        <v>4.633333333333333</v>
+      </c>
+      <c r="N31" t="n">
         <v>4.7</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>4.9</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>4.85</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>4.5</v>
       </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Республика Адыгея</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>3.55</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>3.4</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>3.5</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>3.1</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>3.5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>3.6</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>3.7</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>3.6</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>2.2</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>2.166666666666667</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>2.700000000000001</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>2.966666666666667</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>3.2</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>2.7</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>2.9</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>3.466666666666667</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Республика Калмыкия</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>3.85</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>3.3</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>3.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>3.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>3.25</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>3.3</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>2.1</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>1.933333333333333</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>2.6</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>2.8</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>3.2</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>2.700000000000001</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>3.233333333333333</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Краснодарский край</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>4.6</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>4.2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4.5</v>
       </c>
       <c r="G34" t="n">
         <v>4.5</v>
       </c>
       <c r="H34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I34" t="n">
         <v>4.6</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>4.449999999999999</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>4.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>4.466666666666667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.5</v>
       </c>
       <c r="M34" t="n">
         <v>4.5</v>
       </c>
       <c r="N34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O34" t="n">
         <v>4.4</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>4.449999999999999</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>3.05</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>2.433333333333333</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>3.5</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>4.3</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>3.6</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>3.566666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
         <v>4.333333333333334</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Астраханская область</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
         <v>4.65</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>4.2</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>3.7</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>3.95</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>3.933333333333334</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.1</v>
       </c>
       <c r="L35" t="n">
         <v>4.1</v>
       </c>
       <c r="M35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N35" t="n">
         <v>3.95</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>3.9</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>4</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>2.45</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>2.233333333333333</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>3.8</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>3.3</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>3.866666666666667</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Волгоградская область</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
         <v>4.15</v>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>3.9</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>3.6</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>3.95</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.1</v>
       </c>
       <c r="L36" t="n">
         <v>4.1</v>
       </c>
       <c r="M36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N36" t="n">
         <v>4.05</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>3.9</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>2.15</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>2.3</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>2.9</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>3.1</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>3.65</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>3.566666666666666</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ростовская область</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
         <v>4.35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>4.1</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>3.8</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>4.2</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>4.15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.2</v>
       </c>
       <c r="K37" t="n">
         <v>4.2</v>
       </c>
       <c r="L37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M37" t="n">
         <v>4.3</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>4.1</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>4</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>4.15</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>2.75</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>2.633333333333333</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>3.9</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>3.933333333333334</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Республика Дагестан</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>1.6</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.5</v>
       </c>
       <c r="C38" t="n">
         <v>1.5</v>
       </c>
       <c r="D38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E38" t="n">
         <v>1.6</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>1.5</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.6</v>
       </c>
       <c r="G38" t="n">
         <v>1.6</v>
@@ -3175,10 +3432,10 @@
         <v>1.6</v>
       </c>
       <c r="I38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J38" t="n">
         <v>1.55</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.5</v>
       </c>
       <c r="K38" t="n">
         <v>1.5</v>
@@ -3187,10 +3444,10 @@
         <v>1.5</v>
       </c>
       <c r="M38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N38" t="n">
         <v>1.45</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.5</v>
@@ -3199,714 +3456,764 @@
         <v>1.5</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R38" t="n">
         <v>0.8999999999999999</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>0.9</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>1.1</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>1.35</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>1.266666666666667</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>1.566666666666667</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Республика Ингушетия</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>0.8500000000000001</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>0.8000000000000002</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.9666666666666667</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>0.9</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>0.8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6999999999999998</v>
       </c>
       <c r="K39" t="n">
         <v>0.6999999999999998</v>
       </c>
       <c r="L39" t="n">
+        <v>0.6999999999999998</v>
+      </c>
+      <c r="M39" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>0.8</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>0.8</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>0.8</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>0.6333333333333333</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>0.6999999999999998</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Кабардино-Балкарская Республика</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>2.35</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>2.366666666666667</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>2.3</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>2.4</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>2.6</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>2.766666666666667</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.799999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>2.799999999999999</v>
       </c>
       <c r="I40" t="n">
+        <v>2.799999999999999</v>
+      </c>
+      <c r="J40" t="n">
         <v>2.7</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>2.700000000000001</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.799999999999999</v>
       </c>
       <c r="L40" t="n">
         <v>2.799999999999999</v>
       </c>
       <c r="M40" t="n">
+        <v>2.799999999999999</v>
+      </c>
+      <c r="N40" t="n">
         <v>2.7</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>2.5</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>2.566666666666666</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>1.55</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>1.533333333333333</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>1.933333333333333</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>2.033333333333333</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>2.3</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>1.966666666666667</v>
       </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>2.2</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>2.533333333333333</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Карачаево-Черкесская Республика</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>3.35</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>3.299999999999999</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>3.4</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>3.1</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>3.200000000000001</v>
-      </c>
-      <c r="G41" t="n">
-        <v>3.133333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>3.133333333333333</v>
       </c>
       <c r="I41" t="n">
+        <v>3.133333333333333</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.15</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>3.1</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>3</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>2.8</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>2.933333333333334</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>3.3</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>2.2</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>1.866666666666667</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>2.3</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>2.466666666666667</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>2.95</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>2.366666666666667</v>
       </c>
-      <c r="W41" t="n">
+      <c r="X41" t="n">
         <v>2.266666666666667</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>2.766666666666667</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Республика Северная  Осетия - Алания</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>2.7</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>2.466666666666667</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>2.566666666666666</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>2.6</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>2.7</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>2.666666666666667</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>2.6</v>
       </c>
       <c r="I42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J42" t="n">
         <v>2.35</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.533333333333333</v>
       </c>
       <c r="K42" t="n">
         <v>2.533333333333333</v>
       </c>
       <c r="L42" t="n">
+        <v>2.533333333333333</v>
+      </c>
+      <c r="M42" t="n">
         <v>2.6</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>2.55</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>2.533333333333333</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>2.566666666666666</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="R42" t="n">
         <v>1.6</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>1.566666666666667</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
         <v>1.933333333333333</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>2.066666666666666</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>2.3</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>2.033333333333334</v>
       </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
         <v>1.9</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Чеченская Республика</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>0.8</v>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>0.7</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0.8000000000000002</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.8333333333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="I43" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>0.75</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>0.6333333333333333</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>0.6999999999999998</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="R43" t="n">
         <v>0.4</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>0.5333333333333333</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="T43" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="U43" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V43" t="n">
         <v>0.75</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>0.6333333333333333</v>
       </c>
-      <c r="W43" t="n">
+      <c r="X43" t="n">
         <v>0.6999999999999998</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Y43" t="n">
         <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ставропольский край</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>3.95</v>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>3.700000000000001</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3.799999999999999</v>
       </c>
       <c r="D44" t="n">
         <v>3.799999999999999</v>
       </c>
       <c r="E44" t="n">
+        <v>3.799999999999999</v>
+      </c>
+      <c r="F44" t="n">
         <v>3.6</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>3.766666666666667</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3.799999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>3.799999999999999</v>
       </c>
       <c r="I44" t="n">
+        <v>3.799999999999999</v>
+      </c>
+      <c r="J44" t="n">
         <v>3.55</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>3.6</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>3.7</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>3.55</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="R44" t="n">
         <v>2.45</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="T44" t="n">
+      <c r="U44" t="n">
         <v>3</v>
       </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
         <v>3.4</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>2.966666666666666</v>
       </c>
-      <c r="W44" t="n">
+      <c r="X44" t="n">
         <v>3.1</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Республика Башкортостан</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
         <v>4.1</v>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>3.9</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>3.5</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3.733333333333333</v>
       </c>
       <c r="G45" t="n">
         <v>3.733333333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>3.733333333333333</v>
+      </c>
+      <c r="I45" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>3.65</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>3.85</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="R45" t="n">
         <v>3.7</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3.700000000000001</v>
       </c>
       <c r="S45" t="n">
         <v>3.700000000000001</v>
       </c>
       <c r="T45" t="n">
+        <v>3.700000000000001</v>
+      </c>
+      <c r="U45" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>3.8</v>
-      </c>
-      <c r="V45" t="n">
-        <v>3.133333333333333</v>
       </c>
       <c r="W45" t="n">
         <v>3.133333333333333</v>
       </c>
       <c r="X45" t="n">
+        <v>3.133333333333333</v>
+      </c>
+      <c r="Y45" t="n">
         <v>3.466666666666667</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Республика Марий Эл</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
         <v>3.9</v>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>3.5</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>3.6</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>3.3</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>3.5</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>3.65</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>3.6</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>3.7</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="R46" t="n">
         <v>2.35</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>2.133333333333333</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>2.566666666666666</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>2.8</v>
       </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>3.15</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>2.700000000000001</v>
       </c>
-      <c r="W46" t="n">
+      <c r="X46" t="n">
         <v>2.8</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
         <v>3.200000000000001</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Республика Мордовия</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
         <v>3.55</v>
       </c>
-      <c r="B47" t="n">
+      <c r="C47" t="n">
         <v>3.1</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>2.9</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>3.1</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>3.05</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>3.033333333333333</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>3.15</v>
-      </c>
-      <c r="N47" t="n">
-        <v>3.200000000000001</v>
       </c>
       <c r="O47" t="n">
         <v>3.200000000000001</v>
       </c>
       <c r="P47" t="n">
+        <v>3.200000000000001</v>
+      </c>
+      <c r="Q47" t="n">
         <v>3.15</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="R47" t="n">
         <v>2.05</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>1.9</v>
       </c>
-      <c r="S47" t="n">
+      <c r="T47" t="n">
         <v>2.4</v>
       </c>
-      <c r="T47" t="n">
+      <c r="U47" t="n">
         <v>2.566666666666666</v>
       </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>2.95</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>2.433333333333334</v>
       </c>
-      <c r="W47" t="n">
+      <c r="X47" t="n">
         <v>2.533333333333334</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
         <v>2.866666666666667</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Республика Татарстан</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
         <v>3.55</v>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>3.4</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>3.3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3.5</v>
       </c>
       <c r="G48" t="n">
         <v>3.5</v>
@@ -3915,10 +4222,10 @@
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J48" t="n">
         <v>3.45</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.5</v>
       </c>
       <c r="K48" t="n">
         <v>3.5</v>
@@ -3927,294 +4234,314 @@
         <v>3.5</v>
       </c>
       <c r="M48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N48" t="n">
         <v>3.45</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>3.4</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
         <v>3.45</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="S48" t="n">
+      <c r="T48" t="n">
         <v>3.4</v>
       </c>
-      <c r="T48" t="n">
+      <c r="U48" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>3.25</v>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>2.566666666666667</v>
       </c>
-      <c r="W48" t="n">
+      <c r="X48" t="n">
         <v>2.5</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
         <v>2.766666666666667</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Удмуртская Республика</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
         <v>3.65</v>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" t="n">
         <v>3.333333333333333</v>
-      </c>
-      <c r="C49" t="n">
-        <v>3.433333333333334</v>
       </c>
       <c r="D49" t="n">
         <v>3.433333333333334</v>
       </c>
       <c r="E49" t="n">
+        <v>3.433333333333334</v>
+      </c>
+      <c r="F49" t="n">
         <v>3.1</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>3.4</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>3.5</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>3.4</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>3.366666666666667</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.4</v>
       </c>
       <c r="L49" t="n">
         <v>3.4</v>
       </c>
       <c r="M49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N49" t="n">
         <v>3.45</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>3.45</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="R49" t="n">
         <v>3.6</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>3.5</v>
       </c>
-      <c r="S49" t="n">
+      <c r="T49" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="T49" t="n">
+      <c r="U49" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
         <v>3.25</v>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>2.9</v>
       </c>
-      <c r="W49" t="n">
+      <c r="X49" t="n">
         <v>2.933333333333334</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
         <v>3.333333333333333</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Чувашская Республика</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
         <v>3.55</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3.266666666666667</v>
       </c>
       <c r="C50" t="n">
         <v>3.266666666666667</v>
       </c>
       <c r="D50" t="n">
+        <v>3.266666666666667</v>
+      </c>
+      <c r="E50" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>3.1</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>3.266666666666667</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3.299999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>3.299999999999999</v>
       </c>
       <c r="I50" t="n">
+        <v>3.299999999999999</v>
+      </c>
+      <c r="J50" t="n">
         <v>3.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>3.299999999999999</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>3.15</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>3.033333333333333</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>3.066666666666666</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>3.2</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="R50" t="n">
         <v>1.85</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>1.933333333333333</v>
       </c>
-      <c r="S50" t="n">
+      <c r="T50" t="n">
         <v>2.266666666666667</v>
       </c>
-      <c r="T50" t="n">
+      <c r="U50" t="n">
         <v>2.5</v>
       </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
         <v>2.9</v>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>2.433333333333334</v>
       </c>
-      <c r="W50" t="n">
+      <c r="X50" t="n">
         <v>2.533333333333334</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Y50" t="n">
         <v>2.933333333333334</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Пермский край</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
         <v>4.2</v>
       </c>
-      <c r="B51" t="n">
+      <c r="C51" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>4</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>3.9</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>4.1</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>4.133333333333333</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4.1</v>
       </c>
       <c r="J51" t="n">
         <v>4.1</v>
       </c>
       <c r="K51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L51" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>4.2</v>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>4.25</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>4.2</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>4.1</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="R51" t="n">
         <v>2.45</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>2.633333333333333</v>
       </c>
-      <c r="S51" t="n">
+      <c r="T51" t="n">
         <v>3.066666666666666</v>
       </c>
-      <c r="T51" t="n">
+      <c r="U51" t="n">
         <v>3.3</v>
       </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>3.7</v>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>3.3</v>
       </c>
-      <c r="W51" t="n">
+      <c r="X51" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Y51" t="n">
         <v>3.866666666666667</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Кировская область</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
         <v>4.55</v>
       </c>
-      <c r="B52" t="n">
+      <c r="C52" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>4.3</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>4.233333333333333</v>
-      </c>
-      <c r="G52" t="n">
-        <v>4.1</v>
       </c>
       <c r="H52" t="n">
         <v>4.1</v>
       </c>
       <c r="I52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J52" t="n">
         <v>4.05</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4.1</v>
       </c>
       <c r="K52" t="n">
         <v>4.1</v>
@@ -4223,60 +4550,65 @@
         <v>4.1</v>
       </c>
       <c r="M52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N52" t="n">
         <v>4</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>3.9</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>4</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="R52" t="n">
         <v>2.4</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>2.266666666666667</v>
       </c>
-      <c r="S52" t="n">
+      <c r="T52" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="T52" t="n">
+      <c r="U52" t="n">
         <v>2.966666666666667</v>
       </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
         <v>3.5</v>
       </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
         <v>3.2</v>
       </c>
-      <c r="W52" t="n">
+      <c r="X52" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Y52" t="n">
         <v>3.666666666666667</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Нижегородская область</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
         <v>4.35</v>
       </c>
-      <c r="B53" t="n">
+      <c r="C53" t="n">
         <v>4.033333333333333</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>4</v>
       </c>
       <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="n">
         <v>3.6</v>
-      </c>
-      <c r="F53" t="n">
-        <v>4</v>
       </c>
       <c r="G53" t="n">
         <v>4</v>
@@ -4285,2252 +4617,2435 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
         <v>3.9</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>4.1</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>4.2</v>
-      </c>
-      <c r="M53" t="n">
-        <v>4.1</v>
       </c>
       <c r="N53" t="n">
         <v>4.1</v>
       </c>
       <c r="O53" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="P53" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>4.15</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="R53" t="n">
         <v>3.05</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>2.966666666666667</v>
       </c>
-      <c r="S53" t="n">
+      <c r="T53" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="T53" t="n">
+      <c r="U53" t="n">
         <v>3.4</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>3.85</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>3.4</v>
       </c>
-      <c r="W53" t="n">
+      <c r="X53" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>3.733333333333333</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Оренбургская область</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
         <v>4.7</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4.166666666666667</v>
       </c>
       <c r="C54" t="n">
         <v>4.166666666666667</v>
       </c>
       <c r="D54" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E54" t="n">
         <v>4.3</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>3.9</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4.1</v>
       </c>
       <c r="J54" t="n">
         <v>4.1</v>
       </c>
       <c r="K54" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L54" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>4.15</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>4.1</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>4.25</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="R54" t="n">
         <v>2.65</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>2.433333333333334</v>
       </c>
-      <c r="S54" t="n">
+      <c r="T54" t="n">
         <v>3.1</v>
       </c>
-      <c r="T54" t="n">
+      <c r="U54" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
         <v>3.8</v>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="W54" t="n">
+      <c r="X54" t="n">
         <v>3.7</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Y54" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Пензенская область</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
         <v>4.2</v>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>3.1</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>3.7</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>3.9</v>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>3.75</v>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="P55" t="n">
+      <c r="Q55" t="n">
         <v>3.9</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="R55" t="n">
         <v>2.6</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>2.366666666666667</v>
       </c>
-      <c r="S55" t="n">
+      <c r="T55" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="T55" t="n">
+      <c r="U55" t="n">
         <v>3.1</v>
       </c>
-      <c r="U55" t="n">
+      <c r="V55" t="n">
         <v>3.5</v>
       </c>
-      <c r="V55" t="n">
+      <c r="W55" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="W55" t="n">
+      <c r="X55" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Y55" t="n">
         <v>3.666666666666667</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Самарская область</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
         <v>4.55</v>
       </c>
-      <c r="B56" t="n">
+      <c r="C56" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>4.4</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>3.9</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>4.266666666666667</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4.333333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="I56" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="J56" t="n">
         <v>4.15</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>4.3</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>4.2</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>4.3</v>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>4.1</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
         <v>4.199999999999999</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="R56" t="n">
         <v>2.75</v>
       </c>
-      <c r="R56" t="n">
+      <c r="S56" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="S56" t="n">
+      <c r="T56" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="T56" t="n">
+      <c r="U56" t="n">
         <v>3.5</v>
       </c>
-      <c r="U56" t="n">
+      <c r="V56" t="n">
         <v>3.9</v>
       </c>
-      <c r="V56" t="n">
+      <c r="W56" t="n">
         <v>3.433333333333333</v>
       </c>
-      <c r="W56" t="n">
+      <c r="X56" t="n">
         <v>3.533333333333334</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Y56" t="n">
         <v>3.933333333333334</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Саратовская область</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
         <v>4.25</v>
       </c>
-      <c r="B57" t="n">
+      <c r="C57" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>4.2</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>3.6</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>4.1</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>3.85</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>3.933333333333334</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="n">
+        <v>4</v>
+      </c>
+      <c r="O57" t="n">
         <v>3.9</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>4.1</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="R57" t="n">
         <v>2.3</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>2.2</v>
       </c>
-      <c r="S57" t="n">
+      <c r="T57" t="n">
         <v>2.8</v>
       </c>
-      <c r="T57" t="n">
+      <c r="U57" t="n">
         <v>3.1</v>
       </c>
-      <c r="U57" t="n">
+      <c r="V57" t="n">
         <v>3.5</v>
       </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="W57" t="n">
+      <c r="X57" t="n">
         <v>3.2</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Y57" t="n">
         <v>3.766666666666667</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ульяновская область</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
         <v>4.1</v>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>3.9</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>3.4</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>3.700000000000001</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3.833333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>3.833333333333333</v>
       </c>
       <c r="I58" t="n">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="J58" t="n">
         <v>3.75</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>3.9</v>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>3.7</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="R58" t="n">
         <v>2.25</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>2.2</v>
       </c>
-      <c r="S58" t="n">
+      <c r="T58" t="n">
         <v>2.733333333333334</v>
       </c>
-      <c r="T58" t="n">
+      <c r="U58" t="n">
         <v>3</v>
       </c>
-      <c r="U58" t="n">
+      <c r="V58" t="n">
         <v>3.5</v>
       </c>
-      <c r="V58" t="n">
+      <c r="W58" t="n">
         <v>3.233333333333334</v>
       </c>
-      <c r="W58" t="n">
+      <c r="X58" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Y58" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Курганская область</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
         <v>4.949999999999999</v>
       </c>
-      <c r="B59" t="n">
+      <c r="C59" t="n">
         <v>4.5</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>4.1</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>4.35</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>4.7</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>4.8</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>4.7</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="R59" t="n">
         <v>3.2</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>2.9</v>
       </c>
-      <c r="S59" t="n">
+      <c r="T59" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="T59" t="n">
+      <c r="U59" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="U59" t="n">
+      <c r="V59" t="n">
         <v>4.1</v>
       </c>
-      <c r="V59" t="n">
+      <c r="W59" t="n">
         <v>3.6</v>
       </c>
-      <c r="W59" t="n">
+      <c r="X59" t="n">
         <v>3.8</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Y59" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Свердловская область</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
         <v>4.6</v>
       </c>
-      <c r="B60" t="n">
+      <c r="C60" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>4.2</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>4.4</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>4.5</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>4.449999999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4.533333333333333</v>
       </c>
       <c r="K60" t="n">
         <v>4.533333333333333</v>
       </c>
       <c r="L60" t="n">
+        <v>4.533333333333333</v>
+      </c>
+      <c r="M60" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>4.449999999999999</v>
-      </c>
-      <c r="N60" t="n">
-        <v>4.5</v>
       </c>
       <c r="O60" t="n">
         <v>4.5</v>
       </c>
       <c r="P60" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q60" t="n">
         <v>4.55</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="R60" t="n">
         <v>2.95</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>3.066666666666666</v>
       </c>
-      <c r="S60" t="n">
+      <c r="T60" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="T60" t="n">
+      <c r="U60" t="n">
         <v>3.8</v>
       </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
         <v>4.1</v>
       </c>
-      <c r="V60" t="n">
+      <c r="W60" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="W60" t="n">
+      <c r="X60" t="n">
         <v>3.533333333333334</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Y60" t="n">
         <v>4.100000000000001</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Тюменская область</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
         <v>5.5</v>
       </c>
-      <c r="B61" t="n">
+      <c r="C61" t="n">
         <v>5.199999999999999</v>
-      </c>
-      <c r="C61" t="n">
-        <v>5.266666666666667</v>
       </c>
       <c r="D61" t="n">
         <v>5.266666666666667</v>
       </c>
       <c r="E61" t="n">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="F61" t="n">
         <v>4.9</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>5.199999999999999</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>5.2</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>5.050000000000001</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>5.166666666666667</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>5.2</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>5.1</v>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>5.050000000000001</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>5.2</v>
-      </c>
-      <c r="O61" t="n">
-        <v>5.1</v>
       </c>
       <c r="P61" t="n">
         <v>5.1</v>
       </c>
       <c r="Q61" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="R61" t="n">
         <v>3.45</v>
       </c>
-      <c r="R61" t="n">
+      <c r="S61" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="S61" t="n">
+      <c r="T61" t="n">
         <v>4</v>
       </c>
-      <c r="T61" t="n">
+      <c r="U61" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="U61" t="n">
+      <c r="V61" t="n">
         <v>4.6</v>
       </c>
-      <c r="V61" t="n">
+      <c r="W61" t="n">
         <v>3.966666666666666</v>
       </c>
-      <c r="W61" t="n">
+      <c r="X61" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Y61" t="n">
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ямало-Ненецкий авт.округ</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
         <v>5.75</v>
       </c>
-      <c r="B62" t="n">
+      <c r="C62" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>5.5</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>5.8</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>5.899999999999999</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>5.5</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>5.5</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>5.4</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="R62" t="n">
         <v>5.6</v>
       </c>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Тюменская область без авт.округов</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
         <v>5</v>
       </c>
-      <c r="B63" t="n">
+      <c r="C63" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>4.2</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>4.6</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>4.5</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>4.5</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>4.566666666666666</v>
-      </c>
-      <c r="O63" t="n">
-        <v>4.6</v>
       </c>
       <c r="P63" t="n">
         <v>4.6</v>
       </c>
       <c r="Q63" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R63" t="n">
         <v>4.8</v>
       </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Челябинская область</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
         <v>4.949999999999999</v>
       </c>
-      <c r="B64" t="n">
+      <c r="C64" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>4.6</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>4</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>4.5</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>4.6</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>4.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>4.6</v>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>4.449999999999999</v>
       </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>4.6</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="R64" t="n">
         <v>2.75</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="S64" t="n">
+      <c r="T64" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="T64" t="n">
+      <c r="U64" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="U64" t="n">
+      <c r="V64" t="n">
         <v>4.15</v>
       </c>
-      <c r="V64" t="n">
+      <c r="W64" t="n">
         <v>3.833333333333334</v>
       </c>
-      <c r="W64" t="n">
+      <c r="X64" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Y64" t="n">
         <v>4.399999999999999</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Республика Алтай</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
         <v>4.7</v>
       </c>
-      <c r="B65" t="n">
+      <c r="C65" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>4.3</v>
-      </c>
-      <c r="F65" t="n">
-        <v>4.2</v>
       </c>
       <c r="G65" t="n">
         <v>4.2</v>
       </c>
       <c r="H65" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I65" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>3.85</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>3.9</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>4.2</v>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>4.1</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>3.9</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="P65" t="n">
+      <c r="Q65" t="n">
         <v>3.75</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>2.3</v>
       </c>
       <c r="R65" t="n">
         <v>2.3</v>
       </c>
       <c r="S65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T65" t="n">
         <v>3.033333333333333</v>
       </c>
-      <c r="T65" t="n">
+      <c r="U65" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="U65" t="n">
+      <c r="V65" t="n">
         <v>3.9</v>
       </c>
-      <c r="V65" t="n">
+      <c r="W65" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="W65" t="n">
+      <c r="X65" t="n">
         <v>4.499999999999999</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Y65" t="n">
         <v>4.766666666666667</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Республика Бурятия</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
         <v>3.95</v>
       </c>
-      <c r="B66" t="n">
+      <c r="C66" t="n">
         <v>3.5</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>3.6</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>3.3</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>3.6</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.5</v>
       </c>
       <c r="K66" t="n">
         <v>3.5</v>
       </c>
       <c r="L66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M66" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>3.6</v>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="P66" t="n">
+      <c r="Q66" t="n">
         <v>3.65</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="R66" t="n">
         <v>2.15</v>
       </c>
-      <c r="R66" t="n">
+      <c r="S66" t="n">
         <v>2.066666666666666</v>
       </c>
-      <c r="S66" t="n">
+      <c r="T66" t="n">
         <v>2.566666666666666</v>
       </c>
-      <c r="T66" t="n">
+      <c r="U66" t="n">
         <v>2.8</v>
       </c>
-      <c r="U66" t="n">
+      <c r="V66" t="n">
         <v>3.5</v>
       </c>
-      <c r="V66" t="n">
+      <c r="W66" t="n">
         <v>3</v>
       </c>
-      <c r="W66" t="n">
+      <c r="X66" t="n">
         <v>3.066666666666666</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Y66" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Республика Тыва</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
         <v>1.85</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1.633333333333334</v>
       </c>
       <c r="C67" t="n">
         <v>1.633333333333334</v>
       </c>
       <c r="D67" t="n">
+        <v>1.633333333333334</v>
+      </c>
+      <c r="E67" t="n">
         <v>1.7</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>1.4</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>1.533333333333333</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>1.566666666666667</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>1.6</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>1.55</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>1.666666666666667</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1.633333333333334</v>
       </c>
       <c r="L67" t="n">
         <v>1.633333333333334</v>
       </c>
       <c r="M67" t="n">
-        <v>1.7</v>
+        <v>1.633333333333334</v>
       </c>
       <c r="N67" t="n">
         <v>1.7</v>
       </c>
       <c r="O67" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P67" t="n">
         <v>1.8</v>
       </c>
-      <c r="P67" t="n">
+      <c r="Q67" t="n">
         <v>1.85</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="R67" t="n">
         <v>1.25</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>1.3</v>
       </c>
-      <c r="S67" t="n">
+      <c r="T67" t="n">
         <v>1.466666666666667</v>
       </c>
-      <c r="T67" t="n">
+      <c r="U67" t="n">
         <v>1.733333333333333</v>
       </c>
-      <c r="U67" t="n">
+      <c r="V67" t="n">
         <v>2.1</v>
       </c>
-      <c r="V67" t="n">
+      <c r="W67" t="n">
         <v>1.966666666666667</v>
       </c>
-      <c r="W67" t="n">
+      <c r="X67" t="n">
         <v>1.6</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Y67" t="n">
         <v>1.766666666666667</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Республика Хакасия</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
         <v>4.7</v>
       </c>
-      <c r="B68" t="n">
+      <c r="C68" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>4.3</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>4.5</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>4.2</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>4.5</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>4.6</v>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>4.35</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>4.3</v>
       </c>
-      <c r="P68" t="n">
+      <c r="Q68" t="n">
         <v>4.25</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="R68" t="n">
         <v>2.7</v>
       </c>
-      <c r="R68" t="n">
+      <c r="S68" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="S68" t="n">
+      <c r="T68" t="n">
         <v>3</v>
       </c>
-      <c r="T68" t="n">
+      <c r="U68" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="U68" t="n">
+      <c r="V68" t="n">
         <v>4</v>
       </c>
-      <c r="V68" t="n">
+      <c r="W68" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="W68" t="n">
+      <c r="X68" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Y68" t="n">
         <v>4.7</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Алтайский край</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
         <v>4.7</v>
       </c>
-      <c r="B69" t="n">
+      <c r="C69" t="n">
         <v>4.1</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>4.4</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>4</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>4.199999999999999</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>4.4</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>4.2</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>4.5</v>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>4.2</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="P69" t="n">
+      <c r="Q69" t="n">
         <v>4.35</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="R69" t="n">
         <v>2.6</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>2.566666666666667</v>
       </c>
-      <c r="S69" t="n">
+      <c r="T69" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="T69" t="n">
+      <c r="U69" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="U69" t="n">
+      <c r="V69" t="n">
         <v>3.8</v>
       </c>
-      <c r="V69" t="n">
+      <c r="W69" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="W69" t="n">
+      <c r="X69" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Y69" t="n">
         <v>4.266666666666667</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Забайкальский край</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
         <v>4.6</v>
       </c>
-      <c r="B70" t="n">
+      <c r="C70" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>4.3</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>4.2</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>4.4</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>4.5</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>4.3</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>4.4</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>4.449999999999999</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>4.533333333333333</v>
-      </c>
-      <c r="O70" t="n">
-        <v>4.5</v>
       </c>
       <c r="P70" t="n">
         <v>4.5</v>
       </c>
       <c r="Q70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R70" t="n">
         <v>2.8</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>2.799999999999999</v>
       </c>
-      <c r="S70" t="n">
+      <c r="T70" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="T70" t="n">
+      <c r="U70" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="U70" t="n">
+      <c r="V70" t="n">
         <v>4.3</v>
       </c>
-      <c r="V70" t="n">
+      <c r="W70" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="W70" t="n">
+      <c r="X70" t="n">
         <v>4</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Y70" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Красноярский край</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
         <v>4.5</v>
       </c>
-      <c r="B71" t="n">
+      <c r="C71" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>4.4</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>4.766666666666667</v>
-      </c>
-      <c r="G71" t="n">
-        <v>4.8</v>
       </c>
       <c r="H71" t="n">
         <v>4.8</v>
       </c>
       <c r="I71" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J71" t="n">
         <v>4.6</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>4.7</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>4.699999999999999</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="P71" t="n">
+      <c r="Q71" t="n">
         <v>4.9</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="R71" t="n">
         <v>3.25</v>
       </c>
-      <c r="R71" t="n">
+      <c r="S71" t="n">
         <v>3</v>
       </c>
-      <c r="S71" t="n">
+      <c r="T71" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="T71" t="n">
+      <c r="U71" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="U71" t="n">
+      <c r="V71" t="n">
         <v>4.4</v>
       </c>
-      <c r="V71" t="n">
+      <c r="W71" t="n">
         <v>3.966666666666666</v>
       </c>
-      <c r="W71" t="n">
+      <c r="X71" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Y71" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Иркутская область</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
         <v>5.199999999999999</v>
       </c>
-      <c r="B72" t="n">
+      <c r="C72" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>4.7</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>4.8</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>4.1</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>4.6</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>4.7</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4.833333333333333</v>
       </c>
       <c r="K72" t="n">
         <v>4.833333333333333</v>
       </c>
       <c r="L72" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="M72" t="n">
         <v>4.9</v>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>4.85</v>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>4.7</v>
       </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="P72" t="n">
+      <c r="Q72" t="n">
         <v>4.9</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="R72" t="n">
         <v>3.1</v>
       </c>
-      <c r="R72" t="n">
+      <c r="S72" t="n">
         <v>2.933333333333334</v>
       </c>
-      <c r="S72" t="n">
+      <c r="T72" t="n">
         <v>3.6</v>
       </c>
-      <c r="T72" t="n">
+      <c r="U72" t="n">
         <v>3.9</v>
       </c>
-      <c r="U72" t="n">
+      <c r="V72" t="n">
         <v>4.5</v>
       </c>
-      <c r="V72" t="n">
+      <c r="W72" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="W72" t="n">
+      <c r="X72" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Y72" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Кемеровская область</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>4.8</v>
       </c>
-      <c r="B73" t="n">
+      <c r="C73" t="n">
         <v>4.300000000000001</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>4</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>4.4</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>4.25</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>4.333333333333333</v>
-      </c>
-      <c r="K73" t="n">
-        <v>4.4</v>
       </c>
       <c r="L73" t="n">
         <v>4.4</v>
       </c>
       <c r="M73" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N73" t="n">
         <v>4.25</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>4.4</v>
       </c>
-      <c r="P73" t="n">
+      <c r="Q73" t="n">
         <v>4.25</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>2.6</v>
       </c>
       <c r="R73" t="n">
         <v>2.6</v>
       </c>
       <c r="S73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T73" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="T73" t="n">
+      <c r="U73" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="U73" t="n">
+      <c r="V73" t="n">
         <v>3.8</v>
       </c>
-      <c r="V73" t="n">
+      <c r="W73" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="W73" t="n">
+      <c r="X73" t="n">
         <v>3.4</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Y73" t="n">
         <v>3.866666666666667</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Новосибирская область</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
         <v>5.1</v>
       </c>
-      <c r="B74" t="n">
+      <c r="C74" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>4.8</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>4.3</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>4.633333333333333</v>
-      </c>
-      <c r="G74" t="n">
-        <v>4.7</v>
       </c>
       <c r="H74" t="n">
         <v>4.7</v>
       </c>
       <c r="I74" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J74" t="n">
         <v>4.550000000000001</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>4.7</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>4.7</v>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>4.6</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>4.7</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="P74" t="n">
+      <c r="Q74" t="n">
         <v>4.699999999999999</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="R74" t="n">
         <v>2.8</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>2.9</v>
       </c>
-      <c r="S74" t="n">
+      <c r="T74" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="T74" t="n">
+      <c r="U74" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="U74" t="n">
+      <c r="V74" t="n">
         <v>4.15</v>
       </c>
-      <c r="V74" t="n">
+      <c r="W74" t="n">
         <v>3.466666666666666</v>
       </c>
-      <c r="W74" t="n">
+      <c r="X74" t="n">
         <v>3.5</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Y74" t="n">
         <v>4.233333333333333</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Омская область</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
         <v>4.6</v>
       </c>
-      <c r="B75" t="n">
+      <c r="C75" t="n">
         <v>4.300000000000001</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.333333333333333</v>
       </c>
       <c r="D75" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="E75" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F75" t="n">
         <v>3.9</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>4.2</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>4.4</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>4.15</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>4.3</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>4.25</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>4.2</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="P75" t="n">
+      <c r="Q75" t="n">
         <v>4.25</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="R75" t="n">
         <v>2.55</v>
       </c>
-      <c r="R75" t="n">
+      <c r="S75" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="S75" t="n">
+      <c r="T75" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="T75" t="n">
+      <c r="U75" t="n">
         <v>3.4</v>
       </c>
-      <c r="U75" t="n">
+      <c r="V75" t="n">
         <v>3.95</v>
       </c>
-      <c r="V75" t="n">
+      <c r="W75" t="n">
         <v>3.266666666666666</v>
       </c>
-      <c r="W75" t="n">
+      <c r="X75" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Y75" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Томская область</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
         <v>4.6</v>
       </c>
-      <c r="B76" t="n">
+      <c r="C76" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>4.5</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>3.9</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>4.2</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>4.3</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>4.2</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>4.166666666666667</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4.2</v>
       </c>
       <c r="L76" t="n">
         <v>4.2</v>
       </c>
       <c r="M76" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N76" t="n">
         <v>4.25</v>
-      </c>
-      <c r="N76" t="n">
-        <v>4.3</v>
       </c>
       <c r="O76" t="n">
         <v>4.3</v>
       </c>
       <c r="P76" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q76" t="n">
         <v>4.199999999999999</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="R76" t="n">
         <v>2.45</v>
       </c>
-      <c r="R76" t="n">
+      <c r="S76" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="S76" t="n">
+      <c r="T76" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="T76" t="n">
+      <c r="U76" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="U76" t="n">
+      <c r="V76" t="n">
         <v>3.8</v>
       </c>
-      <c r="V76" t="n">
+      <c r="W76" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="W76" t="n">
+      <c r="X76" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Y76" t="n">
         <v>3.566666666666666</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Республика Саха (Якутия)</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
         <v>4.4</v>
       </c>
-      <c r="B77" t="n">
+      <c r="C77" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>4.3</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>4.2</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>4.4</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>4.3</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>4.1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>4.166666666666667</v>
       </c>
       <c r="K77" t="n">
         <v>4.166666666666667</v>
       </c>
       <c r="L77" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="M77" t="n">
         <v>4.1</v>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>4.3</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="P77" t="n">
+      <c r="Q77" t="n">
         <v>3.95</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="R77" t="n">
         <v>2.55</v>
       </c>
-      <c r="R77" t="n">
+      <c r="S77" t="n">
         <v>2.633333333333333</v>
       </c>
-      <c r="S77" t="n">
+      <c r="T77" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="T77" t="n">
+      <c r="U77" t="n">
         <v>3.3</v>
       </c>
-      <c r="U77" t="n">
+      <c r="V77" t="n">
         <v>3.8</v>
       </c>
-      <c r="V77" t="n">
+      <c r="W77" t="n">
         <v>3.1</v>
       </c>
-      <c r="W77" t="n">
+      <c r="X77" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Y77" t="n">
         <v>3.233333333333333</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Камчатский край</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
         <v>5.6</v>
       </c>
-      <c r="B78" t="n">
+      <c r="C78" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>5.6</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>6</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>6.099999999999999</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>5.65</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>5.766666666666667</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>5.7</v>
       </c>
-      <c r="L78" t="n">
+      <c r="M78" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>6.050000000000001</v>
       </c>
-      <c r="N78" t="n">
+      <c r="O78" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="O78" t="n">
+      <c r="P78" t="n">
         <v>5.8</v>
       </c>
-      <c r="P78" t="n">
+      <c r="Q78" t="n">
         <v>5.7</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="R78" t="n">
         <v>3.65</v>
       </c>
-      <c r="R78" t="n">
+      <c r="S78" t="n">
         <v>3.5</v>
       </c>
-      <c r="S78" t="n">
+      <c r="T78" t="n">
         <v>4.2</v>
       </c>
-      <c r="T78" t="n">
+      <c r="U78" t="n">
         <v>4.5</v>
       </c>
-      <c r="U78" t="n">
+      <c r="V78" t="n">
         <v>4.85</v>
       </c>
-      <c r="V78" t="n">
+      <c r="W78" t="n">
         <v>4.466666666666668</v>
       </c>
-      <c r="W78" t="n">
+      <c r="X78" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Y78" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Приморский край</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
         <v>5.4</v>
       </c>
-      <c r="B79" t="n">
+      <c r="C79" t="n">
         <v>4.866666666666667</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>4.9</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>4.2</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>4.8</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>4.699999999999999</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="L79" t="n">
+      <c r="M79" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>4.8</v>
       </c>
-      <c r="N79" t="n">
+      <c r="O79" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="O79" t="n">
+      <c r="P79" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="P79" t="n">
+      <c r="Q79" t="n">
         <v>5</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="R79" t="n">
         <v>3.25</v>
       </c>
-      <c r="R79" t="n">
+      <c r="S79" t="n">
         <v>3.033333333333333</v>
       </c>
-      <c r="S79" t="n">
+      <c r="T79" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="T79" t="n">
+      <c r="U79" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="U79" t="n">
+      <c r="V79" t="n">
         <v>4.45</v>
       </c>
-      <c r="V79" t="n">
+      <c r="W79" t="n">
         <v>4.066666666666667</v>
       </c>
-      <c r="W79" t="n">
+      <c r="X79" t="n">
         <v>3.8</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Y79" t="n">
         <v>4.366666666666666</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Хабаровский край</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
         <v>5.5</v>
       </c>
-      <c r="B80" t="n">
+      <c r="C80" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>5.166666666666667</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>4.7</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>5.133333333333334</v>
-      </c>
-      <c r="G80" t="n">
-        <v>5.2</v>
       </c>
       <c r="H80" t="n">
         <v>5.2</v>
       </c>
       <c r="I80" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J80" t="n">
         <v>5</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>5.1</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>5.133333333333333</v>
       </c>
-      <c r="L80" t="n">
+      <c r="M80" t="n">
         <v>5.2</v>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>5.1</v>
       </c>
-      <c r="N80" t="n">
+      <c r="O80" t="n">
         <v>5.033333333333333</v>
       </c>
-      <c r="O80" t="n">
+      <c r="P80" t="n">
         <v>5.133333333333333</v>
       </c>
-      <c r="P80" t="n">
+      <c r="Q80" t="n">
         <v>4.949999999999999</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="R80" t="n">
         <v>3.35</v>
       </c>
-      <c r="R80" t="n">
+      <c r="S80" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="S80" t="n">
+      <c r="T80" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="T80" t="n">
+      <c r="U80" t="n">
         <v>3.966666666666666</v>
       </c>
-      <c r="U80" t="n">
+      <c r="V80" t="n">
         <v>4.75</v>
       </c>
-      <c r="V80" t="n">
+      <c r="W80" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="W80" t="n">
+      <c r="X80" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Y80" t="n">
         <v>4.566666666666666</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Амурская область</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
         <v>5.449999999999999</v>
       </c>
-      <c r="B81" t="n">
+      <c r="C81" t="n">
         <v>5.033333333333333</v>
-      </c>
-      <c r="C81" t="n">
-        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>5</v>
       </c>
       <c r="E81" t="n">
+        <v>5</v>
+      </c>
+      <c r="F81" t="n">
         <v>4.8</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>4.966666666666667</v>
-      </c>
-      <c r="G81" t="n">
-        <v>5.033333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>5.033333333333333</v>
       </c>
       <c r="I81" t="n">
+        <v>5.033333333333333</v>
+      </c>
+      <c r="J81" t="n">
         <v>4.75</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="L81" t="n">
+      <c r="M81" t="n">
         <v>4.966666666666667</v>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>5</v>
       </c>
-      <c r="N81" t="n">
+      <c r="O81" t="n">
         <v>5.166666666666667</v>
       </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
         <v>5.133333333333333</v>
       </c>
-      <c r="P81" t="n">
+      <c r="Q81" t="n">
         <v>5.1</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="R81" t="n">
         <v>4.1</v>
       </c>
-      <c r="R81" t="n">
+      <c r="S81" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="S81" t="n">
+      <c r="T81" t="n">
         <v>4</v>
       </c>
-      <c r="T81" t="n">
+      <c r="U81" t="n">
         <v>4.2</v>
       </c>
-      <c r="U81" t="n">
+      <c r="V81" t="n">
         <v>4.75</v>
       </c>
-      <c r="V81" t="n">
+      <c r="W81" t="n">
         <v>4.333333333333334</v>
       </c>
-      <c r="W81" t="n">
+      <c r="X81" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Y81" t="n">
         <v>4.666666666666667</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Магаданская область</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
         <v>6.2</v>
       </c>
-      <c r="B82" t="n">
+      <c r="C82" t="n">
         <v>5.933333333333334</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>6.033333333333334</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>6</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>6.166666666666667</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>6.366666666666667</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>6.449999999999999</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>6.166666666666667</v>
       </c>
-      <c r="L82" t="n">
+      <c r="M82" t="n">
         <v>6</v>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>5.75</v>
       </c>
-      <c r="N82" t="n">
+      <c r="O82" t="n">
         <v>5.8</v>
       </c>
-      <c r="O82" t="n">
+      <c r="P82" t="n">
         <v>5.399999999999999</v>
       </c>
-      <c r="P82" t="n">
+      <c r="Q82" t="n">
         <v>5.050000000000001</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="R82" t="n">
         <v>3.35</v>
       </c>
-      <c r="R82" t="n">
+      <c r="S82" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="S82" t="n">
+      <c r="T82" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="T82" t="n">
+      <c r="U82" t="n">
         <v>3.966666666666666</v>
       </c>
-      <c r="U82" t="n">
+      <c r="V82" t="n">
         <v>4.6</v>
       </c>
-      <c r="V82" t="n">
+      <c r="W82" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="W82" t="n">
+      <c r="X82" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Y82" t="n">
         <v>4.633333333333334</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Сахалинская область</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
         <v>5.949999999999999</v>
       </c>
-      <c r="B83" t="n">
+      <c r="C83" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>5.3</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>5.5</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>5.75</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>5.766666666666667</v>
       </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
         <v>5.633333333333333</v>
-      </c>
-      <c r="M83" t="n">
-        <v>5.5</v>
       </c>
       <c r="N83" t="n">
         <v>5.5</v>
       </c>
       <c r="O83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P83" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="P83" t="n">
+      <c r="Q83" t="n">
         <v>5.6</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="R83" t="n">
         <v>4.699999999999999</v>
       </c>
-      <c r="R83" t="n">
+      <c r="S83" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="S83" t="n">
+      <c r="T83" t="n">
         <v>5</v>
       </c>
-      <c r="T83" t="n">
+      <c r="U83" t="n">
         <v>5.2</v>
       </c>
-      <c r="U83" t="n">
+      <c r="V83" t="n">
         <v>5.25</v>
       </c>
-      <c r="V83" t="n">
+      <c r="W83" t="n">
         <v>4.366666666666667</v>
       </c>
-      <c r="W83" t="n">
+      <c r="X83" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Y83" t="n">
         <v>4.833333333333333</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Еврейская авт.область</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
         <v>5.1</v>
-      </c>
-      <c r="B84" t="n">
-        <v>4.8</v>
       </c>
       <c r="C84" t="n">
         <v>4.8</v>
@@ -6539,245 +7054,305 @@
         <v>4.8</v>
       </c>
       <c r="E84" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F84" t="n">
         <v>5</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>4.866666666666667</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>4.7</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>4.35</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>4.7</v>
       </c>
-      <c r="L84" t="n">
+      <c r="M84" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>4.8</v>
       </c>
-      <c r="N84" t="n">
+      <c r="O84" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="P84" t="n">
+      <c r="Q84" t="n">
         <v>4.75</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="R84" t="n">
         <v>5</v>
       </c>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Чукотский авт.округ</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
         <v>6</v>
       </c>
-      <c r="B85" t="n">
+      <c r="C85" t="n">
         <v>5.933333333333334</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>5.8</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>5</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>5.766666666666666</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>5.133333333333334</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>5.85</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>6.066666666666667</v>
       </c>
-      <c r="L85" t="n">
+      <c r="M85" t="n">
         <v>5.7</v>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>5.25</v>
       </c>
-      <c r="N85" t="n">
+      <c r="O85" t="n">
         <v>5.3</v>
       </c>
-      <c r="O85" t="n">
+      <c r="P85" t="n">
         <v>4.899999999999999</v>
       </c>
-      <c r="P85" t="n">
+      <c r="Q85" t="n">
         <v>4.7</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="R85" t="n">
         <v>4.8</v>
       </c>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Республика Крым</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
         <v>2.7</v>
       </c>
-      <c r="B86" t="n">
+      <c r="C86" t="n">
         <v>2.799999999999999</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>2.9</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>2.933333333333334</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>2.8</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3.066666666666666</v>
       </c>
       <c r="G86" t="n">
         <v>3.066666666666666</v>
       </c>
       <c r="H86" t="n">
+        <v>3.066666666666666</v>
+      </c>
+      <c r="I86" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>3.1</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
         <v>3.5</v>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>3.55</v>
       </c>
-      <c r="N86" t="n">
+      <c r="O86" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="O86" t="n">
+      <c r="P86" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="P86" t="n">
+      <c r="Q86" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="R86" t="n">
         <v>2.1</v>
       </c>
-      <c r="R86" t="n">
+      <c r="S86" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="S86" t="n">
+      <c r="T86" t="n">
         <v>2.8</v>
       </c>
-      <c r="T86" t="n">
+      <c r="U86" t="n">
         <v>3.033333333333333</v>
       </c>
-      <c r="U86" t="n">
+      <c r="V86" t="n">
         <v>3.45</v>
       </c>
-      <c r="V86" t="n">
+      <c r="W86" t="n">
         <v>3</v>
       </c>
-      <c r="W86" t="n">
+      <c r="X86" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Y86" t="n">
         <v>3.666666666666667</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>г.Севастополь</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
         <v>2.85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="C87" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>3</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>3.966666666666666</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>4.35</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>4.5</v>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="L87" t="n">
+      <c r="M87" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>4.4</v>
       </c>
-      <c r="N87" t="n">
+      <c r="O87" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="O87" t="n">
+      <c r="P87" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="P87" t="n">
+      <c r="Q87" t="n">
         <v>4.55</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="R87" t="n">
         <v>4.1</v>
       </c>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
